--- a/data/breast/breast.xlsx
+++ b/data/breast/breast.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2777" uniqueCount="940">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2776" uniqueCount="940">
   <si>
     <t>Patient Number*</t>
   </si>
@@ -3185,10 +3185,10 @@
     <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="9" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="12" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
@@ -3593,13 +3593,13 @@
         <v>6</v>
       </c>
       <c r="B5" s="18">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="C5" s="18">
         <v>1</v>
       </c>
-      <c r="D5" s="31" t="s">
-        <v>933</v>
+      <c r="D5" s="31">
+        <v>3</v>
       </c>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
@@ -3612,12 +3612,12 @@
         <v>7</v>
       </c>
       <c r="B6" s="18">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C6" s="18">
         <v>1</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E6" s="14"/>
@@ -3636,8 +3636,8 @@
       <c r="C7" s="18">
         <v>1</v>
       </c>
-      <c r="D7" s="32">
-        <v>7</v>
+      <c r="D7" s="31">
+        <v>8</v>
       </c>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
@@ -3655,7 +3655,7 @@
       <c r="C8" s="18">
         <v>1</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="32" t="s">
         <v>935</v>
       </c>
       <c r="E8" s="14"/>
@@ -3674,7 +3674,7 @@
       <c r="C9" s="18">
         <v>1</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E9" s="14"/>
@@ -3693,7 +3693,7 @@
       <c r="C10" s="18">
         <v>1</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E10" s="14"/>
@@ -3712,7 +3712,7 @@
       <c r="C11" s="18">
         <v>1</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E11" s="14"/>
@@ -3731,7 +3731,7 @@
       <c r="C12" s="18">
         <v>1</v>
       </c>
-      <c r="D12" s="31" t="s">
+      <c r="D12" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E12" s="14"/>
@@ -3750,7 +3750,7 @@
       <c r="C13" s="18">
         <v>1</v>
       </c>
-      <c r="D13" s="31" t="s">
+      <c r="D13" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E13" s="14"/>
@@ -3769,7 +3769,7 @@
       <c r="C14" s="18">
         <v>1</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E14" s="14"/>
@@ -3788,7 +3788,7 @@
       <c r="C15" s="18">
         <v>1</v>
       </c>
-      <c r="D15" s="31" t="s">
+      <c r="D15" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E15" s="14"/>
@@ -3807,7 +3807,7 @@
       <c r="C16" s="18">
         <v>1</v>
       </c>
-      <c r="D16" s="31" t="s">
+      <c r="D16" s="32" t="s">
         <v>936</v>
       </c>
       <c r="E16" s="14"/>
@@ -3826,7 +3826,7 @@
       <c r="C17" s="18">
         <v>1</v>
       </c>
-      <c r="D17" s="31" t="s">
+      <c r="D17" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E17" s="14"/>
@@ -3845,7 +3845,7 @@
       <c r="C18" s="18">
         <v>1</v>
       </c>
-      <c r="D18" s="31" t="s">
+      <c r="D18" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E18" s="14"/>
@@ -3864,7 +3864,7 @@
       <c r="C19" s="18">
         <v>1</v>
       </c>
-      <c r="D19" s="31" t="s">
+      <c r="D19" s="32" t="s">
         <v>935</v>
       </c>
       <c r="E19" s="14"/>
@@ -3883,7 +3883,7 @@
       <c r="C20" s="18">
         <v>1</v>
       </c>
-      <c r="D20" s="31" t="s">
+      <c r="D20" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E20" s="14"/>
@@ -3902,7 +3902,7 @@
       <c r="C21" s="18">
         <v>1</v>
       </c>
-      <c r="D21" s="31" t="s">
+      <c r="D21" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E21" s="14"/>
@@ -3921,7 +3921,7 @@
       <c r="C22" s="18">
         <v>1</v>
       </c>
-      <c r="D22" s="31" t="s">
+      <c r="D22" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E22" s="14"/>
@@ -3940,7 +3940,7 @@
       <c r="C23" s="18">
         <v>1</v>
       </c>
-      <c r="D23" s="31" t="s">
+      <c r="D23" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E23" s="14"/>
@@ -3959,7 +3959,7 @@
       <c r="C24" s="18">
         <v>1</v>
       </c>
-      <c r="D24" s="31" t="s">
+      <c r="D24" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E24" s="14"/>
@@ -3978,7 +3978,7 @@
       <c r="C25" s="18">
         <v>1</v>
       </c>
-      <c r="D25" s="31" t="s">
+      <c r="D25" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E25" s="14"/>
@@ -3997,7 +3997,7 @@
       <c r="C26" s="18">
         <v>1</v>
       </c>
-      <c r="D26" s="31" t="s">
+      <c r="D26" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E26" s="14"/>
@@ -4016,7 +4016,7 @@
       <c r="C27" s="18">
         <v>1</v>
       </c>
-      <c r="D27" s="31" t="s">
+      <c r="D27" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E27" s="14"/>
@@ -4035,7 +4035,7 @@
       <c r="C28" s="18">
         <v>1</v>
       </c>
-      <c r="D28" s="31" t="s">
+      <c r="D28" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E28" s="14"/>
@@ -4054,7 +4054,7 @@
       <c r="C29" s="18">
         <v>1</v>
       </c>
-      <c r="D29" s="31" t="s">
+      <c r="D29" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E29" s="14"/>
@@ -4073,7 +4073,7 @@
       <c r="C30" s="18">
         <v>1</v>
       </c>
-      <c r="D30" s="31" t="s">
+      <c r="D30" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E30" s="14"/>
@@ -4092,7 +4092,7 @@
       <c r="C31" s="18">
         <v>1</v>
       </c>
-      <c r="D31" s="31" t="s">
+      <c r="D31" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E31" s="14"/>
@@ -4111,7 +4111,7 @@
       <c r="C32" s="18">
         <v>1</v>
       </c>
-      <c r="D32" s="31" t="s">
+      <c r="D32" s="32" t="s">
         <v>936</v>
       </c>
       <c r="E32" s="14"/>
@@ -4130,7 +4130,7 @@
       <c r="C33" s="18">
         <v>1</v>
       </c>
-      <c r="D33" s="31" t="s">
+      <c r="D33" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E33" s="14"/>
@@ -4149,7 +4149,7 @@
       <c r="C34" s="18">
         <v>1</v>
       </c>
-      <c r="D34" s="31" t="s">
+      <c r="D34" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E34" s="14"/>
@@ -4168,7 +4168,7 @@
       <c r="C35" s="18">
         <v>1</v>
       </c>
-      <c r="D35" s="31" t="s">
+      <c r="D35" s="32" t="s">
         <v>937</v>
       </c>
       <c r="E35" s="14"/>
@@ -4187,7 +4187,7 @@
       <c r="C36" s="18">
         <v>1</v>
       </c>
-      <c r="D36" s="31" t="s">
+      <c r="D36" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E36" s="14"/>
@@ -4206,7 +4206,7 @@
       <c r="C37" s="18">
         <v>1</v>
       </c>
-      <c r="D37" s="31" t="s">
+      <c r="D37" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E37" s="14"/>
@@ -4225,7 +4225,7 @@
       <c r="C38" s="18">
         <v>1</v>
       </c>
-      <c r="D38" s="31" t="s">
+      <c r="D38" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E38" s="14"/>
@@ -4244,7 +4244,7 @@
       <c r="C39" s="18">
         <v>1</v>
       </c>
-      <c r="D39" s="31" t="s">
+      <c r="D39" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E39" s="14"/>
@@ -4263,7 +4263,7 @@
       <c r="C40" s="18">
         <v>1</v>
       </c>
-      <c r="D40" s="31" t="s">
+      <c r="D40" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E40" s="14"/>
@@ -4282,7 +4282,7 @@
       <c r="C41" s="18">
         <v>1</v>
       </c>
-      <c r="D41" s="31" t="s">
+      <c r="D41" s="32" t="s">
         <v>935</v>
       </c>
       <c r="E41" s="14"/>
@@ -4301,7 +4301,7 @@
       <c r="C42" s="18">
         <v>1</v>
       </c>
-      <c r="D42" s="31" t="s">
+      <c r="D42" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E42" s="14"/>
@@ -4320,7 +4320,7 @@
       <c r="C43" s="18">
         <v>1</v>
       </c>
-      <c r="D43" s="31" t="s">
+      <c r="D43" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E43" s="14"/>
@@ -4339,7 +4339,7 @@
       <c r="C44" s="18">
         <v>1</v>
       </c>
-      <c r="D44" s="31" t="s">
+      <c r="D44" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E44" s="14"/>
@@ -4358,7 +4358,7 @@
       <c r="C45" s="18">
         <v>1</v>
       </c>
-      <c r="D45" s="31" t="s">
+      <c r="D45" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E45" s="14"/>
@@ -4377,7 +4377,7 @@
       <c r="C46" s="18">
         <v>1</v>
       </c>
-      <c r="D46" s="31" t="s">
+      <c r="D46" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E46" s="14"/>
@@ -4396,7 +4396,7 @@
       <c r="C47" s="18">
         <v>1</v>
       </c>
-      <c r="D47" s="31" t="s">
+      <c r="D47" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E47" s="14"/>
@@ -4415,7 +4415,7 @@
       <c r="C48" s="18">
         <v>1</v>
       </c>
-      <c r="D48" s="31" t="s">
+      <c r="D48" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E48" s="14"/>
@@ -4434,7 +4434,7 @@
       <c r="C49" s="18">
         <v>1</v>
       </c>
-      <c r="D49" s="31" t="s">
+      <c r="D49" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E49" s="14"/>
@@ -4453,7 +4453,7 @@
       <c r="C50" s="18">
         <v>1</v>
       </c>
-      <c r="D50" s="31" t="s">
+      <c r="D50" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E50" s="14"/>
@@ -4472,7 +4472,7 @@
       <c r="C51" s="18">
         <v>1</v>
       </c>
-      <c r="D51" s="31" t="s">
+      <c r="D51" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E51" s="14"/>
@@ -4491,7 +4491,7 @@
       <c r="C52" s="18">
         <v>1</v>
       </c>
-      <c r="D52" s="31" t="s">
+      <c r="D52" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E52" s="14"/>
@@ -4510,7 +4510,7 @@
       <c r="C53" s="18">
         <v>1</v>
       </c>
-      <c r="D53" s="31" t="s">
+      <c r="D53" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E53" s="14"/>
@@ -4529,7 +4529,7 @@
       <c r="C54" s="18">
         <v>1</v>
       </c>
-      <c r="D54" s="31" t="s">
+      <c r="D54" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E54" s="14"/>
@@ -4548,7 +4548,7 @@
       <c r="C55" s="18">
         <v>1</v>
       </c>
-      <c r="D55" s="31" t="s">
+      <c r="D55" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E55" s="14"/>
@@ -4567,7 +4567,7 @@
       <c r="C56" s="18">
         <v>1</v>
       </c>
-      <c r="D56" s="31" t="s">
+      <c r="D56" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E56" s="14"/>
@@ -4586,7 +4586,7 @@
       <c r="C57" s="18">
         <v>1</v>
       </c>
-      <c r="D57" s="31" t="s">
+      <c r="D57" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E57" s="14"/>
@@ -4605,7 +4605,7 @@
       <c r="C58" s="18">
         <v>1</v>
       </c>
-      <c r="D58" s="31" t="s">
+      <c r="D58" s="32" t="s">
         <v>938</v>
       </c>
       <c r="E58" s="14"/>
@@ -4624,7 +4624,7 @@
       <c r="C59" s="18">
         <v>1</v>
       </c>
-      <c r="D59" s="31" t="s">
+      <c r="D59" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E59" s="14"/>
@@ -4643,7 +4643,7 @@
       <c r="C60" s="18">
         <v>1</v>
       </c>
-      <c r="D60" s="31" t="s">
+      <c r="D60" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E60" s="14"/>
@@ -4662,7 +4662,7 @@
       <c r="C61" s="18">
         <v>1</v>
       </c>
-      <c r="D61" s="31" t="s">
+      <c r="D61" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E61" s="14"/>
@@ -4681,7 +4681,7 @@
       <c r="C62" s="18">
         <v>1</v>
       </c>
-      <c r="D62" s="31" t="s">
+      <c r="D62" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E62" s="14"/>
@@ -4700,7 +4700,7 @@
       <c r="C63" s="18">
         <v>1</v>
       </c>
-      <c r="D63" s="31" t="s">
+      <c r="D63" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E63" s="14"/>
@@ -4719,7 +4719,7 @@
       <c r="C64" s="18">
         <v>1</v>
       </c>
-      <c r="D64" s="31" t="s">
+      <c r="D64" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E64" s="14"/>
@@ -4738,7 +4738,7 @@
       <c r="C65" s="18">
         <v>1</v>
       </c>
-      <c r="D65" s="31" t="s">
+      <c r="D65" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E65" s="14"/>
@@ -4757,7 +4757,7 @@
       <c r="C66" s="18">
         <v>1</v>
       </c>
-      <c r="D66" s="31" t="s">
+      <c r="D66" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E66" s="14"/>
@@ -4776,7 +4776,7 @@
       <c r="C67" s="18">
         <v>1</v>
       </c>
-      <c r="D67" s="31" t="s">
+      <c r="D67" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E67" s="14"/>
@@ -4795,7 +4795,7 @@
       <c r="C68" s="18">
         <v>1</v>
       </c>
-      <c r="D68" s="31" t="s">
+      <c r="D68" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E68" s="14"/>
@@ -4814,7 +4814,7 @@
       <c r="C69" s="18">
         <v>1</v>
       </c>
-      <c r="D69" s="31" t="s">
+      <c r="D69" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E69" s="14"/>
@@ -4833,7 +4833,7 @@
       <c r="C70" s="18">
         <v>1</v>
       </c>
-      <c r="D70" s="31" t="s">
+      <c r="D70" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E70" s="14"/>
@@ -4852,7 +4852,7 @@
       <c r="C71" s="18">
         <v>1</v>
       </c>
-      <c r="D71" s="31" t="s">
+      <c r="D71" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E71" s="14"/>
@@ -4871,7 +4871,7 @@
       <c r="C72" s="18">
         <v>1</v>
       </c>
-      <c r="D72" s="31" t="s">
+      <c r="D72" s="32" t="s">
         <v>936</v>
       </c>
       <c r="E72" s="14"/>
@@ -4890,7 +4890,7 @@
       <c r="C73" s="18">
         <v>1</v>
       </c>
-      <c r="D73" s="31" t="s">
+      <c r="D73" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E73" s="14"/>
@@ -4909,7 +4909,7 @@
       <c r="C74" s="18">
         <v>1</v>
       </c>
-      <c r="D74" s="31" t="s">
+      <c r="D74" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E74" s="14"/>
@@ -4928,7 +4928,7 @@
       <c r="C75" s="18">
         <v>1</v>
       </c>
-      <c r="D75" s="31" t="s">
+      <c r="D75" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E75" s="14"/>
@@ -4947,7 +4947,7 @@
       <c r="C76" s="18">
         <v>1</v>
       </c>
-      <c r="D76" s="31" t="s">
+      <c r="D76" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E76" s="14"/>
@@ -4966,7 +4966,7 @@
       <c r="C77" s="18">
         <v>1</v>
       </c>
-      <c r="D77" s="31" t="s">
+      <c r="D77" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E77" s="14"/>
@@ -4985,7 +4985,7 @@
       <c r="C78" s="18">
         <v>1</v>
       </c>
-      <c r="D78" s="31" t="s">
+      <c r="D78" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E78" s="14"/>
@@ -5004,7 +5004,7 @@
       <c r="C79" s="18">
         <v>1</v>
       </c>
-      <c r="D79" s="31" t="s">
+      <c r="D79" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E79" s="14"/>
@@ -5023,7 +5023,7 @@
       <c r="C80" s="18">
         <v>1</v>
       </c>
-      <c r="D80" s="31" t="s">
+      <c r="D80" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E80" s="14"/>
@@ -5042,7 +5042,7 @@
       <c r="C81" s="18">
         <v>1</v>
       </c>
-      <c r="D81" s="31" t="s">
+      <c r="D81" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E81" s="14"/>
@@ -5061,7 +5061,7 @@
       <c r="C82" s="18">
         <v>1</v>
       </c>
-      <c r="D82" s="31" t="s">
+      <c r="D82" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E82" s="14"/>
@@ -5080,7 +5080,7 @@
       <c r="C83" s="18">
         <v>1</v>
       </c>
-      <c r="D83" s="31" t="s">
+      <c r="D83" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E83" s="14"/>
@@ -5099,7 +5099,7 @@
       <c r="C84" s="18">
         <v>1</v>
       </c>
-      <c r="D84" s="31" t="s">
+      <c r="D84" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E84" s="14"/>
@@ -5118,7 +5118,7 @@
       <c r="C85" s="18">
         <v>1</v>
       </c>
-      <c r="D85" s="31" t="s">
+      <c r="D85" s="32" t="s">
         <v>937</v>
       </c>
       <c r="E85" s="14"/>
@@ -5137,7 +5137,7 @@
       <c r="C86" s="18">
         <v>1</v>
       </c>
-      <c r="D86" s="31" t="s">
+      <c r="D86" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E86" s="14"/>
@@ -5156,7 +5156,7 @@
       <c r="C87" s="18">
         <v>1</v>
       </c>
-      <c r="D87" s="31" t="s">
+      <c r="D87" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E87" s="14"/>
@@ -5175,7 +5175,7 @@
       <c r="C88" s="18">
         <v>1</v>
       </c>
-      <c r="D88" s="31" t="s">
+      <c r="D88" s="32" t="s">
         <v>936</v>
       </c>
       <c r="E88" s="14"/>
@@ -5194,7 +5194,7 @@
       <c r="C89" s="18">
         <v>1</v>
       </c>
-      <c r="D89" s="31" t="s">
+      <c r="D89" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E89" s="14"/>
@@ -5213,7 +5213,7 @@
       <c r="C90" s="18">
         <v>1</v>
       </c>
-      <c r="D90" s="31" t="s">
+      <c r="D90" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E90" s="14"/>
@@ -5232,7 +5232,7 @@
       <c r="C91" s="18">
         <v>1</v>
       </c>
-      <c r="D91" s="31" t="s">
+      <c r="D91" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E91" s="14"/>
@@ -5251,7 +5251,7 @@
       <c r="C92" s="18">
         <v>1</v>
       </c>
-      <c r="D92" s="31" t="s">
+      <c r="D92" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E92" s="14"/>
@@ -5270,7 +5270,7 @@
       <c r="C93" s="18">
         <v>1</v>
       </c>
-      <c r="D93" s="31" t="s">
+      <c r="D93" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E93" s="14"/>
@@ -5289,7 +5289,7 @@
       <c r="C94" s="18">
         <v>1</v>
       </c>
-      <c r="D94" s="31" t="s">
+      <c r="D94" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E94" s="14"/>
@@ -5308,7 +5308,7 @@
       <c r="C95" s="18">
         <v>1</v>
       </c>
-      <c r="D95" s="31" t="s">
+      <c r="D95" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E95" s="14"/>
@@ -5327,7 +5327,7 @@
       <c r="C96" s="18">
         <v>1</v>
       </c>
-      <c r="D96" s="31" t="s">
+      <c r="D96" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E96" s="14"/>
@@ -5346,7 +5346,7 @@
       <c r="C97" s="18">
         <v>1</v>
       </c>
-      <c r="D97" s="31" t="s">
+      <c r="D97" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E97" s="14"/>
@@ -5365,7 +5365,7 @@
       <c r="C98" s="18">
         <v>1</v>
       </c>
-      <c r="D98" s="31" t="s">
+      <c r="D98" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E98" s="14"/>
@@ -5384,7 +5384,7 @@
       <c r="C99" s="18">
         <v>1</v>
       </c>
-      <c r="D99" s="31" t="s">
+      <c r="D99" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E99" s="14"/>
@@ -5403,7 +5403,7 @@
       <c r="C100" s="18">
         <v>1</v>
       </c>
-      <c r="D100" s="31" t="s">
+      <c r="D100" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E100" s="14"/>
@@ -5422,7 +5422,7 @@
       <c r="C101" s="18">
         <v>1</v>
       </c>
-      <c r="D101" s="31" t="s">
+      <c r="D101" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E101" s="14"/>
@@ -5441,7 +5441,7 @@
       <c r="C102" s="18">
         <v>1</v>
       </c>
-      <c r="D102" s="31" t="s">
+      <c r="D102" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E102" s="14"/>
@@ -5460,7 +5460,7 @@
       <c r="C103" s="18">
         <v>1</v>
       </c>
-      <c r="D103" s="31" t="s">
+      <c r="D103" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E103" s="14"/>
@@ -5479,7 +5479,7 @@
       <c r="C104" s="18">
         <v>1</v>
       </c>
-      <c r="D104" s="31" t="s">
+      <c r="D104" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E104" s="14"/>
@@ -5498,7 +5498,7 @@
       <c r="C105" s="18">
         <v>1</v>
       </c>
-      <c r="D105" s="31" t="s">
+      <c r="D105" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E105" s="14"/>
@@ -5517,7 +5517,7 @@
       <c r="C106" s="18">
         <v>1</v>
       </c>
-      <c r="D106" s="31" t="s">
+      <c r="D106" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E106" s="14"/>
@@ -5536,7 +5536,7 @@
       <c r="C107" s="18">
         <v>1</v>
       </c>
-      <c r="D107" s="31" t="s">
+      <c r="D107" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E107" s="14"/>
@@ -5555,7 +5555,7 @@
       <c r="C108" s="18">
         <v>1</v>
       </c>
-      <c r="D108" s="31" t="s">
+      <c r="D108" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E108" s="14"/>
@@ -5574,7 +5574,7 @@
       <c r="C109" s="18">
         <v>1</v>
       </c>
-      <c r="D109" s="31" t="s">
+      <c r="D109" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E109" s="14"/>
@@ -5593,7 +5593,7 @@
       <c r="C110" s="18">
         <v>1</v>
       </c>
-      <c r="D110" s="31" t="s">
+      <c r="D110" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E110" s="14"/>
@@ -5612,7 +5612,7 @@
       <c r="C111" s="18">
         <v>1</v>
       </c>
-      <c r="D111" s="31" t="s">
+      <c r="D111" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E111" s="14"/>
@@ -5631,7 +5631,7 @@
       <c r="C112" s="18">
         <v>1</v>
       </c>
-      <c r="D112" s="31" t="s">
+      <c r="D112" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E112" s="14"/>
@@ -5650,7 +5650,7 @@
       <c r="C113" s="18">
         <v>1</v>
       </c>
-      <c r="D113" s="31" t="s">
+      <c r="D113" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E113" s="14"/>
@@ -5669,7 +5669,7 @@
       <c r="C114" s="18">
         <v>1</v>
       </c>
-      <c r="D114" s="31" t="s">
+      <c r="D114" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E114" s="14"/>
@@ -5688,7 +5688,7 @@
       <c r="C115" s="18">
         <v>1</v>
       </c>
-      <c r="D115" s="31" t="s">
+      <c r="D115" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E115" s="14"/>
@@ -5707,7 +5707,7 @@
       <c r="C116" s="18">
         <v>1</v>
       </c>
-      <c r="D116" s="31" t="s">
+      <c r="D116" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E116" s="14"/>
@@ -5726,7 +5726,7 @@
       <c r="C117" s="18">
         <v>1</v>
       </c>
-      <c r="D117" s="31" t="s">
+      <c r="D117" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E117" s="14"/>
@@ -5745,7 +5745,7 @@
       <c r="C118" s="18">
         <v>1</v>
       </c>
-      <c r="D118" s="31" t="s">
+      <c r="D118" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E118" s="14"/>
@@ -5764,7 +5764,7 @@
       <c r="C119" s="18">
         <v>1</v>
       </c>
-      <c r="D119" s="31" t="s">
+      <c r="D119" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E119" s="14"/>
@@ -5783,7 +5783,7 @@
       <c r="C120" s="18">
         <v>1</v>
       </c>
-      <c r="D120" s="31" t="s">
+      <c r="D120" s="32" t="s">
         <v>937</v>
       </c>
       <c r="E120" s="14"/>
@@ -5802,7 +5802,7 @@
       <c r="C121" s="18">
         <v>1</v>
       </c>
-      <c r="D121" s="31" t="s">
+      <c r="D121" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E121" s="14"/>
@@ -5821,7 +5821,7 @@
       <c r="C122" s="18">
         <v>1</v>
       </c>
-      <c r="D122" s="31" t="s">
+      <c r="D122" s="32" t="s">
         <v>936</v>
       </c>
       <c r="E122" s="14"/>
@@ -5840,7 +5840,7 @@
       <c r="C123" s="18">
         <v>1</v>
       </c>
-      <c r="D123" s="31" t="s">
+      <c r="D123" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E123" s="14"/>
@@ -5859,7 +5859,7 @@
       <c r="C124" s="18">
         <v>1</v>
       </c>
-      <c r="D124" s="31" t="s">
+      <c r="D124" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E124" s="14"/>
@@ -5878,7 +5878,7 @@
       <c r="C125" s="18">
         <v>1</v>
       </c>
-      <c r="D125" s="31" t="s">
+      <c r="D125" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E125" s="14"/>
@@ -5897,7 +5897,7 @@
       <c r="C126" s="18">
         <v>1</v>
       </c>
-      <c r="D126" s="31" t="s">
+      <c r="D126" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E126" s="14"/>
@@ -5916,7 +5916,7 @@
       <c r="C127" s="18">
         <v>1</v>
       </c>
-      <c r="D127" s="31" t="s">
+      <c r="D127" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E127" s="14"/>
@@ -5935,7 +5935,7 @@
       <c r="C128" s="18">
         <v>1</v>
       </c>
-      <c r="D128" s="31" t="s">
+      <c r="D128" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E128" s="14"/>
@@ -5954,7 +5954,7 @@
       <c r="C129" s="18">
         <v>1</v>
       </c>
-      <c r="D129" s="31" t="s">
+      <c r="D129" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E129" s="14"/>
@@ -5973,7 +5973,7 @@
       <c r="C130" s="18">
         <v>1</v>
       </c>
-      <c r="D130" s="31" t="s">
+      <c r="D130" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E130" s="14"/>
@@ -5992,7 +5992,7 @@
       <c r="C131" s="18">
         <v>1</v>
       </c>
-      <c r="D131" s="31" t="s">
+      <c r="D131" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E131" s="14"/>
@@ -6011,7 +6011,7 @@
       <c r="C132" s="18">
         <v>1</v>
       </c>
-      <c r="D132" s="31" t="s">
+      <c r="D132" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E132" s="14"/>
@@ -6030,7 +6030,7 @@
       <c r="C133" s="18">
         <v>1</v>
       </c>
-      <c r="D133" s="31" t="s">
+      <c r="D133" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E133" s="14"/>
@@ -6049,7 +6049,7 @@
       <c r="C134" s="18">
         <v>1</v>
       </c>
-      <c r="D134" s="31" t="s">
+      <c r="D134" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E134" s="14"/>
@@ -6068,7 +6068,7 @@
       <c r="C135" s="18">
         <v>1</v>
       </c>
-      <c r="D135" s="31" t="s">
+      <c r="D135" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E135" s="14"/>
@@ -6087,7 +6087,7 @@
       <c r="C136" s="18">
         <v>1</v>
       </c>
-      <c r="D136" s="31" t="s">
+      <c r="D136" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E136" s="14"/>
@@ -6106,7 +6106,7 @@
       <c r="C137" s="18">
         <v>1</v>
       </c>
-      <c r="D137" s="31" t="s">
+      <c r="D137" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E137" s="14"/>
@@ -6125,7 +6125,7 @@
       <c r="C138" s="18">
         <v>1</v>
       </c>
-      <c r="D138" s="31" t="s">
+      <c r="D138" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E138" s="14"/>
@@ -6144,7 +6144,7 @@
       <c r="C139" s="18">
         <v>1</v>
       </c>
-      <c r="D139" s="31" t="s">
+      <c r="D139" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E139" s="14"/>
@@ -6163,7 +6163,7 @@
       <c r="C140" s="18">
         <v>1</v>
       </c>
-      <c r="D140" s="31" t="s">
+      <c r="D140" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E140" s="14"/>
@@ -6182,7 +6182,7 @@
       <c r="C141" s="18">
         <v>1</v>
       </c>
-      <c r="D141" s="31" t="s">
+      <c r="D141" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E141" s="14"/>
@@ -6201,7 +6201,7 @@
       <c r="C142" s="18">
         <v>1</v>
       </c>
-      <c r="D142" s="31" t="s">
+      <c r="D142" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E142" s="14"/>
@@ -6220,7 +6220,7 @@
       <c r="C143" s="18">
         <v>1</v>
       </c>
-      <c r="D143" s="31" t="s">
+      <c r="D143" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E143" s="14"/>
@@ -6239,7 +6239,7 @@
       <c r="C144" s="18">
         <v>1</v>
       </c>
-      <c r="D144" s="31" t="s">
+      <c r="D144" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E144" s="14"/>
@@ -6258,7 +6258,7 @@
       <c r="C145" s="18">
         <v>1</v>
       </c>
-      <c r="D145" s="31" t="s">
+      <c r="D145" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E145" s="14"/>
@@ -6277,7 +6277,7 @@
       <c r="C146" s="18">
         <v>1</v>
       </c>
-      <c r="D146" s="31" t="s">
+      <c r="D146" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E146" s="14"/>
@@ -6296,7 +6296,7 @@
       <c r="C147" s="18">
         <v>1</v>
       </c>
-      <c r="D147" s="31" t="s">
+      <c r="D147" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E147" s="14"/>
@@ -6315,7 +6315,7 @@
       <c r="C148" s="18">
         <v>1</v>
       </c>
-      <c r="D148" s="31" t="s">
+      <c r="D148" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E148" s="14"/>
@@ -6334,7 +6334,7 @@
       <c r="C149" s="18">
         <v>1</v>
       </c>
-      <c r="D149" s="31" t="s">
+      <c r="D149" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E149" s="14"/>
@@ -6353,7 +6353,7 @@
       <c r="C150" s="18">
         <v>1</v>
       </c>
-      <c r="D150" s="31" t="s">
+      <c r="D150" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E150" s="14"/>
@@ -6372,7 +6372,7 @@
       <c r="C151" s="18">
         <v>1</v>
       </c>
-      <c r="D151" s="31" t="s">
+      <c r="D151" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E151" s="14"/>
@@ -6391,7 +6391,7 @@
       <c r="C152" s="18">
         <v>1</v>
       </c>
-      <c r="D152" s="31" t="s">
+      <c r="D152" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E152" s="14"/>
@@ -6410,7 +6410,7 @@
       <c r="C153" s="18">
         <v>1</v>
       </c>
-      <c r="D153" s="31" t="s">
+      <c r="D153" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E153" s="14"/>
@@ -6429,7 +6429,7 @@
       <c r="C154" s="18">
         <v>1</v>
       </c>
-      <c r="D154" s="31" t="s">
+      <c r="D154" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E154" s="14"/>
@@ -6448,7 +6448,7 @@
       <c r="C155" s="18">
         <v>1</v>
       </c>
-      <c r="D155" s="31" t="s">
+      <c r="D155" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E155" s="14"/>
@@ -6467,7 +6467,7 @@
       <c r="C156" s="18">
         <v>1</v>
       </c>
-      <c r="D156" s="31" t="s">
+      <c r="D156" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E156" s="14"/>
@@ -6486,7 +6486,7 @@
       <c r="C157" s="18">
         <v>1</v>
       </c>
-      <c r="D157" s="31" t="s">
+      <c r="D157" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E157" s="14"/>
@@ -6505,7 +6505,7 @@
       <c r="C158" s="18">
         <v>1</v>
       </c>
-      <c r="D158" s="31" t="s">
+      <c r="D158" s="32" t="s">
         <v>937</v>
       </c>
       <c r="E158" s="14"/>
@@ -6524,7 +6524,7 @@
       <c r="C159" s="18">
         <v>1</v>
       </c>
-      <c r="D159" s="31" t="s">
+      <c r="D159" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E159" s="14"/>
@@ -6543,7 +6543,7 @@
       <c r="C160" s="18">
         <v>1</v>
       </c>
-      <c r="D160" s="31" t="s">
+      <c r="D160" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E160" s="14"/>
@@ -6562,7 +6562,7 @@
       <c r="C161" s="18">
         <v>1</v>
       </c>
-      <c r="D161" s="31" t="s">
+      <c r="D161" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E161" s="14"/>
@@ -6581,7 +6581,7 @@
       <c r="C162" s="18">
         <v>1</v>
       </c>
-      <c r="D162" s="31" t="s">
+      <c r="D162" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E162" s="14"/>
@@ -6600,7 +6600,7 @@
       <c r="C163" s="18">
         <v>1</v>
       </c>
-      <c r="D163" s="31" t="s">
+      <c r="D163" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E163" s="14"/>
@@ -6619,7 +6619,7 @@
       <c r="C164" s="18">
         <v>1</v>
       </c>
-      <c r="D164" s="31" t="s">
+      <c r="D164" s="32" t="s">
         <v>937</v>
       </c>
       <c r="E164" s="14"/>
@@ -6638,7 +6638,7 @@
       <c r="C165" s="18">
         <v>1</v>
       </c>
-      <c r="D165" s="31" t="s">
+      <c r="D165" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E165" s="14"/>
@@ -6657,7 +6657,7 @@
       <c r="C166" s="18">
         <v>1</v>
       </c>
-      <c r="D166" s="31" t="s">
+      <c r="D166" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E166" s="14"/>
@@ -6676,7 +6676,7 @@
       <c r="C167" s="18">
         <v>1</v>
       </c>
-      <c r="D167" s="31" t="s">
+      <c r="D167" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E167" s="14"/>
@@ -6695,7 +6695,7 @@
       <c r="C168" s="18">
         <v>1</v>
       </c>
-      <c r="D168" s="31" t="s">
+      <c r="D168" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E168" s="14"/>
@@ -6714,7 +6714,7 @@
       <c r="C169" s="18">
         <v>1</v>
       </c>
-      <c r="D169" s="31" t="s">
+      <c r="D169" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E169" s="14"/>
@@ -6733,7 +6733,7 @@
       <c r="C170" s="18">
         <v>1</v>
       </c>
-      <c r="D170" s="31" t="s">
+      <c r="D170" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E170" s="14"/>
@@ -6752,7 +6752,7 @@
       <c r="C171" s="18">
         <v>1</v>
       </c>
-      <c r="D171" s="31" t="s">
+      <c r="D171" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E171" s="14"/>
@@ -6771,7 +6771,7 @@
       <c r="C172" s="18">
         <v>1</v>
       </c>
-      <c r="D172" s="31" t="s">
+      <c r="D172" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E172" s="14"/>
@@ -6790,7 +6790,7 @@
       <c r="C173" s="18">
         <v>1</v>
       </c>
-      <c r="D173" s="31" t="s">
+      <c r="D173" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E173" s="14"/>
@@ -6809,7 +6809,7 @@
       <c r="C174" s="18">
         <v>1</v>
       </c>
-      <c r="D174" s="31" t="s">
+      <c r="D174" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E174" s="14"/>
@@ -6828,7 +6828,7 @@
       <c r="C175" s="18">
         <v>1</v>
       </c>
-      <c r="D175" s="31" t="s">
+      <c r="D175" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E175" s="14"/>
@@ -6847,7 +6847,7 @@
       <c r="C176" s="18">
         <v>1</v>
       </c>
-      <c r="D176" s="31" t="s">
+      <c r="D176" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E176" s="14"/>
@@ -6866,7 +6866,7 @@
       <c r="C177" s="18">
         <v>1</v>
       </c>
-      <c r="D177" s="31" t="s">
+      <c r="D177" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E177" s="14"/>
@@ -6885,7 +6885,7 @@
       <c r="C178" s="18">
         <v>1</v>
       </c>
-      <c r="D178" s="31" t="s">
+      <c r="D178" s="32" t="s">
         <v>936</v>
       </c>
       <c r="E178" s="14"/>
@@ -6904,7 +6904,7 @@
       <c r="C179" s="18">
         <v>1</v>
       </c>
-      <c r="D179" s="31" t="s">
+      <c r="D179" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E179" s="14"/>
@@ -6923,7 +6923,7 @@
       <c r="C180" s="18">
         <v>1</v>
       </c>
-      <c r="D180" s="31" t="s">
+      <c r="D180" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E180" s="14"/>
@@ -6942,7 +6942,7 @@
       <c r="C181" s="18">
         <v>1</v>
       </c>
-      <c r="D181" s="31" t="s">
+      <c r="D181" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E181" s="14"/>
@@ -6961,7 +6961,7 @@
       <c r="C182" s="18">
         <v>1</v>
       </c>
-      <c r="D182" s="31" t="s">
+      <c r="D182" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E182" s="14"/>
@@ -6980,7 +6980,7 @@
       <c r="C183" s="18">
         <v>1</v>
       </c>
-      <c r="D183" s="31" t="s">
+      <c r="D183" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E183" s="14"/>
@@ -6999,7 +6999,7 @@
       <c r="C184" s="18">
         <v>1</v>
       </c>
-      <c r="D184" s="31" t="s">
+      <c r="D184" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E184" s="14"/>
@@ -7018,7 +7018,7 @@
       <c r="C185" s="18">
         <v>1</v>
       </c>
-      <c r="D185" s="31" t="s">
+      <c r="D185" s="32" t="s">
         <v>935</v>
       </c>
       <c r="E185" s="14"/>
@@ -7037,7 +7037,7 @@
       <c r="C186" s="18">
         <v>1</v>
       </c>
-      <c r="D186" s="31" t="s">
+      <c r="D186" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E186" s="14"/>
@@ -7056,7 +7056,7 @@
       <c r="C187" s="18">
         <v>1</v>
       </c>
-      <c r="D187" s="31" t="s">
+      <c r="D187" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E187" s="14"/>
@@ -7075,7 +7075,7 @@
       <c r="C188" s="18">
         <v>1</v>
       </c>
-      <c r="D188" s="31" t="s">
+      <c r="D188" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E188" s="14"/>
@@ -7094,7 +7094,7 @@
       <c r="C189" s="18">
         <v>1</v>
       </c>
-      <c r="D189" s="31" t="s">
+      <c r="D189" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E189" s="14"/>
@@ -7113,7 +7113,7 @@
       <c r="C190" s="18">
         <v>1</v>
       </c>
-      <c r="D190" s="31" t="s">
+      <c r="D190" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E190" s="14"/>
@@ -7132,7 +7132,7 @@
       <c r="C191" s="18">
         <v>1</v>
       </c>
-      <c r="D191" s="31" t="s">
+      <c r="D191" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E191" s="14"/>
@@ -7151,7 +7151,7 @@
       <c r="C192" s="18">
         <v>1</v>
       </c>
-      <c r="D192" s="31" t="s">
+      <c r="D192" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E192" s="14"/>
@@ -7170,7 +7170,7 @@
       <c r="C193" s="18">
         <v>1</v>
       </c>
-      <c r="D193" s="31" t="s">
+      <c r="D193" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E193" s="14"/>
@@ -7189,7 +7189,7 @@
       <c r="C194" s="18">
         <v>1</v>
       </c>
-      <c r="D194" s="31" t="s">
+      <c r="D194" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E194" s="14"/>
@@ -7208,7 +7208,7 @@
       <c r="C195" s="18">
         <v>1</v>
       </c>
-      <c r="D195" s="31" t="s">
+      <c r="D195" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E195" s="14"/>
@@ -7227,7 +7227,7 @@
       <c r="C196" s="18">
         <v>1</v>
       </c>
-      <c r="D196" s="31" t="s">
+      <c r="D196" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E196" s="14"/>
@@ -7246,7 +7246,7 @@
       <c r="C197" s="18">
         <v>1</v>
       </c>
-      <c r="D197" s="31" t="s">
+      <c r="D197" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E197" s="14"/>
@@ -7265,7 +7265,7 @@
       <c r="C198" s="18">
         <v>1</v>
       </c>
-      <c r="D198" s="31" t="s">
+      <c r="D198" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E198" s="14"/>
@@ -7284,7 +7284,7 @@
       <c r="C199" s="18">
         <v>1</v>
       </c>
-      <c r="D199" s="31" t="s">
+      <c r="D199" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E199" s="14"/>
@@ -7303,7 +7303,7 @@
       <c r="C200" s="18">
         <v>1</v>
       </c>
-      <c r="D200" s="31" t="s">
+      <c r="D200" s="32" t="s">
         <v>939</v>
       </c>
       <c r="E200" s="14"/>
@@ -7322,7 +7322,7 @@
       <c r="C201" s="18">
         <v>1</v>
       </c>
-      <c r="D201" s="31" t="s">
+      <c r="D201" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E201" s="14"/>
@@ -7341,7 +7341,7 @@
       <c r="C202" s="18">
         <v>1</v>
       </c>
-      <c r="D202" s="31" t="s">
+      <c r="D202" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E202" s="14"/>
@@ -7360,7 +7360,7 @@
       <c r="C203" s="18">
         <v>1</v>
       </c>
-      <c r="D203" s="31" t="s">
+      <c r="D203" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E203" s="14"/>
@@ -7379,7 +7379,7 @@
       <c r="C204" s="18">
         <v>1</v>
       </c>
-      <c r="D204" s="31" t="s">
+      <c r="D204" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E204" s="14"/>
@@ -7398,7 +7398,7 @@
       <c r="C205" s="18">
         <v>1</v>
       </c>
-      <c r="D205" s="31" t="s">
+      <c r="D205" s="32" t="s">
         <v>935</v>
       </c>
       <c r="E205" s="14"/>
@@ -7417,7 +7417,7 @@
       <c r="C206" s="18">
         <v>1</v>
       </c>
-      <c r="D206" s="31" t="s">
+      <c r="D206" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E206" s="14"/>
@@ -7436,7 +7436,7 @@
       <c r="C207" s="18">
         <v>1</v>
       </c>
-      <c r="D207" s="31" t="s">
+      <c r="D207" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E207" s="14"/>
@@ -7455,7 +7455,7 @@
       <c r="C208" s="18">
         <v>1</v>
       </c>
-      <c r="D208" s="31" t="s">
+      <c r="D208" s="32" t="s">
         <v>936</v>
       </c>
       <c r="E208" s="14"/>
@@ -7474,7 +7474,7 @@
       <c r="C209" s="18">
         <v>1</v>
       </c>
-      <c r="D209" s="31" t="s">
+      <c r="D209" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E209" s="14"/>
@@ -7493,7 +7493,7 @@
       <c r="C210" s="18">
         <v>1</v>
       </c>
-      <c r="D210" s="31" t="s">
+      <c r="D210" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E210" s="14"/>
@@ -7512,7 +7512,7 @@
       <c r="C211" s="18">
         <v>1</v>
       </c>
-      <c r="D211" s="31" t="s">
+      <c r="D211" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E211" s="14"/>
@@ -7531,7 +7531,7 @@
       <c r="C212" s="18">
         <v>1</v>
       </c>
-      <c r="D212" s="31" t="s">
+      <c r="D212" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E212" s="14"/>
@@ -7550,7 +7550,7 @@
       <c r="C213" s="18">
         <v>1</v>
       </c>
-      <c r="D213" s="31" t="s">
+      <c r="D213" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E213" s="14"/>
@@ -7569,7 +7569,7 @@
       <c r="C214" s="18">
         <v>1</v>
       </c>
-      <c r="D214" s="31" t="s">
+      <c r="D214" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E214" s="14"/>
@@ -7588,7 +7588,7 @@
       <c r="C215" s="18">
         <v>1</v>
       </c>
-      <c r="D215" s="31" t="s">
+      <c r="D215" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E215" s="14"/>
@@ -7607,7 +7607,7 @@
       <c r="C216" s="18">
         <v>1</v>
       </c>
-      <c r="D216" s="31" t="s">
+      <c r="D216" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E216" s="14"/>
@@ -7626,7 +7626,7 @@
       <c r="C217" s="18">
         <v>1</v>
       </c>
-      <c r="D217" s="31" t="s">
+      <c r="D217" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E217" s="14"/>
@@ -7645,7 +7645,7 @@
       <c r="C218" s="18">
         <v>1</v>
       </c>
-      <c r="D218" s="31" t="s">
+      <c r="D218" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E218" s="14"/>
@@ -7664,7 +7664,7 @@
       <c r="C219" s="18">
         <v>1</v>
       </c>
-      <c r="D219" s="31" t="s">
+      <c r="D219" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E219" s="14"/>
@@ -7683,7 +7683,7 @@
       <c r="C220" s="18">
         <v>1</v>
       </c>
-      <c r="D220" s="31" t="s">
+      <c r="D220" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E220" s="14"/>
@@ -7702,7 +7702,7 @@
       <c r="C221" s="18">
         <v>1</v>
       </c>
-      <c r="D221" s="31" t="s">
+      <c r="D221" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E221" s="14"/>
@@ -7721,7 +7721,7 @@
       <c r="C222" s="18">
         <v>1</v>
       </c>
-      <c r="D222" s="31" t="s">
+      <c r="D222" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E222" s="14"/>
@@ -7740,7 +7740,7 @@
       <c r="C223" s="18">
         <v>1</v>
       </c>
-      <c r="D223" s="31" t="s">
+      <c r="D223" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E223" s="14"/>
@@ -7759,7 +7759,7 @@
       <c r="C224" s="18">
         <v>1</v>
       </c>
-      <c r="D224" s="31" t="s">
+      <c r="D224" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E224" s="14"/>
@@ -7778,7 +7778,7 @@
       <c r="C225" s="18">
         <v>1</v>
       </c>
-      <c r="D225" s="31" t="s">
+      <c r="D225" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E225" s="14"/>
@@ -7797,7 +7797,7 @@
       <c r="C226" s="18">
         <v>1</v>
       </c>
-      <c r="D226" s="31" t="s">
+      <c r="D226" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E226" s="14"/>
@@ -7816,7 +7816,7 @@
       <c r="C227" s="18">
         <v>1</v>
       </c>
-      <c r="D227" s="31" t="s">
+      <c r="D227" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E227" s="14"/>
@@ -7835,7 +7835,7 @@
       <c r="C228" s="18">
         <v>1</v>
       </c>
-      <c r="D228" s="31" t="s">
+      <c r="D228" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E228" s="14"/>
@@ -7854,7 +7854,7 @@
       <c r="C229" s="18">
         <v>1</v>
       </c>
-      <c r="D229" s="31" t="s">
+      <c r="D229" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E229" s="14"/>
@@ -7873,7 +7873,7 @@
       <c r="C230" s="18">
         <v>1</v>
       </c>
-      <c r="D230" s="31" t="s">
+      <c r="D230" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E230" s="14"/>
@@ -7892,7 +7892,7 @@
       <c r="C231" s="18">
         <v>1</v>
       </c>
-      <c r="D231" s="31" t="s">
+      <c r="D231" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E231" s="14"/>
@@ -7911,7 +7911,7 @@
       <c r="C232" s="18">
         <v>1</v>
       </c>
-      <c r="D232" s="31" t="s">
+      <c r="D232" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E232" s="14"/>
@@ -7930,7 +7930,7 @@
       <c r="C233" s="18">
         <v>1</v>
       </c>
-      <c r="D233" s="31" t="s">
+      <c r="D233" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E233" s="14"/>
@@ -7949,7 +7949,7 @@
       <c r="C234" s="18">
         <v>1</v>
       </c>
-      <c r="D234" s="31" t="s">
+      <c r="D234" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E234" s="14"/>
@@ -7968,7 +7968,7 @@
       <c r="C235" s="18">
         <v>1</v>
       </c>
-      <c r="D235" s="31" t="s">
+      <c r="D235" s="32" t="s">
         <v>938</v>
       </c>
       <c r="E235" s="14"/>
@@ -7987,7 +7987,7 @@
       <c r="C236" s="18">
         <v>1</v>
       </c>
-      <c r="D236" s="31" t="s">
+      <c r="D236" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E236" s="14"/>
@@ -8006,7 +8006,7 @@
       <c r="C237" s="18">
         <v>1</v>
       </c>
-      <c r="D237" s="31" t="s">
+      <c r="D237" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E237" s="14"/>
@@ -8025,7 +8025,7 @@
       <c r="C238" s="18">
         <v>1</v>
       </c>
-      <c r="D238" s="31" t="s">
+      <c r="D238" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E238" s="14"/>
@@ -8044,7 +8044,7 @@
       <c r="C239" s="18">
         <v>1</v>
       </c>
-      <c r="D239" s="31" t="s">
+      <c r="D239" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E239" s="14"/>
@@ -8063,7 +8063,7 @@
       <c r="C240" s="18">
         <v>1</v>
       </c>
-      <c r="D240" s="31" t="s">
+      <c r="D240" s="32" t="s">
         <v>935</v>
       </c>
       <c r="E240" s="14"/>
@@ -8082,7 +8082,7 @@
       <c r="C241" s="18">
         <v>1</v>
       </c>
-      <c r="D241" s="31" t="s">
+      <c r="D241" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E241" s="14"/>
@@ -8101,7 +8101,7 @@
       <c r="C242" s="18">
         <v>1</v>
       </c>
-      <c r="D242" s="31" t="s">
+      <c r="D242" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E242" s="14"/>
@@ -8120,7 +8120,7 @@
       <c r="C243" s="18">
         <v>1</v>
       </c>
-      <c r="D243" s="31" t="s">
+      <c r="D243" s="32" t="s">
         <v>936</v>
       </c>
       <c r="E243" s="14"/>
@@ -8139,7 +8139,7 @@
       <c r="C244" s="18">
         <v>1</v>
       </c>
-      <c r="D244" s="31" t="s">
+      <c r="D244" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E244" s="14"/>
@@ -8158,7 +8158,7 @@
       <c r="C245" s="18">
         <v>1</v>
       </c>
-      <c r="D245" s="31" t="s">
+      <c r="D245" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E245" s="14"/>
@@ -8177,7 +8177,7 @@
       <c r="C246" s="18">
         <v>1</v>
       </c>
-      <c r="D246" s="31" t="s">
+      <c r="D246" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E246" s="14"/>
@@ -8196,7 +8196,7 @@
       <c r="C247" s="18">
         <v>1</v>
       </c>
-      <c r="D247" s="31" t="s">
+      <c r="D247" s="32" t="s">
         <v>937</v>
       </c>
       <c r="E247" s="14"/>
@@ -8215,7 +8215,7 @@
       <c r="C248" s="18">
         <v>1</v>
       </c>
-      <c r="D248" s="31" t="s">
+      <c r="D248" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E248" s="14"/>
@@ -8234,7 +8234,7 @@
       <c r="C249" s="18">
         <v>1</v>
       </c>
-      <c r="D249" s="31" t="s">
+      <c r="D249" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E249" s="14"/>
@@ -8253,7 +8253,7 @@
       <c r="C250" s="18">
         <v>1</v>
       </c>
-      <c r="D250" s="31" t="s">
+      <c r="D250" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E250" s="14"/>
@@ -8272,7 +8272,7 @@
       <c r="C251" s="18">
         <v>1</v>
       </c>
-      <c r="D251" s="31" t="s">
+      <c r="D251" s="32" t="s">
         <v>935</v>
       </c>
       <c r="E251" s="14"/>
@@ -8291,7 +8291,7 @@
       <c r="C252" s="18">
         <v>1</v>
       </c>
-      <c r="D252" s="31" t="s">
+      <c r="D252" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E252" s="14"/>
@@ -8310,7 +8310,7 @@
       <c r="C253" s="18">
         <v>1</v>
       </c>
-      <c r="D253" s="31" t="s">
+      <c r="D253" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E253" s="14"/>
@@ -8329,7 +8329,7 @@
       <c r="C254" s="18">
         <v>1</v>
       </c>
-      <c r="D254" s="31" t="s">
+      <c r="D254" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E254" s="14"/>
@@ -8348,7 +8348,7 @@
       <c r="C255" s="18">
         <v>1</v>
       </c>
-      <c r="D255" s="31" t="s">
+      <c r="D255" s="32" t="s">
         <v>935</v>
       </c>
       <c r="E255" s="14"/>
@@ -8367,7 +8367,7 @@
       <c r="C256" s="18">
         <v>1</v>
       </c>
-      <c r="D256" s="31" t="s">
+      <c r="D256" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E256" s="14"/>
@@ -8386,7 +8386,7 @@
       <c r="C257" s="18">
         <v>1</v>
       </c>
-      <c r="D257" s="31" t="s">
+      <c r="D257" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E257" s="14"/>
@@ -8405,7 +8405,7 @@
       <c r="C258" s="18">
         <v>1</v>
       </c>
-      <c r="D258" s="31" t="s">
+      <c r="D258" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E258" s="14"/>
@@ -8424,7 +8424,7 @@
       <c r="C259" s="18">
         <v>1</v>
       </c>
-      <c r="D259" s="31" t="s">
+      <c r="D259" s="32" t="s">
         <v>935</v>
       </c>
       <c r="E259" s="14"/>
@@ -8443,7 +8443,7 @@
       <c r="C260" s="18">
         <v>1</v>
       </c>
-      <c r="D260" s="31" t="s">
+      <c r="D260" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E260" s="14"/>
@@ -8462,7 +8462,7 @@
       <c r="C261" s="18">
         <v>1</v>
       </c>
-      <c r="D261" s="31" t="s">
+      <c r="D261" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E261" s="14"/>
@@ -8481,7 +8481,7 @@
       <c r="C262" s="18">
         <v>1</v>
       </c>
-      <c r="D262" s="31" t="s">
+      <c r="D262" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E262" s="14"/>
@@ -8500,7 +8500,7 @@
       <c r="C263" s="18">
         <v>1</v>
       </c>
-      <c r="D263" s="31" t="s">
+      <c r="D263" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E263" s="14"/>
@@ -8519,7 +8519,7 @@
       <c r="C264" s="18">
         <v>1</v>
       </c>
-      <c r="D264" s="31" t="s">
+      <c r="D264" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E264" s="14"/>
@@ -8538,7 +8538,7 @@
       <c r="C265" s="18">
         <v>1</v>
       </c>
-      <c r="D265" s="31" t="s">
+      <c r="D265" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E265" s="14"/>
@@ -8557,7 +8557,7 @@
       <c r="C266" s="18">
         <v>1</v>
       </c>
-      <c r="D266" s="31" t="s">
+      <c r="D266" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E266" s="14"/>
@@ -8576,7 +8576,7 @@
       <c r="C267" s="18">
         <v>1</v>
       </c>
-      <c r="D267" s="31" t="s">
+      <c r="D267" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E267" s="14"/>
@@ -8595,7 +8595,7 @@
       <c r="C268" s="18">
         <v>1</v>
       </c>
-      <c r="D268" s="31" t="s">
+      <c r="D268" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E268" s="14"/>
@@ -8614,7 +8614,7 @@
       <c r="C269" s="18">
         <v>1</v>
       </c>
-      <c r="D269" s="31" t="s">
+      <c r="D269" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E269" s="14"/>
@@ -8633,7 +8633,7 @@
       <c r="C270" s="18">
         <v>1</v>
       </c>
-      <c r="D270" s="31" t="s">
+      <c r="D270" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E270" s="14"/>
@@ -8652,7 +8652,7 @@
       <c r="C271" s="18">
         <v>1</v>
       </c>
-      <c r="D271" s="31" t="s">
+      <c r="D271" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E271" s="14"/>
@@ -8671,7 +8671,7 @@
       <c r="C272" s="18">
         <v>1</v>
       </c>
-      <c r="D272" s="31" t="s">
+      <c r="D272" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E272" s="14"/>
@@ -8690,7 +8690,7 @@
       <c r="C273" s="18">
         <v>1</v>
       </c>
-      <c r="D273" s="31" t="s">
+      <c r="D273" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E273" s="14"/>
@@ -8709,7 +8709,7 @@
       <c r="C274" s="18">
         <v>1</v>
       </c>
-      <c r="D274" s="31" t="s">
+      <c r="D274" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E274" s="14"/>
@@ -8728,7 +8728,7 @@
       <c r="C275" s="18">
         <v>1</v>
       </c>
-      <c r="D275" s="31" t="s">
+      <c r="D275" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E275" s="14"/>
@@ -8747,7 +8747,7 @@
       <c r="C276" s="18">
         <v>1</v>
       </c>
-      <c r="D276" s="31" t="s">
+      <c r="D276" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E276" s="14"/>
@@ -8766,7 +8766,7 @@
       <c r="C277" s="18">
         <v>1</v>
       </c>
-      <c r="D277" s="31" t="s">
+      <c r="D277" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E277" s="14"/>
@@ -8785,7 +8785,7 @@
       <c r="C278" s="18">
         <v>1</v>
       </c>
-      <c r="D278" s="31" t="s">
+      <c r="D278" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E278" s="14"/>
@@ -8804,7 +8804,7 @@
       <c r="C279" s="18">
         <v>1</v>
       </c>
-      <c r="D279" s="31" t="s">
+      <c r="D279" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E279" s="14"/>
@@ -8823,7 +8823,7 @@
       <c r="C280" s="18">
         <v>1</v>
       </c>
-      <c r="D280" s="31" t="s">
+      <c r="D280" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E280" s="14"/>
@@ -8842,7 +8842,7 @@
       <c r="C281" s="18">
         <v>1</v>
       </c>
-      <c r="D281" s="31" t="s">
+      <c r="D281" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E281" s="14"/>
@@ -8861,7 +8861,7 @@
       <c r="C282" s="18">
         <v>1</v>
       </c>
-      <c r="D282" s="31" t="s">
+      <c r="D282" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E282" s="14"/>
@@ -8880,7 +8880,7 @@
       <c r="C283" s="18">
         <v>1</v>
       </c>
-      <c r="D283" s="31" t="s">
+      <c r="D283" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E283" s="14"/>
@@ -8899,7 +8899,7 @@
       <c r="C284" s="18">
         <v>1</v>
       </c>
-      <c r="D284" s="31" t="s">
+      <c r="D284" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E284" s="14"/>
@@ -8918,7 +8918,7 @@
       <c r="C285" s="18">
         <v>1</v>
       </c>
-      <c r="D285" s="31" t="s">
+      <c r="D285" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E285" s="14"/>
@@ -8937,7 +8937,7 @@
       <c r="C286" s="18">
         <v>1</v>
       </c>
-      <c r="D286" s="31" t="s">
+      <c r="D286" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E286" s="14"/>
@@ -8956,7 +8956,7 @@
       <c r="C287" s="18">
         <v>1</v>
       </c>
-      <c r="D287" s="31" t="s">
+      <c r="D287" s="32" t="s">
         <v>936</v>
       </c>
       <c r="E287" s="14"/>
@@ -8975,7 +8975,7 @@
       <c r="C288" s="18">
         <v>1</v>
       </c>
-      <c r="D288" s="31" t="s">
+      <c r="D288" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E288" s="14"/>
@@ -8994,7 +8994,7 @@
       <c r="C289" s="18">
         <v>1</v>
       </c>
-      <c r="D289" s="31" t="s">
+      <c r="D289" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E289" s="14"/>
@@ -9013,7 +9013,7 @@
       <c r="C290" s="18">
         <v>1</v>
       </c>
-      <c r="D290" s="31" t="s">
+      <c r="D290" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E290" s="14"/>
@@ -9032,7 +9032,7 @@
       <c r="C291" s="18">
         <v>1</v>
       </c>
-      <c r="D291" s="31" t="s">
+      <c r="D291" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E291" s="14"/>
@@ -9051,7 +9051,7 @@
       <c r="C292" s="18">
         <v>1</v>
       </c>
-      <c r="D292" s="31" t="s">
+      <c r="D292" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E292" s="14"/>
@@ -9070,7 +9070,7 @@
       <c r="C293" s="18">
         <v>1</v>
       </c>
-      <c r="D293" s="31" t="s">
+      <c r="D293" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E293" s="14"/>
@@ -9089,7 +9089,7 @@
       <c r="C294" s="18">
         <v>1</v>
       </c>
-      <c r="D294" s="31" t="s">
+      <c r="D294" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E294" s="14"/>
@@ -9108,7 +9108,7 @@
       <c r="C295" s="18">
         <v>1</v>
       </c>
-      <c r="D295" s="31" t="s">
+      <c r="D295" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E295" s="14"/>
@@ -9127,7 +9127,7 @@
       <c r="C296" s="18">
         <v>1</v>
       </c>
-      <c r="D296" s="31" t="s">
+      <c r="D296" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E296" s="14"/>
@@ -9146,7 +9146,7 @@
       <c r="C297" s="18">
         <v>1</v>
       </c>
-      <c r="D297" s="31" t="s">
+      <c r="D297" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E297" s="14"/>
@@ -9165,7 +9165,7 @@
       <c r="C298" s="18">
         <v>1</v>
       </c>
-      <c r="D298" s="31" t="s">
+      <c r="D298" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E298" s="14"/>
@@ -9184,7 +9184,7 @@
       <c r="C299" s="18">
         <v>1</v>
       </c>
-      <c r="D299" s="31" t="s">
+      <c r="D299" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E299" s="14"/>
@@ -9203,7 +9203,7 @@
       <c r="C300" s="18">
         <v>1</v>
       </c>
-      <c r="D300" s="31" t="s">
+      <c r="D300" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E300" s="14"/>
@@ -9222,7 +9222,7 @@
       <c r="C301" s="18">
         <v>1</v>
       </c>
-      <c r="D301" s="31" t="s">
+      <c r="D301" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E301" s="14"/>
@@ -9241,7 +9241,7 @@
       <c r="C302" s="18">
         <v>1</v>
       </c>
-      <c r="D302" s="31" t="s">
+      <c r="D302" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E302" s="14"/>
@@ -9260,7 +9260,7 @@
       <c r="C303" s="18">
         <v>1</v>
       </c>
-      <c r="D303" s="31" t="s">
+      <c r="D303" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E303" s="14"/>
@@ -9279,7 +9279,7 @@
       <c r="C304" s="18">
         <v>1</v>
       </c>
-      <c r="D304" s="31" t="s">
+      <c r="D304" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E304" s="14"/>
@@ -9298,7 +9298,7 @@
       <c r="C305" s="18">
         <v>1</v>
       </c>
-      <c r="D305" s="31" t="s">
+      <c r="D305" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E305" s="14"/>
@@ -9317,7 +9317,7 @@
       <c r="C306" s="18">
         <v>1</v>
       </c>
-      <c r="D306" s="31" t="s">
+      <c r="D306" s="32" t="s">
         <v>938</v>
       </c>
       <c r="E306" s="14"/>
@@ -9336,7 +9336,7 @@
       <c r="C307" s="18">
         <v>1</v>
       </c>
-      <c r="D307" s="31" t="s">
+      <c r="D307" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E307" s="14"/>
@@ -9355,7 +9355,7 @@
       <c r="C308" s="18">
         <v>1</v>
       </c>
-      <c r="D308" s="31" t="s">
+      <c r="D308" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E308" s="14"/>
@@ -9374,7 +9374,7 @@
       <c r="C309" s="18">
         <v>1</v>
       </c>
-      <c r="D309" s="31" t="s">
+      <c r="D309" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E309" s="14"/>
@@ -9393,7 +9393,7 @@
       <c r="C310" s="18">
         <v>1</v>
       </c>
-      <c r="D310" s="31" t="s">
+      <c r="D310" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E310" s="14"/>
@@ -9412,7 +9412,7 @@
       <c r="C311" s="18">
         <v>1</v>
       </c>
-      <c r="D311" s="31" t="s">
+      <c r="D311" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E311" s="14"/>
@@ -9431,7 +9431,7 @@
       <c r="C312" s="18">
         <v>1</v>
       </c>
-      <c r="D312" s="31" t="s">
+      <c r="D312" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E312" s="14"/>
@@ -9450,7 +9450,7 @@
       <c r="C313" s="18">
         <v>1</v>
       </c>
-      <c r="D313" s="31" t="s">
+      <c r="D313" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E313" s="14"/>
@@ -9469,7 +9469,7 @@
       <c r="C314" s="18">
         <v>1</v>
       </c>
-      <c r="D314" s="31" t="s">
+      <c r="D314" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E314" s="14"/>
@@ -9488,7 +9488,7 @@
       <c r="C315" s="18">
         <v>1</v>
       </c>
-      <c r="D315" s="31" t="s">
+      <c r="D315" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E315" s="14"/>
@@ -9507,7 +9507,7 @@
       <c r="C316" s="18">
         <v>1</v>
       </c>
-      <c r="D316" s="31" t="s">
+      <c r="D316" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E316" s="14"/>
@@ -9526,7 +9526,7 @@
       <c r="C317" s="18">
         <v>1</v>
       </c>
-      <c r="D317" s="31" t="s">
+      <c r="D317" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E317" s="14"/>
@@ -9545,7 +9545,7 @@
       <c r="C318" s="18">
         <v>1</v>
       </c>
-      <c r="D318" s="31" t="s">
+      <c r="D318" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E318" s="14"/>
@@ -9564,7 +9564,7 @@
       <c r="C319" s="18">
         <v>1</v>
       </c>
-      <c r="D319" s="31" t="s">
+      <c r="D319" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E319" s="14"/>
@@ -9583,7 +9583,7 @@
       <c r="C320" s="18">
         <v>1</v>
       </c>
-      <c r="D320" s="31" t="s">
+      <c r="D320" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E320" s="14"/>
@@ -9602,7 +9602,7 @@
       <c r="C321" s="18">
         <v>1</v>
       </c>
-      <c r="D321" s="31" t="s">
+      <c r="D321" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E321" s="14"/>
@@ -9621,7 +9621,7 @@
       <c r="C322" s="18">
         <v>1</v>
       </c>
-      <c r="D322" s="31" t="s">
+      <c r="D322" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E322" s="14"/>
@@ -9640,7 +9640,7 @@
       <c r="C323" s="18">
         <v>1</v>
       </c>
-      <c r="D323" s="31" t="s">
+      <c r="D323" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E323" s="14"/>
@@ -9659,7 +9659,7 @@
       <c r="C324" s="18">
         <v>1</v>
       </c>
-      <c r="D324" s="31" t="s">
+      <c r="D324" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E324" s="14"/>
@@ -9678,7 +9678,7 @@
       <c r="C325" s="18">
         <v>1</v>
       </c>
-      <c r="D325" s="31" t="s">
+      <c r="D325" s="32" t="s">
         <v>936</v>
       </c>
       <c r="E325" s="14"/>
@@ -9697,7 +9697,7 @@
       <c r="C326" s="18">
         <v>1</v>
       </c>
-      <c r="D326" s="31" t="s">
+      <c r="D326" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E326" s="14"/>
@@ -9716,7 +9716,7 @@
       <c r="C327" s="18">
         <v>1</v>
       </c>
-      <c r="D327" s="31" t="s">
+      <c r="D327" s="32" t="s">
         <v>939</v>
       </c>
       <c r="E327" s="14"/>
@@ -9735,7 +9735,7 @@
       <c r="C328" s="18">
         <v>1</v>
       </c>
-      <c r="D328" s="31" t="s">
+      <c r="D328" s="32" t="s">
         <v>936</v>
       </c>
       <c r="E328" s="14"/>
@@ -9754,7 +9754,7 @@
       <c r="C329" s="18">
         <v>1</v>
       </c>
-      <c r="D329" s="31" t="s">
+      <c r="D329" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E329" s="14"/>
@@ -9773,7 +9773,7 @@
       <c r="C330" s="18">
         <v>1</v>
       </c>
-      <c r="D330" s="31" t="s">
+      <c r="D330" s="32" t="s">
         <v>935</v>
       </c>
       <c r="E330" s="14"/>
@@ -9792,7 +9792,7 @@
       <c r="C331" s="18">
         <v>1</v>
       </c>
-      <c r="D331" s="31" t="s">
+      <c r="D331" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E331" s="14"/>
@@ -9811,7 +9811,7 @@
       <c r="C332" s="18">
         <v>1</v>
       </c>
-      <c r="D332" s="31" t="s">
+      <c r="D332" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E332" s="14"/>
@@ -9830,7 +9830,7 @@
       <c r="C333" s="18">
         <v>1</v>
       </c>
-      <c r="D333" s="31" t="s">
+      <c r="D333" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E333" s="14"/>
@@ -9849,7 +9849,7 @@
       <c r="C334" s="18">
         <v>1</v>
       </c>
-      <c r="D334" s="31" t="s">
+      <c r="D334" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E334" s="14"/>
@@ -9868,7 +9868,7 @@
       <c r="C335" s="18">
         <v>1</v>
       </c>
-      <c r="D335" s="31" t="s">
+      <c r="D335" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E335" s="14"/>
@@ -9887,7 +9887,7 @@
       <c r="C336" s="18">
         <v>1</v>
       </c>
-      <c r="D336" s="31" t="s">
+      <c r="D336" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E336" s="14"/>
@@ -9906,7 +9906,7 @@
       <c r="C337" s="18">
         <v>1</v>
       </c>
-      <c r="D337" s="31" t="s">
+      <c r="D337" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E337" s="14"/>
@@ -9925,7 +9925,7 @@
       <c r="C338" s="18">
         <v>1</v>
       </c>
-      <c r="D338" s="31" t="s">
+      <c r="D338" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E338" s="14"/>
@@ -9944,7 +9944,7 @@
       <c r="C339" s="18">
         <v>1</v>
       </c>
-      <c r="D339" s="31" t="s">
+      <c r="D339" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E339" s="14"/>
@@ -9963,7 +9963,7 @@
       <c r="C340" s="18">
         <v>1</v>
       </c>
-      <c r="D340" s="31" t="s">
+      <c r="D340" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E340" s="14"/>
@@ -9982,7 +9982,7 @@
       <c r="C341" s="18">
         <v>1</v>
       </c>
-      <c r="D341" s="31" t="s">
+      <c r="D341" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E341" s="14"/>
@@ -10001,7 +10001,7 @@
       <c r="C342" s="18">
         <v>1</v>
       </c>
-      <c r="D342" s="31" t="s">
+      <c r="D342" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E342" s="14"/>
@@ -10020,7 +10020,7 @@
       <c r="C343" s="18">
         <v>1</v>
       </c>
-      <c r="D343" s="31" t="s">
+      <c r="D343" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E343" s="14"/>
@@ -10039,7 +10039,7 @@
       <c r="C344" s="18">
         <v>1</v>
       </c>
-      <c r="D344" s="31" t="s">
+      <c r="D344" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E344" s="14"/>
@@ -10058,7 +10058,7 @@
       <c r="C345" s="18">
         <v>1</v>
       </c>
-      <c r="D345" s="31" t="s">
+      <c r="D345" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E345" s="14"/>
@@ -10077,7 +10077,7 @@
       <c r="C346" s="18">
         <v>1</v>
       </c>
-      <c r="D346" s="31" t="s">
+      <c r="D346" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E346" s="14"/>
@@ -10096,7 +10096,7 @@
       <c r="C347" s="18">
         <v>1</v>
       </c>
-      <c r="D347" s="31" t="s">
+      <c r="D347" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E347" s="14"/>
@@ -10115,7 +10115,7 @@
       <c r="C348" s="18">
         <v>1</v>
       </c>
-      <c r="D348" s="31" t="s">
+      <c r="D348" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E348" s="14"/>
@@ -10134,7 +10134,7 @@
       <c r="C349" s="18">
         <v>1</v>
       </c>
-      <c r="D349" s="31" t="s">
+      <c r="D349" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E349" s="14"/>
@@ -10153,7 +10153,7 @@
       <c r="C350" s="18">
         <v>1</v>
       </c>
-      <c r="D350" s="31" t="s">
+      <c r="D350" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E350" s="14"/>
@@ -10172,7 +10172,7 @@
       <c r="C351" s="18">
         <v>1</v>
       </c>
-      <c r="D351" s="31" t="s">
+      <c r="D351" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E351" s="14"/>
@@ -10191,7 +10191,7 @@
       <c r="C352" s="18">
         <v>1</v>
       </c>
-      <c r="D352" s="31" t="s">
+      <c r="D352" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E352" s="14"/>
@@ -10210,7 +10210,7 @@
       <c r="C353" s="18">
         <v>1</v>
       </c>
-      <c r="D353" s="31" t="s">
+      <c r="D353" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E353" s="14"/>
@@ -10229,7 +10229,7 @@
       <c r="C354" s="18">
         <v>1</v>
       </c>
-      <c r="D354" s="31" t="s">
+      <c r="D354" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E354" s="14"/>
@@ -10248,7 +10248,7 @@
       <c r="C355" s="18">
         <v>1</v>
       </c>
-      <c r="D355" s="31" t="s">
+      <c r="D355" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E355" s="14"/>
@@ -10267,7 +10267,7 @@
       <c r="C356" s="18">
         <v>1</v>
       </c>
-      <c r="D356" s="31" t="s">
+      <c r="D356" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E356" s="14"/>
@@ -10286,7 +10286,7 @@
       <c r="C357" s="18">
         <v>1</v>
       </c>
-      <c r="D357" s="31" t="s">
+      <c r="D357" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E357" s="14"/>
@@ -10305,7 +10305,7 @@
       <c r="C358" s="18">
         <v>1</v>
       </c>
-      <c r="D358" s="31" t="s">
+      <c r="D358" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E358" s="14"/>
@@ -10324,7 +10324,7 @@
       <c r="C359" s="18">
         <v>1</v>
       </c>
-      <c r="D359" s="31" t="s">
+      <c r="D359" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E359" s="14"/>
@@ -10343,7 +10343,7 @@
       <c r="C360" s="18">
         <v>1</v>
       </c>
-      <c r="D360" s="31" t="s">
+      <c r="D360" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E360" s="14"/>
@@ -10362,7 +10362,7 @@
       <c r="C361" s="18">
         <v>1</v>
       </c>
-      <c r="D361" s="31" t="s">
+      <c r="D361" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E361" s="14"/>
@@ -10381,7 +10381,7 @@
       <c r="C362" s="18">
         <v>1</v>
       </c>
-      <c r="D362" s="31" t="s">
+      <c r="D362" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E362" s="14"/>
@@ -10400,7 +10400,7 @@
       <c r="C363" s="18">
         <v>1</v>
       </c>
-      <c r="D363" s="31" t="s">
+      <c r="D363" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E363" s="14"/>
@@ -10419,7 +10419,7 @@
       <c r="C364" s="18">
         <v>1</v>
       </c>
-      <c r="D364" s="31" t="s">
+      <c r="D364" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E364" s="14"/>
@@ -10438,7 +10438,7 @@
       <c r="C365" s="18">
         <v>1</v>
       </c>
-      <c r="D365" s="31" t="s">
+      <c r="D365" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E365" s="14"/>
@@ -10457,7 +10457,7 @@
       <c r="C366" s="18">
         <v>1</v>
       </c>
-      <c r="D366" s="31" t="s">
+      <c r="D366" s="32" t="s">
         <v>935</v>
       </c>
       <c r="E366" s="14"/>
@@ -10476,7 +10476,7 @@
       <c r="C367" s="18">
         <v>1</v>
       </c>
-      <c r="D367" s="31" t="s">
+      <c r="D367" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E367" s="14"/>
@@ -10495,7 +10495,7 @@
       <c r="C368" s="18">
         <v>1</v>
       </c>
-      <c r="D368" s="31" t="s">
+      <c r="D368" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E368" s="14"/>
@@ -10514,7 +10514,7 @@
       <c r="C369" s="18">
         <v>1</v>
       </c>
-      <c r="D369" s="31" t="s">
+      <c r="D369" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E369" s="14"/>
@@ -10533,7 +10533,7 @@
       <c r="C370" s="18">
         <v>1</v>
       </c>
-      <c r="D370" s="31" t="s">
+      <c r="D370" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E370" s="14"/>
@@ -10552,7 +10552,7 @@
       <c r="C371" s="18">
         <v>1</v>
       </c>
-      <c r="D371" s="31" t="s">
+      <c r="D371" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E371" s="14"/>
@@ -10571,7 +10571,7 @@
       <c r="C372" s="18">
         <v>1</v>
       </c>
-      <c r="D372" s="31" t="s">
+      <c r="D372" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E372" s="14"/>
@@ -10590,7 +10590,7 @@
       <c r="C373" s="18">
         <v>1</v>
       </c>
-      <c r="D373" s="31" t="s">
+      <c r="D373" s="32" t="s">
         <v>939</v>
       </c>
       <c r="E373" s="14"/>
@@ -10609,7 +10609,7 @@
       <c r="C374" s="18">
         <v>1</v>
       </c>
-      <c r="D374" s="31" t="s">
+      <c r="D374" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E374" s="14"/>
@@ -10628,7 +10628,7 @@
       <c r="C375" s="18">
         <v>1</v>
       </c>
-      <c r="D375" s="31" t="s">
+      <c r="D375" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E375" s="14"/>
@@ -10647,7 +10647,7 @@
       <c r="C376" s="18">
         <v>1</v>
       </c>
-      <c r="D376" s="31" t="s">
+      <c r="D376" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E376" s="14"/>
@@ -10666,7 +10666,7 @@
       <c r="C377" s="18">
         <v>1</v>
       </c>
-      <c r="D377" s="31" t="s">
+      <c r="D377" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E377" s="14"/>
@@ -10685,7 +10685,7 @@
       <c r="C378" s="18">
         <v>1</v>
       </c>
-      <c r="D378" s="31" t="s">
+      <c r="D378" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E378" s="14"/>
@@ -10704,7 +10704,7 @@
       <c r="C379" s="18">
         <v>1</v>
       </c>
-      <c r="D379" s="31" t="s">
+      <c r="D379" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E379" s="14"/>
@@ -10723,7 +10723,7 @@
       <c r="C380" s="18">
         <v>1</v>
       </c>
-      <c r="D380" s="31" t="s">
+      <c r="D380" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E380" s="14"/>
@@ -10742,7 +10742,7 @@
       <c r="C381" s="18">
         <v>1</v>
       </c>
-      <c r="D381" s="31" t="s">
+      <c r="D381" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E381" s="14"/>
@@ -10761,7 +10761,7 @@
       <c r="C382" s="18">
         <v>1</v>
       </c>
-      <c r="D382" s="31" t="s">
+      <c r="D382" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E382" s="14"/>
@@ -10780,7 +10780,7 @@
       <c r="C383" s="18">
         <v>1</v>
       </c>
-      <c r="D383" s="31" t="s">
+      <c r="D383" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E383" s="14"/>
@@ -10799,7 +10799,7 @@
       <c r="C384" s="18">
         <v>1</v>
       </c>
-      <c r="D384" s="31" t="s">
+      <c r="D384" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E384" s="14"/>
@@ -10818,7 +10818,7 @@
       <c r="C385" s="18">
         <v>1</v>
       </c>
-      <c r="D385" s="31" t="s">
+      <c r="D385" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E385" s="14"/>
@@ -10837,7 +10837,7 @@
       <c r="C386" s="18">
         <v>1</v>
       </c>
-      <c r="D386" s="31" t="s">
+      <c r="D386" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E386" s="14"/>
@@ -10856,7 +10856,7 @@
       <c r="C387" s="18">
         <v>1</v>
       </c>
-      <c r="D387" s="31" t="s">
+      <c r="D387" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E387" s="14"/>
@@ -10875,7 +10875,7 @@
       <c r="C388" s="18">
         <v>1</v>
       </c>
-      <c r="D388" s="31" t="s">
+      <c r="D388" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E388" s="14"/>
@@ -10894,7 +10894,7 @@
       <c r="C389" s="18">
         <v>1</v>
       </c>
-      <c r="D389" s="31" t="s">
+      <c r="D389" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E389" s="14"/>
@@ -10913,7 +10913,7 @@
       <c r="C390" s="18">
         <v>1</v>
       </c>
-      <c r="D390" s="31" t="s">
+      <c r="D390" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E390" s="14"/>
@@ -10932,7 +10932,7 @@
       <c r="C391" s="18">
         <v>1</v>
       </c>
-      <c r="D391" s="31" t="s">
+      <c r="D391" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E391" s="14"/>
@@ -10951,7 +10951,7 @@
       <c r="C392" s="18">
         <v>1</v>
       </c>
-      <c r="D392" s="31" t="s">
+      <c r="D392" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E392" s="14"/>
@@ -10970,7 +10970,7 @@
       <c r="C393" s="18">
         <v>1</v>
       </c>
-      <c r="D393" s="31" t="s">
+      <c r="D393" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E393" s="14"/>
@@ -10989,7 +10989,7 @@
       <c r="C394" s="18">
         <v>1</v>
       </c>
-      <c r="D394" s="31" t="s">
+      <c r="D394" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E394" s="14"/>
@@ -11008,7 +11008,7 @@
       <c r="C395" s="18">
         <v>1</v>
       </c>
-      <c r="D395" s="31" t="s">
+      <c r="D395" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E395" s="14"/>
@@ -11027,7 +11027,7 @@
       <c r="C396" s="18">
         <v>1</v>
       </c>
-      <c r="D396" s="31" t="s">
+      <c r="D396" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E396" s="14"/>
@@ -11046,7 +11046,7 @@
       <c r="C397" s="18">
         <v>1</v>
       </c>
-      <c r="D397" s="31" t="s">
+      <c r="D397" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E397" s="14"/>
@@ -11065,7 +11065,7 @@
       <c r="C398" s="18">
         <v>1</v>
       </c>
-      <c r="D398" s="31" t="s">
+      <c r="D398" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E398" s="14"/>
@@ -11084,7 +11084,7 @@
       <c r="C399" s="18">
         <v>1</v>
       </c>
-      <c r="D399" s="31" t="s">
+      <c r="D399" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E399" s="14"/>
@@ -11103,7 +11103,7 @@
       <c r="C400" s="18">
         <v>1</v>
       </c>
-      <c r="D400" s="31" t="s">
+      <c r="D400" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E400" s="14"/>
@@ -11122,7 +11122,7 @@
       <c r="C401" s="18">
         <v>1</v>
       </c>
-      <c r="D401" s="31" t="s">
+      <c r="D401" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E401" s="14"/>
@@ -11141,7 +11141,7 @@
       <c r="C402" s="18">
         <v>1</v>
       </c>
-      <c r="D402" s="31" t="s">
+      <c r="D402" s="32" t="s">
         <v>935</v>
       </c>
       <c r="E402" s="14"/>
@@ -11160,7 +11160,7 @@
       <c r="C403" s="18">
         <v>1</v>
       </c>
-      <c r="D403" s="31" t="s">
+      <c r="D403" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E403" s="14"/>
@@ -11179,7 +11179,7 @@
       <c r="C404" s="18">
         <v>1</v>
       </c>
-      <c r="D404" s="31" t="s">
+      <c r="D404" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E404" s="14"/>
@@ -11198,7 +11198,7 @@
       <c r="C405" s="18">
         <v>1</v>
       </c>
-      <c r="D405" s="31" t="s">
+      <c r="D405" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E405" s="14"/>
@@ -11217,7 +11217,7 @@
       <c r="C406" s="18">
         <v>1</v>
       </c>
-      <c r="D406" s="31" t="s">
+      <c r="D406" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E406" s="14"/>
@@ -11236,7 +11236,7 @@
       <c r="C407" s="18">
         <v>1</v>
       </c>
-      <c r="D407" s="31" t="s">
+      <c r="D407" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E407" s="14"/>
@@ -11255,7 +11255,7 @@
       <c r="C408" s="18">
         <v>1</v>
       </c>
-      <c r="D408" s="31" t="s">
+      <c r="D408" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E408" s="14"/>
@@ -11274,7 +11274,7 @@
       <c r="C409" s="18">
         <v>1</v>
       </c>
-      <c r="D409" s="31" t="s">
+      <c r="D409" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E409" s="14"/>
@@ -11293,7 +11293,7 @@
       <c r="C410" s="18">
         <v>1</v>
       </c>
-      <c r="D410" s="31" t="s">
+      <c r="D410" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E410" s="14"/>
@@ -11312,7 +11312,7 @@
       <c r="C411" s="18">
         <v>1</v>
       </c>
-      <c r="D411" s="31" t="s">
+      <c r="D411" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E411" s="14"/>
@@ -11331,7 +11331,7 @@
       <c r="C412" s="18">
         <v>1</v>
       </c>
-      <c r="D412" s="31" t="s">
+      <c r="D412" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E412" s="14"/>
@@ -11350,7 +11350,7 @@
       <c r="C413" s="18">
         <v>1</v>
       </c>
-      <c r="D413" s="31" t="s">
+      <c r="D413" s="32" t="s">
         <v>937</v>
       </c>
       <c r="E413" s="14"/>
@@ -11369,7 +11369,7 @@
       <c r="C414" s="18">
         <v>1</v>
       </c>
-      <c r="D414" s="31" t="s">
+      <c r="D414" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E414" s="14"/>
@@ -11388,7 +11388,7 @@
       <c r="C415" s="18">
         <v>1</v>
       </c>
-      <c r="D415" s="31" t="s">
+      <c r="D415" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E415" s="14"/>
@@ -11407,7 +11407,7 @@
       <c r="C416" s="18">
         <v>1</v>
       </c>
-      <c r="D416" s="31" t="s">
+      <c r="D416" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E416" s="14"/>
@@ -11426,7 +11426,7 @@
       <c r="C417" s="18">
         <v>1</v>
       </c>
-      <c r="D417" s="31" t="s">
+      <c r="D417" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E417" s="14"/>
@@ -11445,7 +11445,7 @@
       <c r="C418" s="18">
         <v>1</v>
       </c>
-      <c r="D418" s="31" t="s">
+      <c r="D418" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E418" s="14"/>
@@ -11464,7 +11464,7 @@
       <c r="C419" s="18">
         <v>1</v>
       </c>
-      <c r="D419" s="31" t="s">
+      <c r="D419" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E419" s="14"/>
@@ -11483,7 +11483,7 @@
       <c r="C420" s="18">
         <v>1</v>
       </c>
-      <c r="D420" s="31" t="s">
+      <c r="D420" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E420" s="14"/>
@@ -11502,7 +11502,7 @@
       <c r="C421" s="18">
         <v>1</v>
       </c>
-      <c r="D421" s="31" t="s">
+      <c r="D421" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E421" s="14"/>
@@ -11521,7 +11521,7 @@
       <c r="C422" s="18">
         <v>1</v>
       </c>
-      <c r="D422" s="31" t="s">
+      <c r="D422" s="32" t="s">
         <v>936</v>
       </c>
       <c r="E422" s="14"/>
@@ -11540,7 +11540,7 @@
       <c r="C423" s="18">
         <v>1</v>
       </c>
-      <c r="D423" s="31" t="s">
+      <c r="D423" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E423" s="14"/>
@@ -11559,7 +11559,7 @@
       <c r="C424" s="18">
         <v>1</v>
       </c>
-      <c r="D424" s="31" t="s">
+      <c r="D424" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E424" s="14"/>
@@ -11578,7 +11578,7 @@
       <c r="C425" s="18">
         <v>1</v>
       </c>
-      <c r="D425" s="31" t="s">
+      <c r="D425" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E425" s="14"/>
@@ -11597,7 +11597,7 @@
       <c r="C426" s="18">
         <v>1</v>
       </c>
-      <c r="D426" s="31" t="s">
+      <c r="D426" s="32" t="s">
         <v>936</v>
       </c>
       <c r="E426" s="14"/>
@@ -11616,7 +11616,7 @@
       <c r="C427" s="18">
         <v>1</v>
       </c>
-      <c r="D427" s="31" t="s">
+      <c r="D427" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E427" s="14"/>
@@ -11635,7 +11635,7 @@
       <c r="C428" s="18">
         <v>1</v>
       </c>
-      <c r="D428" s="31" t="s">
+      <c r="D428" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E428" s="14"/>
@@ -11654,7 +11654,7 @@
       <c r="C429" s="18">
         <v>1</v>
       </c>
-      <c r="D429" s="31" t="s">
+      <c r="D429" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E429" s="14"/>
@@ -11673,7 +11673,7 @@
       <c r="C430" s="18">
         <v>1</v>
       </c>
-      <c r="D430" s="31" t="s">
+      <c r="D430" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E430" s="14"/>
@@ -11692,7 +11692,7 @@
       <c r="C431" s="18">
         <v>1</v>
       </c>
-      <c r="D431" s="31" t="s">
+      <c r="D431" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E431" s="14"/>
@@ -11711,7 +11711,7 @@
       <c r="C432" s="18">
         <v>1</v>
       </c>
-      <c r="D432" s="31" t="s">
+      <c r="D432" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E432" s="14"/>
@@ -11730,7 +11730,7 @@
       <c r="C433" s="18">
         <v>1</v>
       </c>
-      <c r="D433" s="31" t="s">
+      <c r="D433" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E433" s="14"/>
@@ -11749,7 +11749,7 @@
       <c r="C434" s="18">
         <v>1</v>
       </c>
-      <c r="D434" s="31" t="s">
+      <c r="D434" s="32" t="s">
         <v>935</v>
       </c>
       <c r="E434" s="14"/>
@@ -11768,7 +11768,7 @@
       <c r="C435" s="18">
         <v>1</v>
       </c>
-      <c r="D435" s="31" t="s">
+      <c r="D435" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E435" s="14"/>
@@ -11787,7 +11787,7 @@
       <c r="C436" s="18">
         <v>1</v>
       </c>
-      <c r="D436" s="31" t="s">
+      <c r="D436" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E436" s="14"/>
@@ -11806,7 +11806,7 @@
       <c r="C437" s="18">
         <v>1</v>
       </c>
-      <c r="D437" s="31" t="s">
+      <c r="D437" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E437" s="14"/>
@@ -11825,7 +11825,7 @@
       <c r="C438" s="18">
         <v>1</v>
       </c>
-      <c r="D438" s="31" t="s">
+      <c r="D438" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E438" s="14"/>
@@ -11844,7 +11844,7 @@
       <c r="C439" s="18">
         <v>1</v>
       </c>
-      <c r="D439" s="31" t="s">
+      <c r="D439" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E439" s="14"/>
@@ -11863,7 +11863,7 @@
       <c r="C440" s="18">
         <v>1</v>
       </c>
-      <c r="D440" s="31" t="s">
+      <c r="D440" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E440" s="14"/>
@@ -11882,7 +11882,7 @@
       <c r="C441" s="18">
         <v>1</v>
       </c>
-      <c r="D441" s="31" t="s">
+      <c r="D441" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E441" s="14"/>
@@ -11901,7 +11901,7 @@
       <c r="C442" s="18">
         <v>1</v>
       </c>
-      <c r="D442" s="31" t="s">
+      <c r="D442" s="32" t="s">
         <v>935</v>
       </c>
       <c r="E442" s="14"/>
@@ -11920,7 +11920,7 @@
       <c r="C443" s="18">
         <v>1</v>
       </c>
-      <c r="D443" s="31" t="s">
+      <c r="D443" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E443" s="14"/>
@@ -11939,7 +11939,7 @@
       <c r="C444" s="18">
         <v>1</v>
       </c>
-      <c r="D444" s="31" t="s">
+      <c r="D444" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E444" s="14"/>
@@ -11958,7 +11958,7 @@
       <c r="C445" s="18">
         <v>1</v>
       </c>
-      <c r="D445" s="31" t="s">
+      <c r="D445" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E445" s="14"/>
@@ -11977,7 +11977,7 @@
       <c r="C446" s="18">
         <v>1</v>
       </c>
-      <c r="D446" s="31" t="s">
+      <c r="D446" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E446" s="14"/>
@@ -11996,7 +11996,7 @@
       <c r="C447" s="18">
         <v>1</v>
       </c>
-      <c r="D447" s="31" t="s">
+      <c r="D447" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E447" s="14"/>
@@ -12015,7 +12015,7 @@
       <c r="C448" s="18">
         <v>1</v>
       </c>
-      <c r="D448" s="31" t="s">
+      <c r="D448" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E448" s="14"/>
@@ -12034,7 +12034,7 @@
       <c r="C449" s="18">
         <v>1</v>
       </c>
-      <c r="D449" s="31" t="s">
+      <c r="D449" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E449" s="14"/>
@@ -12053,7 +12053,7 @@
       <c r="C450" s="18">
         <v>1</v>
       </c>
-      <c r="D450" s="31" t="s">
+      <c r="D450" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E450" s="14"/>
@@ -12072,7 +12072,7 @@
       <c r="C451" s="18">
         <v>1</v>
       </c>
-      <c r="D451" s="31" t="s">
+      <c r="D451" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E451" s="14"/>
@@ -12091,7 +12091,7 @@
       <c r="C452" s="18">
         <v>1</v>
       </c>
-      <c r="D452" s="31" t="s">
+      <c r="D452" s="32" t="s">
         <v>937</v>
       </c>
       <c r="E452" s="14"/>
@@ -12110,7 +12110,7 @@
       <c r="C453" s="18">
         <v>1</v>
       </c>
-      <c r="D453" s="31" t="s">
+      <c r="D453" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E453" s="14"/>
@@ -12129,7 +12129,7 @@
       <c r="C454" s="18">
         <v>1</v>
       </c>
-      <c r="D454" s="31" t="s">
+      <c r="D454" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E454" s="14"/>
@@ -12148,7 +12148,7 @@
       <c r="C455" s="18">
         <v>1</v>
       </c>
-      <c r="D455" s="31" t="s">
+      <c r="D455" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E455" s="14"/>
@@ -12167,7 +12167,7 @@
       <c r="C456" s="18">
         <v>1</v>
       </c>
-      <c r="D456" s="31" t="s">
+      <c r="D456" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E456" s="14"/>
@@ -12186,7 +12186,7 @@
       <c r="C457" s="18">
         <v>1</v>
       </c>
-      <c r="D457" s="31" t="s">
+      <c r="D457" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E457" s="14"/>
@@ -12205,7 +12205,7 @@
       <c r="C458" s="18">
         <v>1</v>
       </c>
-      <c r="D458" s="31" t="s">
+      <c r="D458" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E458" s="14"/>
@@ -12224,7 +12224,7 @@
       <c r="C459" s="18">
         <v>1</v>
       </c>
-      <c r="D459" s="31" t="s">
+      <c r="D459" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E459" s="14"/>
@@ -12243,7 +12243,7 @@
       <c r="C460" s="18">
         <v>1</v>
       </c>
-      <c r="D460" s="31" t="s">
+      <c r="D460" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E460" s="14"/>
@@ -12262,7 +12262,7 @@
       <c r="C461" s="18">
         <v>1</v>
       </c>
-      <c r="D461" s="31" t="s">
+      <c r="D461" s="32" t="s">
         <v>935</v>
       </c>
       <c r="E461" s="14"/>
@@ -12281,7 +12281,7 @@
       <c r="C462" s="18">
         <v>1</v>
       </c>
-      <c r="D462" s="31" t="s">
+      <c r="D462" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E462" s="14"/>
@@ -12300,7 +12300,7 @@
       <c r="C463" s="18">
         <v>1</v>
       </c>
-      <c r="D463" s="31" t="s">
+      <c r="D463" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E463" s="14"/>
@@ -12319,7 +12319,7 @@
       <c r="C464" s="18">
         <v>1</v>
       </c>
-      <c r="D464" s="31" t="s">
+      <c r="D464" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E464" s="14"/>
@@ -12338,7 +12338,7 @@
       <c r="C465" s="18">
         <v>1</v>
       </c>
-      <c r="D465" s="31" t="s">
+      <c r="D465" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E465" s="14"/>
@@ -12357,7 +12357,7 @@
       <c r="C466" s="18">
         <v>1</v>
       </c>
-      <c r="D466" s="31" t="s">
+      <c r="D466" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E466" s="14"/>
@@ -12376,7 +12376,7 @@
       <c r="C467" s="18">
         <v>1</v>
       </c>
-      <c r="D467" s="31" t="s">
+      <c r="D467" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E467" s="14"/>
@@ -12395,7 +12395,7 @@
       <c r="C468" s="18">
         <v>1</v>
       </c>
-      <c r="D468" s="31" t="s">
+      <c r="D468" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E468" s="14"/>
@@ -12414,7 +12414,7 @@
       <c r="C469" s="18">
         <v>1</v>
       </c>
-      <c r="D469" s="31" t="s">
+      <c r="D469" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E469" s="14"/>
@@ -12433,7 +12433,7 @@
       <c r="C470" s="18">
         <v>1</v>
       </c>
-      <c r="D470" s="31" t="s">
+      <c r="D470" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E470" s="14"/>
@@ -12452,7 +12452,7 @@
       <c r="C471" s="18">
         <v>1</v>
       </c>
-      <c r="D471" s="31" t="s">
+      <c r="D471" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E471" s="14"/>
@@ -12471,7 +12471,7 @@
       <c r="C472" s="18">
         <v>1</v>
       </c>
-      <c r="D472" s="31" t="s">
+      <c r="D472" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E472" s="14"/>
@@ -12490,7 +12490,7 @@
       <c r="C473" s="18">
         <v>1</v>
       </c>
-      <c r="D473" s="31" t="s">
+      <c r="D473" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E473" s="14"/>
@@ -12509,7 +12509,7 @@
       <c r="C474" s="18">
         <v>1</v>
       </c>
-      <c r="D474" s="31" t="s">
+      <c r="D474" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E474" s="14"/>
@@ -12528,7 +12528,7 @@
       <c r="C475" s="18">
         <v>1</v>
       </c>
-      <c r="D475" s="31" t="s">
+      <c r="D475" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E475" s="14"/>
@@ -12547,7 +12547,7 @@
       <c r="C476" s="18">
         <v>1</v>
       </c>
-      <c r="D476" s="31" t="s">
+      <c r="D476" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E476" s="14"/>
@@ -12566,7 +12566,7 @@
       <c r="C477" s="18">
         <v>1</v>
       </c>
-      <c r="D477" s="31" t="s">
+      <c r="D477" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E477" s="14"/>
@@ -12585,7 +12585,7 @@
       <c r="C478" s="18">
         <v>1</v>
       </c>
-      <c r="D478" s="31" t="s">
+      <c r="D478" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E478" s="14"/>
@@ -12604,7 +12604,7 @@
       <c r="C479" s="18">
         <v>1</v>
       </c>
-      <c r="D479" s="31" t="s">
+      <c r="D479" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E479" s="14"/>
@@ -12623,7 +12623,7 @@
       <c r="C480" s="18">
         <v>1</v>
       </c>
-      <c r="D480" s="31" t="s">
+      <c r="D480" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E480" s="14"/>
@@ -12642,7 +12642,7 @@
       <c r="C481" s="18">
         <v>1</v>
       </c>
-      <c r="D481" s="31" t="s">
+      <c r="D481" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E481" s="14"/>
@@ -12661,7 +12661,7 @@
       <c r="C482" s="18">
         <v>1</v>
       </c>
-      <c r="D482" s="31" t="s">
+      <c r="D482" s="32" t="s">
         <v>936</v>
       </c>
       <c r="E482" s="14"/>
@@ -12680,7 +12680,7 @@
       <c r="C483" s="18">
         <v>1</v>
       </c>
-      <c r="D483" s="31" t="s">
+      <c r="D483" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E483" s="14"/>
@@ -12699,7 +12699,7 @@
       <c r="C484" s="18">
         <v>1</v>
       </c>
-      <c r="D484" s="31" t="s">
+      <c r="D484" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E484" s="14"/>
@@ -12718,7 +12718,7 @@
       <c r="C485" s="18">
         <v>1</v>
       </c>
-      <c r="D485" s="31" t="s">
+      <c r="D485" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E485" s="14"/>
@@ -12737,7 +12737,7 @@
       <c r="C486" s="18">
         <v>1</v>
       </c>
-      <c r="D486" s="31" t="s">
+      <c r="D486" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E486" s="14"/>
@@ -12756,7 +12756,7 @@
       <c r="C487" s="18">
         <v>1</v>
       </c>
-      <c r="D487" s="31" t="s">
+      <c r="D487" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E487" s="14"/>
@@ -12775,7 +12775,7 @@
       <c r="C488" s="18">
         <v>1</v>
       </c>
-      <c r="D488" s="31" t="s">
+      <c r="D488" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E488" s="14"/>
@@ -12794,7 +12794,7 @@
       <c r="C489" s="18">
         <v>1</v>
       </c>
-      <c r="D489" s="31" t="s">
+      <c r="D489" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E489" s="14"/>
@@ -12813,7 +12813,7 @@
       <c r="C490" s="18">
         <v>1</v>
       </c>
-      <c r="D490" s="31" t="s">
+      <c r="D490" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E490" s="14"/>
@@ -12832,7 +12832,7 @@
       <c r="C491" s="18">
         <v>1</v>
       </c>
-      <c r="D491" s="31" t="s">
+      <c r="D491" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E491" s="14"/>
@@ -12851,7 +12851,7 @@
       <c r="C492" s="18">
         <v>1</v>
       </c>
-      <c r="D492" s="31" t="s">
+      <c r="D492" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E492" s="14"/>
@@ -12870,7 +12870,7 @@
       <c r="C493" s="18">
         <v>1</v>
       </c>
-      <c r="D493" s="31" t="s">
+      <c r="D493" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E493" s="14"/>
@@ -12889,7 +12889,7 @@
       <c r="C494" s="18">
         <v>1</v>
       </c>
-      <c r="D494" s="31" t="s">
+      <c r="D494" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E494" s="14"/>
@@ -12908,7 +12908,7 @@
       <c r="C495" s="18">
         <v>1</v>
       </c>
-      <c r="D495" s="31" t="s">
+      <c r="D495" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E495" s="14"/>
@@ -12927,7 +12927,7 @@
       <c r="C496" s="18">
         <v>1</v>
       </c>
-      <c r="D496" s="31" t="s">
+      <c r="D496" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E496" s="14"/>
@@ -12946,7 +12946,7 @@
       <c r="C497" s="18">
         <v>1</v>
       </c>
-      <c r="D497" s="31" t="s">
+      <c r="D497" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E497" s="14"/>
@@ -12965,7 +12965,7 @@
       <c r="C498" s="18">
         <v>1</v>
       </c>
-      <c r="D498" s="31" t="s">
+      <c r="D498" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E498" s="14"/>
@@ -12984,7 +12984,7 @@
       <c r="C499" s="18">
         <v>1</v>
       </c>
-      <c r="D499" s="31" t="s">
+      <c r="D499" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E499" s="14"/>
@@ -13003,7 +13003,7 @@
       <c r="C500" s="18">
         <v>1</v>
       </c>
-      <c r="D500" s="31" t="s">
+      <c r="D500" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E500" s="14"/>
@@ -13022,7 +13022,7 @@
       <c r="C501" s="18">
         <v>1</v>
       </c>
-      <c r="D501" s="31" t="s">
+      <c r="D501" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E501" s="14"/>
@@ -13041,7 +13041,7 @@
       <c r="C502" s="18">
         <v>1</v>
       </c>
-      <c r="D502" s="31" t="s">
+      <c r="D502" s="32" t="s">
         <v>936</v>
       </c>
       <c r="E502" s="14"/>
@@ -13060,7 +13060,7 @@
       <c r="C503" s="18">
         <v>1</v>
       </c>
-      <c r="D503" s="31" t="s">
+      <c r="D503" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E503" s="14"/>
@@ -13079,7 +13079,7 @@
       <c r="C504" s="18">
         <v>1</v>
       </c>
-      <c r="D504" s="31" t="s">
+      <c r="D504" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E504" s="14"/>
@@ -13098,7 +13098,7 @@
       <c r="C505" s="18">
         <v>1</v>
       </c>
-      <c r="D505" s="31" t="s">
+      <c r="D505" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E505" s="14"/>
@@ -13117,7 +13117,7 @@
       <c r="C506" s="18">
         <v>1</v>
       </c>
-      <c r="D506" s="31" t="s">
+      <c r="D506" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E506" s="14"/>
@@ -13136,7 +13136,7 @@
       <c r="C507" s="18">
         <v>1</v>
       </c>
-      <c r="D507" s="31" t="s">
+      <c r="D507" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E507" s="14"/>
@@ -13155,7 +13155,7 @@
       <c r="C508" s="18">
         <v>1</v>
       </c>
-      <c r="D508" s="31" t="s">
+      <c r="D508" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E508" s="14"/>
@@ -13174,7 +13174,7 @@
       <c r="C509" s="18">
         <v>1</v>
       </c>
-      <c r="D509" s="31" t="s">
+      <c r="D509" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E509" s="14"/>
@@ -13193,7 +13193,7 @@
       <c r="C510" s="18">
         <v>1</v>
       </c>
-      <c r="D510" s="31" t="s">
+      <c r="D510" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E510" s="14"/>
@@ -13212,7 +13212,7 @@
       <c r="C511" s="18">
         <v>1</v>
       </c>
-      <c r="D511" s="31" t="s">
+      <c r="D511" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E511" s="14"/>
@@ -13231,7 +13231,7 @@
       <c r="C512" s="18">
         <v>1</v>
       </c>
-      <c r="D512" s="31" t="s">
+      <c r="D512" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E512" s="14"/>
@@ -13250,7 +13250,7 @@
       <c r="C513" s="18">
         <v>1</v>
       </c>
-      <c r="D513" s="31" t="s">
+      <c r="D513" s="32" t="s">
         <v>937</v>
       </c>
       <c r="E513" s="14"/>
@@ -13269,7 +13269,7 @@
       <c r="C514" s="18">
         <v>1</v>
       </c>
-      <c r="D514" s="31" t="s">
+      <c r="D514" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E514" s="14"/>
@@ -13288,7 +13288,7 @@
       <c r="C515" s="18">
         <v>1</v>
       </c>
-      <c r="D515" s="31" t="s">
+      <c r="D515" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E515" s="14"/>
@@ -13307,7 +13307,7 @@
       <c r="C516" s="18">
         <v>1</v>
       </c>
-      <c r="D516" s="31" t="s">
+      <c r="D516" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E516" s="14"/>
@@ -13326,7 +13326,7 @@
       <c r="C517" s="18">
         <v>1</v>
       </c>
-      <c r="D517" s="31" t="s">
+      <c r="D517" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E517" s="14"/>
@@ -13345,7 +13345,7 @@
       <c r="C518" s="18">
         <v>1</v>
       </c>
-      <c r="D518" s="31" t="s">
+      <c r="D518" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E518" s="14"/>
@@ -13364,7 +13364,7 @@
       <c r="C519" s="18">
         <v>1</v>
       </c>
-      <c r="D519" s="31" t="s">
+      <c r="D519" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E519" s="14"/>
@@ -13383,7 +13383,7 @@
       <c r="C520" s="18">
         <v>1</v>
       </c>
-      <c r="D520" s="31" t="s">
+      <c r="D520" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E520" s="14"/>
@@ -13402,7 +13402,7 @@
       <c r="C521" s="18">
         <v>1</v>
       </c>
-      <c r="D521" s="31" t="s">
+      <c r="D521" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E521" s="14"/>
@@ -13421,7 +13421,7 @@
       <c r="C522" s="18">
         <v>1</v>
       </c>
-      <c r="D522" s="31" t="s">
+      <c r="D522" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E522" s="14"/>
@@ -13440,7 +13440,7 @@
       <c r="C523" s="18">
         <v>1</v>
       </c>
-      <c r="D523" s="31" t="s">
+      <c r="D523" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E523" s="14"/>
@@ -13459,7 +13459,7 @@
       <c r="C524" s="18">
         <v>1</v>
       </c>
-      <c r="D524" s="31" t="s">
+      <c r="D524" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E524" s="14"/>
@@ -13478,7 +13478,7 @@
       <c r="C525" s="18">
         <v>1</v>
       </c>
-      <c r="D525" s="31" t="s">
+      <c r="D525" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E525" s="14"/>
@@ -13497,7 +13497,7 @@
       <c r="C526" s="18">
         <v>1</v>
       </c>
-      <c r="D526" s="31" t="s">
+      <c r="D526" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E526" s="14"/>
@@ -13516,7 +13516,7 @@
       <c r="C527" s="18">
         <v>1</v>
       </c>
-      <c r="D527" s="31" t="s">
+      <c r="D527" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E527" s="14"/>
@@ -13535,7 +13535,7 @@
       <c r="C528" s="18">
         <v>1</v>
       </c>
-      <c r="D528" s="31" t="s">
+      <c r="D528" s="32" t="s">
         <v>935</v>
       </c>
       <c r="E528" s="14"/>
@@ -13554,7 +13554,7 @@
       <c r="C529" s="18">
         <v>1</v>
       </c>
-      <c r="D529" s="31" t="s">
+      <c r="D529" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E529" s="14"/>
@@ -13573,7 +13573,7 @@
       <c r="C530" s="18">
         <v>1</v>
       </c>
-      <c r="D530" s="31" t="s">
+      <c r="D530" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E530" s="14"/>
@@ -13592,7 +13592,7 @@
       <c r="C531" s="18">
         <v>1</v>
       </c>
-      <c r="D531" s="31" t="s">
+      <c r="D531" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E531" s="14"/>
@@ -13611,7 +13611,7 @@
       <c r="C532" s="18">
         <v>1</v>
       </c>
-      <c r="D532" s="31" t="s">
+      <c r="D532" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E532" s="14"/>
@@ -13630,7 +13630,7 @@
       <c r="C533" s="18">
         <v>1</v>
       </c>
-      <c r="D533" s="31" t="s">
+      <c r="D533" s="32" t="s">
         <v>937</v>
       </c>
       <c r="E533" s="14"/>
@@ -13649,7 +13649,7 @@
       <c r="C534" s="18">
         <v>1</v>
       </c>
-      <c r="D534" s="31" t="s">
+      <c r="D534" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E534" s="14"/>
@@ -13668,7 +13668,7 @@
       <c r="C535" s="18">
         <v>1</v>
       </c>
-      <c r="D535" s="31" t="s">
+      <c r="D535" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E535" s="14"/>
@@ -13687,7 +13687,7 @@
       <c r="C536" s="18">
         <v>1</v>
       </c>
-      <c r="D536" s="31" t="s">
+      <c r="D536" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E536" s="14"/>
@@ -13706,7 +13706,7 @@
       <c r="C537" s="18">
         <v>1</v>
       </c>
-      <c r="D537" s="31" t="s">
+      <c r="D537" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E537" s="14"/>
@@ -13725,7 +13725,7 @@
       <c r="C538" s="18">
         <v>1</v>
       </c>
-      <c r="D538" s="31" t="s">
+      <c r="D538" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E538" s="14"/>
@@ -13744,7 +13744,7 @@
       <c r="C539" s="18">
         <v>1</v>
       </c>
-      <c r="D539" s="31" t="s">
+      <c r="D539" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E539" s="14"/>
@@ -13763,7 +13763,7 @@
       <c r="C540" s="18">
         <v>1</v>
       </c>
-      <c r="D540" s="31" t="s">
+      <c r="D540" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E540" s="14"/>
@@ -13782,7 +13782,7 @@
       <c r="C541" s="18">
         <v>1</v>
       </c>
-      <c r="D541" s="31" t="s">
+      <c r="D541" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E541" s="14"/>
@@ -13801,7 +13801,7 @@
       <c r="C542" s="18">
         <v>1</v>
       </c>
-      <c r="D542" s="31" t="s">
+      <c r="D542" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E542" s="14"/>
@@ -13820,7 +13820,7 @@
       <c r="C543" s="18">
         <v>1</v>
       </c>
-      <c r="D543" s="31" t="s">
+      <c r="D543" s="32" t="s">
         <v>936</v>
       </c>
       <c r="E543" s="14"/>
@@ -13839,7 +13839,7 @@
       <c r="C544" s="18">
         <v>1</v>
       </c>
-      <c r="D544" s="31" t="s">
+      <c r="D544" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E544" s="14"/>
@@ -13858,7 +13858,7 @@
       <c r="C545" s="18">
         <v>1</v>
       </c>
-      <c r="D545" s="31" t="s">
+      <c r="D545" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E545" s="14"/>
@@ -13877,7 +13877,7 @@
       <c r="C546" s="18">
         <v>1</v>
       </c>
-      <c r="D546" s="31" t="s">
+      <c r="D546" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E546" s="14"/>
@@ -13896,7 +13896,7 @@
       <c r="C547" s="18">
         <v>1</v>
       </c>
-      <c r="D547" s="31" t="s">
+      <c r="D547" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E547" s="14"/>
@@ -13915,7 +13915,7 @@
       <c r="C548" s="18">
         <v>1</v>
       </c>
-      <c r="D548" s="31" t="s">
+      <c r="D548" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E548" s="14"/>
@@ -13934,7 +13934,7 @@
       <c r="C549" s="18">
         <v>1</v>
       </c>
-      <c r="D549" s="31" t="s">
+      <c r="D549" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E549" s="14"/>
@@ -13953,7 +13953,7 @@
       <c r="C550" s="18">
         <v>1</v>
       </c>
-      <c r="D550" s="31" t="s">
+      <c r="D550" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E550" s="14"/>
@@ -13972,7 +13972,7 @@
       <c r="C551" s="18">
         <v>1</v>
       </c>
-      <c r="D551" s="31" t="s">
+      <c r="D551" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E551" s="14"/>
@@ -13991,7 +13991,7 @@
       <c r="C552" s="18">
         <v>1</v>
       </c>
-      <c r="D552" s="31" t="s">
+      <c r="D552" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E552" s="14"/>
@@ -14010,7 +14010,7 @@
       <c r="C553" s="18">
         <v>1</v>
       </c>
-      <c r="D553" s="31" t="s">
+      <c r="D553" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E553" s="14"/>
@@ -14029,7 +14029,7 @@
       <c r="C554" s="18">
         <v>1</v>
       </c>
-      <c r="D554" s="31" t="s">
+      <c r="D554" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E554" s="14"/>
@@ -14048,7 +14048,7 @@
       <c r="C555" s="18">
         <v>1</v>
       </c>
-      <c r="D555" s="31" t="s">
+      <c r="D555" s="32" t="s">
         <v>935</v>
       </c>
       <c r="E555" s="14"/>
@@ -14067,7 +14067,7 @@
       <c r="C556" s="18">
         <v>1</v>
       </c>
-      <c r="D556" s="31" t="s">
+      <c r="D556" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E556" s="14"/>
@@ -14086,7 +14086,7 @@
       <c r="C557" s="18">
         <v>1</v>
       </c>
-      <c r="D557" s="31" t="s">
+      <c r="D557" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E557" s="14"/>
@@ -14105,7 +14105,7 @@
       <c r="C558" s="18">
         <v>1</v>
       </c>
-      <c r="D558" s="31" t="s">
+      <c r="D558" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E558" s="14"/>
@@ -14124,7 +14124,7 @@
       <c r="C559" s="18">
         <v>1</v>
       </c>
-      <c r="D559" s="31" t="s">
+      <c r="D559" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E559" s="14"/>
@@ -14143,7 +14143,7 @@
       <c r="C560" s="18">
         <v>1</v>
       </c>
-      <c r="D560" s="31" t="s">
+      <c r="D560" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E560" s="14"/>
@@ -14162,7 +14162,7 @@
       <c r="C561" s="18">
         <v>1</v>
       </c>
-      <c r="D561" s="31" t="s">
+      <c r="D561" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E561" s="14"/>
@@ -14181,7 +14181,7 @@
       <c r="C562" s="18">
         <v>1</v>
       </c>
-      <c r="D562" s="31" t="s">
+      <c r="D562" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E562" s="14"/>
@@ -14200,7 +14200,7 @@
       <c r="C563" s="18">
         <v>1</v>
       </c>
-      <c r="D563" s="31" t="s">
+      <c r="D563" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E563" s="14"/>
@@ -14219,7 +14219,7 @@
       <c r="C564" s="18">
         <v>1</v>
       </c>
-      <c r="D564" s="31" t="s">
+      <c r="D564" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E564" s="14"/>
@@ -14238,7 +14238,7 @@
       <c r="C565" s="18">
         <v>1</v>
       </c>
-      <c r="D565" s="31" t="s">
+      <c r="D565" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E565" s="14"/>
@@ -14257,7 +14257,7 @@
       <c r="C566" s="18">
         <v>1</v>
       </c>
-      <c r="D566" s="31" t="s">
+      <c r="D566" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E566" s="14"/>
@@ -14276,7 +14276,7 @@
       <c r="C567" s="18">
         <v>1</v>
       </c>
-      <c r="D567" s="31" t="s">
+      <c r="D567" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E567" s="14"/>
@@ -14295,7 +14295,7 @@
       <c r="C568" s="18">
         <v>1</v>
       </c>
-      <c r="D568" s="31" t="s">
+      <c r="D568" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E568" s="14"/>
@@ -14314,7 +14314,7 @@
       <c r="C569" s="18">
         <v>1</v>
       </c>
-      <c r="D569" s="31" t="s">
+      <c r="D569" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E569" s="14"/>
@@ -14333,7 +14333,7 @@
       <c r="C570" s="18">
         <v>1</v>
       </c>
-      <c r="D570" s="31" t="s">
+      <c r="D570" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E570" s="14"/>
@@ -14352,7 +14352,7 @@
       <c r="C571" s="18">
         <v>1</v>
       </c>
-      <c r="D571" s="31" t="s">
+      <c r="D571" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E571" s="14"/>
@@ -14371,7 +14371,7 @@
       <c r="C572" s="18">
         <v>1</v>
       </c>
-      <c r="D572" s="31" t="s">
+      <c r="D572" s="32" t="s">
         <v>935</v>
       </c>
       <c r="E572" s="14"/>
@@ -14390,7 +14390,7 @@
       <c r="C573" s="18">
         <v>1</v>
       </c>
-      <c r="D573" s="31" t="s">
+      <c r="D573" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E573" s="14"/>
@@ -14409,7 +14409,7 @@
       <c r="C574" s="18">
         <v>1</v>
       </c>
-      <c r="D574" s="31" t="s">
+      <c r="D574" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E574" s="14"/>
@@ -14428,7 +14428,7 @@
       <c r="C575" s="18">
         <v>1</v>
       </c>
-      <c r="D575" s="31" t="s">
+      <c r="D575" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E575" s="14"/>
@@ -14447,7 +14447,7 @@
       <c r="C576" s="18">
         <v>1</v>
       </c>
-      <c r="D576" s="31" t="s">
+      <c r="D576" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E576" s="14"/>
@@ -14466,7 +14466,7 @@
       <c r="C577" s="18">
         <v>1</v>
       </c>
-      <c r="D577" s="31" t="s">
+      <c r="D577" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E577" s="14"/>
@@ -14485,7 +14485,7 @@
       <c r="C578" s="18">
         <v>1</v>
       </c>
-      <c r="D578" s="31" t="s">
+      <c r="D578" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E578" s="14"/>
@@ -14504,7 +14504,7 @@
       <c r="C579" s="18">
         <v>1</v>
       </c>
-      <c r="D579" s="31" t="s">
+      <c r="D579" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E579" s="14"/>
@@ -14523,7 +14523,7 @@
       <c r="C580" s="18">
         <v>1</v>
       </c>
-      <c r="D580" s="31" t="s">
+      <c r="D580" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E580" s="14"/>
@@ -14542,7 +14542,7 @@
       <c r="C581" s="18">
         <v>1</v>
       </c>
-      <c r="D581" s="31" t="s">
+      <c r="D581" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E581" s="14"/>
@@ -14561,7 +14561,7 @@
       <c r="C582" s="18">
         <v>1</v>
       </c>
-      <c r="D582" s="31" t="s">
+      <c r="D582" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E582" s="14"/>
@@ -14580,7 +14580,7 @@
       <c r="C583" s="18">
         <v>1</v>
       </c>
-      <c r="D583" s="31" t="s">
+      <c r="D583" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E583" s="14"/>
@@ -14599,7 +14599,7 @@
       <c r="C584" s="18">
         <v>1</v>
       </c>
-      <c r="D584" s="31" t="s">
+      <c r="D584" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E584" s="14"/>
@@ -14618,7 +14618,7 @@
       <c r="C585" s="18">
         <v>1</v>
       </c>
-      <c r="D585" s="31" t="s">
+      <c r="D585" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E585" s="14"/>
@@ -14637,7 +14637,7 @@
       <c r="C586" s="18">
         <v>1</v>
       </c>
-      <c r="D586" s="31" t="s">
+      <c r="D586" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E586" s="14"/>
@@ -14656,7 +14656,7 @@
       <c r="C587" s="18">
         <v>1</v>
       </c>
-      <c r="D587" s="31" t="s">
+      <c r="D587" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E587" s="14"/>
@@ -14675,7 +14675,7 @@
       <c r="C588" s="18">
         <v>1</v>
       </c>
-      <c r="D588" s="31" t="s">
+      <c r="D588" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E588" s="14"/>
@@ -14694,7 +14694,7 @@
       <c r="C589" s="18">
         <v>1</v>
       </c>
-      <c r="D589" s="31" t="s">
+      <c r="D589" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E589" s="14"/>
@@ -14713,7 +14713,7 @@
       <c r="C590" s="18">
         <v>1</v>
       </c>
-      <c r="D590" s="31" t="s">
+      <c r="D590" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E590" s="14"/>
@@ -14732,7 +14732,7 @@
       <c r="C591" s="18">
         <v>1</v>
       </c>
-      <c r="D591" s="31" t="s">
+      <c r="D591" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E591" s="14"/>
@@ -14751,7 +14751,7 @@
       <c r="C592" s="18">
         <v>1</v>
       </c>
-      <c r="D592" s="31" t="s">
+      <c r="D592" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E592" s="14"/>
@@ -14770,7 +14770,7 @@
       <c r="C593" s="18">
         <v>1</v>
       </c>
-      <c r="D593" s="31" t="s">
+      <c r="D593" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E593" s="14"/>
@@ -14789,7 +14789,7 @@
       <c r="C594" s="18">
         <v>1</v>
       </c>
-      <c r="D594" s="31" t="s">
+      <c r="D594" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E594" s="14"/>
@@ -14808,7 +14808,7 @@
       <c r="C595" s="18">
         <v>1</v>
       </c>
-      <c r="D595" s="31" t="s">
+      <c r="D595" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E595" s="14"/>
@@ -14827,7 +14827,7 @@
       <c r="C596" s="18">
         <v>1</v>
       </c>
-      <c r="D596" s="31" t="s">
+      <c r="D596" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E596" s="14"/>
@@ -14846,7 +14846,7 @@
       <c r="C597" s="18">
         <v>1</v>
       </c>
-      <c r="D597" s="31" t="s">
+      <c r="D597" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E597" s="14"/>
@@ -14865,7 +14865,7 @@
       <c r="C598" s="18">
         <v>1</v>
       </c>
-      <c r="D598" s="31" t="s">
+      <c r="D598" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E598" s="14"/>
@@ -14884,7 +14884,7 @@
       <c r="C599" s="18">
         <v>1</v>
       </c>
-      <c r="D599" s="31" t="s">
+      <c r="D599" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E599" s="14"/>
@@ -14903,7 +14903,7 @@
       <c r="C600" s="18">
         <v>1</v>
       </c>
-      <c r="D600" s="31" t="s">
+      <c r="D600" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E600" s="14"/>
@@ -14922,7 +14922,7 @@
       <c r="C601" s="18">
         <v>1</v>
       </c>
-      <c r="D601" s="31" t="s">
+      <c r="D601" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E601" s="14"/>
@@ -14941,7 +14941,7 @@
       <c r="C602" s="18">
         <v>1</v>
       </c>
-      <c r="D602" s="31" t="s">
+      <c r="D602" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E602" s="14"/>
@@ -14960,7 +14960,7 @@
       <c r="C603" s="18">
         <v>1</v>
       </c>
-      <c r="D603" s="31" t="s">
+      <c r="D603" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E603" s="14"/>
@@ -14979,7 +14979,7 @@
       <c r="C604" s="18">
         <v>1</v>
       </c>
-      <c r="D604" s="31" t="s">
+      <c r="D604" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E604" s="14"/>
@@ -14998,7 +14998,7 @@
       <c r="C605" s="18">
         <v>1</v>
       </c>
-      <c r="D605" s="31" t="s">
+      <c r="D605" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E605" s="14"/>
@@ -15017,7 +15017,7 @@
       <c r="C606" s="18">
         <v>1</v>
       </c>
-      <c r="D606" s="31" t="s">
+      <c r="D606" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E606" s="14"/>
@@ -15036,7 +15036,7 @@
       <c r="C607" s="18">
         <v>1</v>
       </c>
-      <c r="D607" s="31" t="s">
+      <c r="D607" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E607" s="14"/>
@@ -15055,7 +15055,7 @@
       <c r="C608" s="18">
         <v>1</v>
       </c>
-      <c r="D608" s="31" t="s">
+      <c r="D608" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E608" s="14"/>
@@ -15074,7 +15074,7 @@
       <c r="C609" s="18">
         <v>1</v>
       </c>
-      <c r="D609" s="31" t="s">
+      <c r="D609" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E609" s="14"/>
@@ -15093,7 +15093,7 @@
       <c r="C610" s="18">
         <v>1</v>
       </c>
-      <c r="D610" s="31" t="s">
+      <c r="D610" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E610" s="14"/>
@@ -15112,7 +15112,7 @@
       <c r="C611" s="18">
         <v>1</v>
       </c>
-      <c r="D611" s="31" t="s">
+      <c r="D611" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E611" s="14"/>
@@ -15131,7 +15131,7 @@
       <c r="C612" s="18">
         <v>1</v>
       </c>
-      <c r="D612" s="31" t="s">
+      <c r="D612" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E612" s="14"/>
@@ -15150,7 +15150,7 @@
       <c r="C613" s="18">
         <v>1</v>
       </c>
-      <c r="D613" s="31" t="s">
+      <c r="D613" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E613" s="14"/>
@@ -15169,7 +15169,7 @@
       <c r="C614" s="18">
         <v>1</v>
       </c>
-      <c r="D614" s="31" t="s">
+      <c r="D614" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E614" s="14"/>
@@ -15188,7 +15188,7 @@
       <c r="C615" s="18">
         <v>1</v>
       </c>
-      <c r="D615" s="31" t="s">
+      <c r="D615" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E615" s="14"/>
@@ -15207,7 +15207,7 @@
       <c r="C616" s="18">
         <v>1</v>
       </c>
-      <c r="D616" s="31" t="s">
+      <c r="D616" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E616" s="14"/>
@@ -15226,7 +15226,7 @@
       <c r="C617" s="18">
         <v>1</v>
       </c>
-      <c r="D617" s="31" t="s">
+      <c r="D617" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E617" s="14"/>
@@ -15245,7 +15245,7 @@
       <c r="C618" s="18">
         <v>1</v>
       </c>
-      <c r="D618" s="31" t="s">
+      <c r="D618" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E618" s="14"/>
@@ -15264,7 +15264,7 @@
       <c r="C619" s="18">
         <v>1</v>
       </c>
-      <c r="D619" s="31" t="s">
+      <c r="D619" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E619" s="14"/>
@@ -15283,7 +15283,7 @@
       <c r="C620" s="18">
         <v>1</v>
       </c>
-      <c r="D620" s="31" t="s">
+      <c r="D620" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E620" s="14"/>
@@ -15302,7 +15302,7 @@
       <c r="C621" s="18">
         <v>1</v>
       </c>
-      <c r="D621" s="31" t="s">
+      <c r="D621" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E621" s="14"/>
@@ -15321,7 +15321,7 @@
       <c r="C622" s="18">
         <v>1</v>
       </c>
-      <c r="D622" s="31" t="s">
+      <c r="D622" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E622" s="14"/>
@@ -15340,7 +15340,7 @@
       <c r="C623" s="18">
         <v>1</v>
       </c>
-      <c r="D623" s="31" t="s">
+      <c r="D623" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E623" s="14"/>
@@ -15359,7 +15359,7 @@
       <c r="C624" s="18">
         <v>1</v>
       </c>
-      <c r="D624" s="31" t="s">
+      <c r="D624" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E624" s="14"/>
@@ -15378,7 +15378,7 @@
       <c r="C625" s="18">
         <v>1</v>
       </c>
-      <c r="D625" s="31" t="s">
+      <c r="D625" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E625" s="14"/>
@@ -15397,7 +15397,7 @@
       <c r="C626" s="18">
         <v>1</v>
       </c>
-      <c r="D626" s="31" t="s">
+      <c r="D626" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E626" s="14"/>
@@ -15416,7 +15416,7 @@
       <c r="C627" s="18">
         <v>1</v>
       </c>
-      <c r="D627" s="31" t="s">
+      <c r="D627" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E627" s="14"/>
@@ -15435,7 +15435,7 @@
       <c r="C628" s="18">
         <v>1</v>
       </c>
-      <c r="D628" s="31" t="s">
+      <c r="D628" s="32" t="s">
         <v>936</v>
       </c>
       <c r="E628" s="14"/>
@@ -15454,7 +15454,7 @@
       <c r="C629" s="18">
         <v>1</v>
       </c>
-      <c r="D629" s="31" t="s">
+      <c r="D629" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E629" s="14"/>
@@ -15473,7 +15473,7 @@
       <c r="C630" s="18">
         <v>1</v>
       </c>
-      <c r="D630" s="31" t="s">
+      <c r="D630" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E630" s="14"/>
@@ -15492,7 +15492,7 @@
       <c r="C631" s="18">
         <v>1</v>
       </c>
-      <c r="D631" s="31" t="s">
+      <c r="D631" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E631" s="14"/>
@@ -15511,7 +15511,7 @@
       <c r="C632" s="18">
         <v>1</v>
       </c>
-      <c r="D632" s="31" t="s">
+      <c r="D632" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E632" s="14"/>
@@ -15530,7 +15530,7 @@
       <c r="C633" s="18">
         <v>1</v>
       </c>
-      <c r="D633" s="31" t="s">
+      <c r="D633" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E633" s="14"/>
@@ -15549,7 +15549,7 @@
       <c r="C634" s="18">
         <v>1</v>
       </c>
-      <c r="D634" s="31" t="s">
+      <c r="D634" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E634" s="14"/>
@@ -15568,7 +15568,7 @@
       <c r="C635" s="18">
         <v>1</v>
       </c>
-      <c r="D635" s="31" t="s">
+      <c r="D635" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E635" s="14"/>
@@ -15587,7 +15587,7 @@
       <c r="C636" s="18">
         <v>1</v>
       </c>
-      <c r="D636" s="31" t="s">
+      <c r="D636" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E636" s="14"/>
@@ -15606,7 +15606,7 @@
       <c r="C637" s="18">
         <v>1</v>
       </c>
-      <c r="D637" s="31" t="s">
+      <c r="D637" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E637" s="14"/>
@@ -15625,7 +15625,7 @@
       <c r="C638" s="18">
         <v>1</v>
       </c>
-      <c r="D638" s="31" t="s">
+      <c r="D638" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E638" s="14"/>
@@ -15644,7 +15644,7 @@
       <c r="C639" s="18">
         <v>1</v>
       </c>
-      <c r="D639" s="31" t="s">
+      <c r="D639" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E639" s="14"/>
@@ -15663,7 +15663,7 @@
       <c r="C640" s="18">
         <v>1</v>
       </c>
-      <c r="D640" s="31" t="s">
+      <c r="D640" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E640" s="14"/>
@@ -15682,7 +15682,7 @@
       <c r="C641" s="18">
         <v>1</v>
       </c>
-      <c r="D641" s="31" t="s">
+      <c r="D641" s="32" t="s">
         <v>935</v>
       </c>
       <c r="E641" s="14"/>
@@ -15701,7 +15701,7 @@
       <c r="C642" s="18">
         <v>1</v>
       </c>
-      <c r="D642" s="31" t="s">
+      <c r="D642" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E642" s="14"/>
@@ -15720,7 +15720,7 @@
       <c r="C643" s="18">
         <v>1</v>
       </c>
-      <c r="D643" s="31" t="s">
+      <c r="D643" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E643" s="14"/>
@@ -15739,7 +15739,7 @@
       <c r="C644" s="18">
         <v>1</v>
       </c>
-      <c r="D644" s="31" t="s">
+      <c r="D644" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E644" s="14"/>
@@ -15758,7 +15758,7 @@
       <c r="C645" s="18">
         <v>1</v>
       </c>
-      <c r="D645" s="31" t="s">
+      <c r="D645" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E645" s="14"/>
@@ -15777,7 +15777,7 @@
       <c r="C646" s="18">
         <v>1</v>
       </c>
-      <c r="D646" s="31" t="s">
+      <c r="D646" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E646" s="14"/>
@@ -15796,7 +15796,7 @@
       <c r="C647" s="18">
         <v>1</v>
       </c>
-      <c r="D647" s="31" t="s">
+      <c r="D647" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E647" s="14"/>
@@ -15815,7 +15815,7 @@
       <c r="C648" s="18">
         <v>1</v>
       </c>
-      <c r="D648" s="31" t="s">
+      <c r="D648" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E648" s="14"/>
@@ -15834,7 +15834,7 @@
       <c r="C649" s="18">
         <v>1</v>
       </c>
-      <c r="D649" s="31" t="s">
+      <c r="D649" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E649" s="14"/>
@@ -15853,7 +15853,7 @@
       <c r="C650" s="18">
         <v>1</v>
       </c>
-      <c r="D650" s="31" t="s">
+      <c r="D650" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E650" s="14"/>
@@ -15872,7 +15872,7 @@
       <c r="C651" s="18">
         <v>1</v>
       </c>
-      <c r="D651" s="31" t="s">
+      <c r="D651" s="32" t="s">
         <v>935</v>
       </c>
       <c r="E651" s="14"/>
@@ -15891,7 +15891,7 @@
       <c r="C652" s="18">
         <v>1</v>
       </c>
-      <c r="D652" s="31" t="s">
+      <c r="D652" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E652" s="14"/>
@@ -15910,7 +15910,7 @@
       <c r="C653" s="18">
         <v>1</v>
       </c>
-      <c r="D653" s="31" t="s">
+      <c r="D653" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E653" s="14"/>
@@ -15929,7 +15929,7 @@
       <c r="C654" s="18">
         <v>1</v>
       </c>
-      <c r="D654" s="31" t="s">
+      <c r="D654" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E654" s="14"/>
@@ -15948,7 +15948,7 @@
       <c r="C655" s="18">
         <v>1</v>
       </c>
-      <c r="D655" s="31" t="s">
+      <c r="D655" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E655" s="14"/>
@@ -15967,7 +15967,7 @@
       <c r="C656" s="18">
         <v>1</v>
       </c>
-      <c r="D656" s="31" t="s">
+      <c r="D656" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E656" s="14"/>
@@ -15986,7 +15986,7 @@
       <c r="C657" s="18">
         <v>1</v>
       </c>
-      <c r="D657" s="31" t="s">
+      <c r="D657" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E657" s="14"/>
@@ -16005,7 +16005,7 @@
       <c r="C658" s="18">
         <v>1</v>
       </c>
-      <c r="D658" s="31" t="s">
+      <c r="D658" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E658" s="14"/>
@@ -16024,7 +16024,7 @@
       <c r="C659" s="18">
         <v>1</v>
       </c>
-      <c r="D659" s="31" t="s">
+      <c r="D659" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E659" s="14"/>
@@ -16043,7 +16043,7 @@
       <c r="C660" s="18">
         <v>1</v>
       </c>
-      <c r="D660" s="31" t="s">
+      <c r="D660" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E660" s="14"/>
@@ -16062,7 +16062,7 @@
       <c r="C661" s="18">
         <v>1</v>
       </c>
-      <c r="D661" s="31" t="s">
+      <c r="D661" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E661" s="14"/>
@@ -16081,7 +16081,7 @@
       <c r="C662" s="18">
         <v>1</v>
       </c>
-      <c r="D662" s="31" t="s">
+      <c r="D662" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E662" s="14"/>
@@ -16100,7 +16100,7 @@
       <c r="C663" s="18">
         <v>1</v>
       </c>
-      <c r="D663" s="31" t="s">
+      <c r="D663" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E663" s="14"/>
@@ -16119,7 +16119,7 @@
       <c r="C664" s="18">
         <v>1</v>
       </c>
-      <c r="D664" s="31" t="s">
+      <c r="D664" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E664" s="14"/>
@@ -16138,7 +16138,7 @@
       <c r="C665" s="18">
         <v>1</v>
       </c>
-      <c r="D665" s="31" t="s">
+      <c r="D665" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E665" s="14"/>
@@ -16157,7 +16157,7 @@
       <c r="C666" s="18">
         <v>1</v>
       </c>
-      <c r="D666" s="31" t="s">
+      <c r="D666" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E666" s="14"/>
@@ -16176,7 +16176,7 @@
       <c r="C667" s="18">
         <v>1</v>
       </c>
-      <c r="D667" s="31" t="s">
+      <c r="D667" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E667" s="14"/>
@@ -16195,7 +16195,7 @@
       <c r="C668" s="18">
         <v>1</v>
       </c>
-      <c r="D668" s="31" t="s">
+      <c r="D668" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E668" s="14"/>
@@ -16214,7 +16214,7 @@
       <c r="C669" s="18">
         <v>1</v>
       </c>
-      <c r="D669" s="31" t="s">
+      <c r="D669" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E669" s="14"/>
@@ -16233,7 +16233,7 @@
       <c r="C670" s="18">
         <v>1</v>
       </c>
-      <c r="D670" s="31" t="s">
+      <c r="D670" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E670" s="14"/>
@@ -16252,7 +16252,7 @@
       <c r="C671" s="18">
         <v>1</v>
       </c>
-      <c r="D671" s="31" t="s">
+      <c r="D671" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E671" s="14"/>
@@ -16271,7 +16271,7 @@
       <c r="C672" s="18">
         <v>1</v>
       </c>
-      <c r="D672" s="31" t="s">
+      <c r="D672" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E672" s="14"/>
@@ -16290,7 +16290,7 @@
       <c r="C673" s="18">
         <v>1</v>
       </c>
-      <c r="D673" s="31" t="s">
+      <c r="D673" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E673" s="14"/>
@@ -16309,7 +16309,7 @@
       <c r="C674" s="18">
         <v>1</v>
       </c>
-      <c r="D674" s="31" t="s">
+      <c r="D674" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E674" s="14"/>
@@ -16328,7 +16328,7 @@
       <c r="C675" s="18">
         <v>1</v>
       </c>
-      <c r="D675" s="31" t="s">
+      <c r="D675" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E675" s="14"/>
@@ -16347,7 +16347,7 @@
       <c r="C676" s="18">
         <v>1</v>
       </c>
-      <c r="D676" s="31" t="s">
+      <c r="D676" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E676" s="14"/>
@@ -16366,7 +16366,7 @@
       <c r="C677" s="18">
         <v>1</v>
       </c>
-      <c r="D677" s="31" t="s">
+      <c r="D677" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E677" s="14"/>
@@ -16385,7 +16385,7 @@
       <c r="C678" s="18">
         <v>1</v>
       </c>
-      <c r="D678" s="31" t="s">
+      <c r="D678" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E678" s="14"/>
@@ -16404,7 +16404,7 @@
       <c r="C679" s="18">
         <v>1</v>
       </c>
-      <c r="D679" s="31" t="s">
+      <c r="D679" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E679" s="14"/>
@@ -16423,7 +16423,7 @@
       <c r="C680" s="18">
         <v>1</v>
       </c>
-      <c r="D680" s="31" t="s">
+      <c r="D680" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E680" s="14"/>
@@ -16442,7 +16442,7 @@
       <c r="C681" s="18">
         <v>1</v>
       </c>
-      <c r="D681" s="31" t="s">
+      <c r="D681" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E681" s="14"/>
@@ -16461,7 +16461,7 @@
       <c r="C682" s="18">
         <v>1</v>
       </c>
-      <c r="D682" s="31" t="s">
+      <c r="D682" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E682" s="14"/>
@@ -16480,7 +16480,7 @@
       <c r="C683" s="18">
         <v>1</v>
       </c>
-      <c r="D683" s="31" t="s">
+      <c r="D683" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E683" s="14"/>
@@ -16499,7 +16499,7 @@
       <c r="C684" s="18">
         <v>1</v>
       </c>
-      <c r="D684" s="31" t="s">
+      <c r="D684" s="32" t="s">
         <v>935</v>
       </c>
       <c r="E684" s="14"/>
@@ -16518,7 +16518,7 @@
       <c r="C685" s="18">
         <v>1</v>
       </c>
-      <c r="D685" s="31" t="s">
+      <c r="D685" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E685" s="14"/>
@@ -16537,7 +16537,7 @@
       <c r="C686" s="18">
         <v>1</v>
       </c>
-      <c r="D686" s="31" t="s">
+      <c r="D686" s="32" t="s">
         <v>936</v>
       </c>
       <c r="E686" s="14"/>
@@ -16556,7 +16556,7 @@
       <c r="C687" s="18">
         <v>1</v>
       </c>
-      <c r="D687" s="31" t="s">
+      <c r="D687" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E687" s="14"/>
@@ -16575,7 +16575,7 @@
       <c r="C688" s="18">
         <v>1</v>
       </c>
-      <c r="D688" s="31" t="s">
+      <c r="D688" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E688" s="14"/>
@@ -16594,7 +16594,7 @@
       <c r="C689" s="18">
         <v>1</v>
       </c>
-      <c r="D689" s="31" t="s">
+      <c r="D689" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E689" s="14"/>
@@ -16613,7 +16613,7 @@
       <c r="C690" s="18">
         <v>1</v>
       </c>
-      <c r="D690" s="31" t="s">
+      <c r="D690" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E690" s="14"/>
@@ -16632,7 +16632,7 @@
       <c r="C691" s="18">
         <v>1</v>
       </c>
-      <c r="D691" s="31" t="s">
+      <c r="D691" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E691" s="14"/>
@@ -16651,7 +16651,7 @@
       <c r="C692" s="18">
         <v>1</v>
       </c>
-      <c r="D692" s="31" t="s">
+      <c r="D692" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E692" s="14"/>
@@ -16670,7 +16670,7 @@
       <c r="C693" s="18">
         <v>1</v>
       </c>
-      <c r="D693" s="31" t="s">
+      <c r="D693" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E693" s="14"/>
@@ -16689,7 +16689,7 @@
       <c r="C694" s="18">
         <v>1</v>
       </c>
-      <c r="D694" s="31" t="s">
+      <c r="D694" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E694" s="14"/>
@@ -16708,7 +16708,7 @@
       <c r="C695" s="18">
         <v>1</v>
       </c>
-      <c r="D695" s="31" t="s">
+      <c r="D695" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E695" s="14"/>
@@ -16727,7 +16727,7 @@
       <c r="C696" s="18">
         <v>1</v>
       </c>
-      <c r="D696" s="31" t="s">
+      <c r="D696" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E696" s="14"/>
@@ -16746,7 +16746,7 @@
       <c r="C697" s="18">
         <v>1</v>
       </c>
-      <c r="D697" s="31" t="s">
+      <c r="D697" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E697" s="14"/>
@@ -16765,7 +16765,7 @@
       <c r="C698" s="18">
         <v>1</v>
       </c>
-      <c r="D698" s="31" t="s">
+      <c r="D698" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E698" s="14"/>
@@ -16784,7 +16784,7 @@
       <c r="C699" s="18">
         <v>1</v>
       </c>
-      <c r="D699" s="31" t="s">
+      <c r="D699" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E699" s="14"/>
@@ -16803,7 +16803,7 @@
       <c r="C700" s="18">
         <v>1</v>
       </c>
-      <c r="D700" s="31" t="s">
+      <c r="D700" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E700" s="14"/>
@@ -16822,7 +16822,7 @@
       <c r="C701" s="18">
         <v>1</v>
       </c>
-      <c r="D701" s="31" t="s">
+      <c r="D701" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E701" s="14"/>
@@ -16841,7 +16841,7 @@
       <c r="C702" s="18">
         <v>1</v>
       </c>
-      <c r="D702" s="31" t="s">
+      <c r="D702" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E702" s="14"/>
@@ -16860,7 +16860,7 @@
       <c r="C703" s="18">
         <v>1</v>
       </c>
-      <c r="D703" s="31" t="s">
+      <c r="D703" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E703" s="14"/>
@@ -16879,7 +16879,7 @@
       <c r="C704" s="18">
         <v>1</v>
       </c>
-      <c r="D704" s="31" t="s">
+      <c r="D704" s="32" t="s">
         <v>937</v>
       </c>
       <c r="E704" s="14"/>
@@ -16898,7 +16898,7 @@
       <c r="C705" s="18">
         <v>1</v>
       </c>
-      <c r="D705" s="31" t="s">
+      <c r="D705" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E705" s="14"/>
@@ -16917,7 +16917,7 @@
       <c r="C706" s="18">
         <v>1</v>
       </c>
-      <c r="D706" s="31" t="s">
+      <c r="D706" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E706" s="14"/>
@@ -16936,7 +16936,7 @@
       <c r="C707" s="18">
         <v>1</v>
       </c>
-      <c r="D707" s="31" t="s">
+      <c r="D707" s="32" t="s">
         <v>936</v>
       </c>
       <c r="E707" s="14"/>
@@ -16955,7 +16955,7 @@
       <c r="C708" s="18">
         <v>1</v>
       </c>
-      <c r="D708" s="31" t="s">
+      <c r="D708" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E708" s="14"/>
@@ -16974,7 +16974,7 @@
       <c r="C709" s="18">
         <v>1</v>
       </c>
-      <c r="D709" s="31" t="s">
+      <c r="D709" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E709" s="14"/>
@@ -16993,7 +16993,7 @@
       <c r="C710" s="18">
         <v>1</v>
       </c>
-      <c r="D710" s="31" t="s">
+      <c r="D710" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E710" s="14"/>
@@ -17012,7 +17012,7 @@
       <c r="C711" s="18">
         <v>1</v>
       </c>
-      <c r="D711" s="31" t="s">
+      <c r="D711" s="32" t="s">
         <v>935</v>
       </c>
       <c r="E711" s="14"/>
@@ -17031,7 +17031,7 @@
       <c r="C712" s="18">
         <v>1</v>
       </c>
-      <c r="D712" s="31" t="s">
+      <c r="D712" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E712" s="14"/>
@@ -17050,7 +17050,7 @@
       <c r="C713" s="18">
         <v>1</v>
       </c>
-      <c r="D713" s="31" t="s">
+      <c r="D713" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E713" s="14"/>
@@ -17069,7 +17069,7 @@
       <c r="C714" s="18">
         <v>1</v>
       </c>
-      <c r="D714" s="31" t="s">
+      <c r="D714" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E714" s="14"/>
@@ -17088,7 +17088,7 @@
       <c r="C715" s="18">
         <v>1</v>
       </c>
-      <c r="D715" s="31" t="s">
+      <c r="D715" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E715" s="14"/>
@@ -17107,7 +17107,7 @@
       <c r="C716" s="18">
         <v>1</v>
       </c>
-      <c r="D716" s="31" t="s">
+      <c r="D716" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E716" s="14"/>
@@ -17126,7 +17126,7 @@
       <c r="C717" s="18">
         <v>1</v>
       </c>
-      <c r="D717" s="31" t="s">
+      <c r="D717" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E717" s="14"/>
@@ -17145,7 +17145,7 @@
       <c r="C718" s="18">
         <v>1</v>
       </c>
-      <c r="D718" s="31" t="s">
+      <c r="D718" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E718" s="14"/>
@@ -17164,7 +17164,7 @@
       <c r="C719" s="18">
         <v>1</v>
       </c>
-      <c r="D719" s="31" t="s">
+      <c r="D719" s="32" t="s">
         <v>935</v>
       </c>
       <c r="E719" s="14"/>
@@ -17183,7 +17183,7 @@
       <c r="C720" s="18">
         <v>1</v>
       </c>
-      <c r="D720" s="31" t="s">
+      <c r="D720" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E720" s="14"/>
@@ -17202,7 +17202,7 @@
       <c r="C721" s="18">
         <v>1</v>
       </c>
-      <c r="D721" s="31" t="s">
+      <c r="D721" s="32" t="s">
         <v>937</v>
       </c>
       <c r="E721" s="14"/>
@@ -17221,7 +17221,7 @@
       <c r="C722" s="18">
         <v>1</v>
       </c>
-      <c r="D722" s="31" t="s">
+      <c r="D722" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E722" s="14"/>
@@ -17240,7 +17240,7 @@
       <c r="C723" s="18">
         <v>1</v>
       </c>
-      <c r="D723" s="31" t="s">
+      <c r="D723" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E723" s="14"/>
@@ -17259,7 +17259,7 @@
       <c r="C724" s="18">
         <v>1</v>
       </c>
-      <c r="D724" s="31" t="s">
+      <c r="D724" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E724" s="14"/>
@@ -17278,7 +17278,7 @@
       <c r="C725" s="18">
         <v>1</v>
       </c>
-      <c r="D725" s="31" t="s">
+      <c r="D725" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E725" s="14"/>
@@ -17297,7 +17297,7 @@
       <c r="C726" s="18">
         <v>1</v>
       </c>
-      <c r="D726" s="31" t="s">
+      <c r="D726" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E726" s="14"/>
@@ -17316,7 +17316,7 @@
       <c r="C727" s="18">
         <v>1</v>
       </c>
-      <c r="D727" s="31" t="s">
+      <c r="D727" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E727" s="14"/>
@@ -17335,7 +17335,7 @@
       <c r="C728" s="18">
         <v>1</v>
       </c>
-      <c r="D728" s="31" t="s">
+      <c r="D728" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E728" s="14"/>
@@ -17354,7 +17354,7 @@
       <c r="C729" s="18">
         <v>1</v>
       </c>
-      <c r="D729" s="31" t="s">
+      <c r="D729" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E729" s="14"/>
@@ -17373,7 +17373,7 @@
       <c r="C730" s="18">
         <v>1</v>
       </c>
-      <c r="D730" s="31" t="s">
+      <c r="D730" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E730" s="14"/>
@@ -17392,7 +17392,7 @@
       <c r="C731" s="18">
         <v>1</v>
       </c>
-      <c r="D731" s="31" t="s">
+      <c r="D731" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E731" s="14"/>
@@ -17411,7 +17411,7 @@
       <c r="C732" s="18">
         <v>1</v>
       </c>
-      <c r="D732" s="31" t="s">
+      <c r="D732" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E732" s="14"/>
@@ -17430,7 +17430,7 @@
       <c r="C733" s="18">
         <v>1</v>
       </c>
-      <c r="D733" s="31" t="s">
+      <c r="D733" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E733" s="14"/>
@@ -17449,7 +17449,7 @@
       <c r="C734" s="18">
         <v>1</v>
       </c>
-      <c r="D734" s="31" t="s">
+      <c r="D734" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E734" s="14"/>
@@ -17468,7 +17468,7 @@
       <c r="C735" s="18">
         <v>1</v>
       </c>
-      <c r="D735" s="31" t="s">
+      <c r="D735" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E735" s="14"/>
@@ -17487,7 +17487,7 @@
       <c r="C736" s="18">
         <v>1</v>
       </c>
-      <c r="D736" s="31" t="s">
+      <c r="D736" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E736" s="14"/>
@@ -17506,7 +17506,7 @@
       <c r="C737" s="18">
         <v>1</v>
       </c>
-      <c r="D737" s="31" t="s">
+      <c r="D737" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E737" s="14"/>
@@ -17525,7 +17525,7 @@
       <c r="C738" s="18">
         <v>1</v>
       </c>
-      <c r="D738" s="31" t="s">
+      <c r="D738" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E738" s="14"/>
@@ -17544,7 +17544,7 @@
       <c r="C739" s="18">
         <v>1</v>
       </c>
-      <c r="D739" s="31" t="s">
+      <c r="D739" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E739" s="14"/>
@@ -17563,7 +17563,7 @@
       <c r="C740" s="18">
         <v>1</v>
       </c>
-      <c r="D740" s="31" t="s">
+      <c r="D740" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E740" s="14"/>
@@ -17582,7 +17582,7 @@
       <c r="C741" s="18">
         <v>1</v>
       </c>
-      <c r="D741" s="31" t="s">
+      <c r="D741" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E741" s="14"/>
@@ -17601,7 +17601,7 @@
       <c r="C742" s="18">
         <v>1</v>
       </c>
-      <c r="D742" s="31" t="s">
+      <c r="D742" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E742" s="14"/>
@@ -17620,7 +17620,7 @@
       <c r="C743" s="18">
         <v>1</v>
       </c>
-      <c r="D743" s="31" t="s">
+      <c r="D743" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E743" s="14"/>
@@ -17639,7 +17639,7 @@
       <c r="C744" s="18">
         <v>1</v>
       </c>
-      <c r="D744" s="31" t="s">
+      <c r="D744" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E744" s="14"/>
@@ -17658,7 +17658,7 @@
       <c r="C745" s="18">
         <v>1</v>
       </c>
-      <c r="D745" s="31" t="s">
+      <c r="D745" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E745" s="14"/>
@@ -17677,7 +17677,7 @@
       <c r="C746" s="18">
         <v>1</v>
       </c>
-      <c r="D746" s="31" t="s">
+      <c r="D746" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E746" s="14"/>
@@ -17696,7 +17696,7 @@
       <c r="C747" s="18">
         <v>1</v>
       </c>
-      <c r="D747" s="31" t="s">
+      <c r="D747" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E747" s="14"/>
@@ -17715,7 +17715,7 @@
       <c r="C748" s="18">
         <v>1</v>
       </c>
-      <c r="D748" s="31" t="s">
+      <c r="D748" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E748" s="14"/>
@@ -17734,7 +17734,7 @@
       <c r="C749" s="18">
         <v>1</v>
       </c>
-      <c r="D749" s="31" t="s">
+      <c r="D749" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E749" s="14"/>
@@ -17753,7 +17753,7 @@
       <c r="C750" s="18">
         <v>1</v>
       </c>
-      <c r="D750" s="31" t="s">
+      <c r="D750" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E750" s="14"/>
@@ -17772,7 +17772,7 @@
       <c r="C751" s="18">
         <v>1</v>
       </c>
-      <c r="D751" s="31" t="s">
+      <c r="D751" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E751" s="14"/>
@@ -17791,7 +17791,7 @@
       <c r="C752" s="18">
         <v>1</v>
       </c>
-      <c r="D752" s="31" t="s">
+      <c r="D752" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E752" s="14"/>
@@ -17810,7 +17810,7 @@
       <c r="C753" s="18">
         <v>1</v>
       </c>
-      <c r="D753" s="31" t="s">
+      <c r="D753" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E753" s="14"/>
@@ -17829,7 +17829,7 @@
       <c r="C754" s="18">
         <v>1</v>
       </c>
-      <c r="D754" s="31" t="s">
+      <c r="D754" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E754" s="14"/>
@@ -17848,7 +17848,7 @@
       <c r="C755" s="18">
         <v>1</v>
       </c>
-      <c r="D755" s="31" t="s">
+      <c r="D755" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E755" s="14"/>
@@ -17867,7 +17867,7 @@
       <c r="C756" s="18">
         <v>1</v>
       </c>
-      <c r="D756" s="31" t="s">
+      <c r="D756" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E756" s="14"/>
@@ -17886,7 +17886,7 @@
       <c r="C757" s="18">
         <v>1</v>
       </c>
-      <c r="D757" s="31" t="s">
+      <c r="D757" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E757" s="14"/>
@@ -17905,7 +17905,7 @@
       <c r="C758" s="18">
         <v>1</v>
       </c>
-      <c r="D758" s="31" t="s">
+      <c r="D758" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E758" s="14"/>
@@ -17924,7 +17924,7 @@
       <c r="C759" s="18">
         <v>1</v>
       </c>
-      <c r="D759" s="31" t="s">
+      <c r="D759" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E759" s="14"/>
@@ -17943,7 +17943,7 @@
       <c r="C760" s="18">
         <v>1</v>
       </c>
-      <c r="D760" s="31" t="s">
+      <c r="D760" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E760" s="14"/>
@@ -17962,7 +17962,7 @@
       <c r="C761" s="18">
         <v>1</v>
       </c>
-      <c r="D761" s="31" t="s">
+      <c r="D761" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E761" s="14"/>
@@ -17981,7 +17981,7 @@
       <c r="C762" s="18">
         <v>1</v>
       </c>
-      <c r="D762" s="31" t="s">
+      <c r="D762" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E762" s="14"/>
@@ -18000,7 +18000,7 @@
       <c r="C763" s="18">
         <v>1</v>
       </c>
-      <c r="D763" s="31" t="s">
+      <c r="D763" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E763" s="14"/>
@@ -18019,7 +18019,7 @@
       <c r="C764" s="18">
         <v>1</v>
       </c>
-      <c r="D764" s="31" t="s">
+      <c r="D764" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E764" s="14"/>
@@ -18038,7 +18038,7 @@
       <c r="C765" s="18">
         <v>1</v>
       </c>
-      <c r="D765" s="31" t="s">
+      <c r="D765" s="32" t="s">
         <v>937</v>
       </c>
       <c r="E765" s="14"/>
@@ -18057,7 +18057,7 @@
       <c r="C766" s="18">
         <v>1</v>
       </c>
-      <c r="D766" s="31" t="s">
+      <c r="D766" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E766" s="14"/>
@@ -18076,7 +18076,7 @@
       <c r="C767" s="18">
         <v>1</v>
       </c>
-      <c r="D767" s="31" t="s">
+      <c r="D767" s="32" t="s">
         <v>936</v>
       </c>
       <c r="E767" s="14"/>
@@ -18095,7 +18095,7 @@
       <c r="C768" s="18">
         <v>1</v>
       </c>
-      <c r="D768" s="31" t="s">
+      <c r="D768" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E768" s="14"/>
@@ -18114,7 +18114,7 @@
       <c r="C769" s="18">
         <v>1</v>
       </c>
-      <c r="D769" s="31" t="s">
+      <c r="D769" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E769" s="14"/>
@@ -18133,7 +18133,7 @@
       <c r="C770" s="18">
         <v>1</v>
       </c>
-      <c r="D770" s="31" t="s">
+      <c r="D770" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E770" s="14"/>
@@ -18152,7 +18152,7 @@
       <c r="C771" s="18">
         <v>1</v>
       </c>
-      <c r="D771" s="31" t="s">
+      <c r="D771" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E771" s="14"/>
@@ -18171,7 +18171,7 @@
       <c r="C772" s="18">
         <v>1</v>
       </c>
-      <c r="D772" s="31" t="s">
+      <c r="D772" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E772" s="14"/>
@@ -18190,7 +18190,7 @@
       <c r="C773" s="18">
         <v>1</v>
       </c>
-      <c r="D773" s="31" t="s">
+      <c r="D773" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E773" s="14"/>
@@ -18209,7 +18209,7 @@
       <c r="C774" s="18">
         <v>1</v>
       </c>
-      <c r="D774" s="31" t="s">
+      <c r="D774" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E774" s="14"/>
@@ -18228,7 +18228,7 @@
       <c r="C775" s="18">
         <v>1</v>
       </c>
-      <c r="D775" s="31" t="s">
+      <c r="D775" s="32" t="s">
         <v>937</v>
       </c>
       <c r="E775" s="14"/>
@@ -18247,7 +18247,7 @@
       <c r="C776" s="18">
         <v>1</v>
       </c>
-      <c r="D776" s="31" t="s">
+      <c r="D776" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E776" s="14"/>
@@ -18266,7 +18266,7 @@
       <c r="C777" s="18">
         <v>1</v>
       </c>
-      <c r="D777" s="31" t="s">
+      <c r="D777" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E777" s="14"/>
@@ -18285,7 +18285,7 @@
       <c r="C778" s="18">
         <v>1</v>
       </c>
-      <c r="D778" s="31" t="s">
+      <c r="D778" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E778" s="14"/>
@@ -18304,7 +18304,7 @@
       <c r="C779" s="18">
         <v>1</v>
       </c>
-      <c r="D779" s="31" t="s">
+      <c r="D779" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E779" s="14"/>
@@ -18323,7 +18323,7 @@
       <c r="C780" s="18">
         <v>1</v>
       </c>
-      <c r="D780" s="31" t="s">
+      <c r="D780" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E780" s="14"/>
@@ -18342,7 +18342,7 @@
       <c r="C781" s="18">
         <v>1</v>
       </c>
-      <c r="D781" s="31" t="s">
+      <c r="D781" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E781" s="14"/>
@@ -18361,7 +18361,7 @@
       <c r="C782" s="18">
         <v>1</v>
       </c>
-      <c r="D782" s="31" t="s">
+      <c r="D782" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E782" s="14"/>
@@ -18380,7 +18380,7 @@
       <c r="C783" s="18">
         <v>1</v>
       </c>
-      <c r="D783" s="31" t="s">
+      <c r="D783" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E783" s="14"/>
@@ -18399,7 +18399,7 @@
       <c r="C784" s="18">
         <v>1</v>
       </c>
-      <c r="D784" s="31" t="s">
+      <c r="D784" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E784" s="14"/>
@@ -18418,7 +18418,7 @@
       <c r="C785" s="18">
         <v>1</v>
       </c>
-      <c r="D785" s="31" t="s">
+      <c r="D785" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E785" s="14"/>
@@ -18437,7 +18437,7 @@
       <c r="C786" s="18">
         <v>1</v>
       </c>
-      <c r="D786" s="31" t="s">
+      <c r="D786" s="32" t="s">
         <v>935</v>
       </c>
       <c r="E786" s="14"/>
@@ -18456,7 +18456,7 @@
       <c r="C787" s="18">
         <v>1</v>
       </c>
-      <c r="D787" s="31" t="s">
+      <c r="D787" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E787" s="14"/>
@@ -18475,7 +18475,7 @@
       <c r="C788" s="18">
         <v>1</v>
       </c>
-      <c r="D788" s="31" t="s">
+      <c r="D788" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E788" s="14"/>
@@ -18494,7 +18494,7 @@
       <c r="C789" s="18">
         <v>1</v>
       </c>
-      <c r="D789" s="31" t="s">
+      <c r="D789" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E789" s="14"/>
@@ -18513,7 +18513,7 @@
       <c r="C790" s="18">
         <v>1</v>
       </c>
-      <c r="D790" s="31" t="s">
+      <c r="D790" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E790" s="14"/>
@@ -18532,7 +18532,7 @@
       <c r="C791" s="18">
         <v>1</v>
       </c>
-      <c r="D791" s="31" t="s">
+      <c r="D791" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E791" s="14"/>
@@ -18551,7 +18551,7 @@
       <c r="C792" s="18">
         <v>1</v>
       </c>
-      <c r="D792" s="31" t="s">
+      <c r="D792" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E792" s="14"/>
@@ -18570,7 +18570,7 @@
       <c r="C793" s="18">
         <v>1</v>
       </c>
-      <c r="D793" s="31" t="s">
+      <c r="D793" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E793" s="14"/>
@@ -18589,7 +18589,7 @@
       <c r="C794" s="18">
         <v>1</v>
       </c>
-      <c r="D794" s="31" t="s">
+      <c r="D794" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E794" s="14"/>
@@ -18608,7 +18608,7 @@
       <c r="C795" s="18">
         <v>1</v>
       </c>
-      <c r="D795" s="31" t="s">
+      <c r="D795" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E795" s="14"/>
@@ -18627,7 +18627,7 @@
       <c r="C796" s="18">
         <v>1</v>
       </c>
-      <c r="D796" s="31" t="s">
+      <c r="D796" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E796" s="14"/>
@@ -18646,7 +18646,7 @@
       <c r="C797" s="18">
         <v>1</v>
       </c>
-      <c r="D797" s="31" t="s">
+      <c r="D797" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E797" s="14"/>
@@ -18665,7 +18665,7 @@
       <c r="C798" s="18">
         <v>1</v>
       </c>
-      <c r="D798" s="31" t="s">
+      <c r="D798" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E798" s="14"/>
@@ -18684,7 +18684,7 @@
       <c r="C799" s="18">
         <v>1</v>
       </c>
-      <c r="D799" s="31" t="s">
+      <c r="D799" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E799" s="14"/>
@@ -18703,7 +18703,7 @@
       <c r="C800" s="18">
         <v>1</v>
       </c>
-      <c r="D800" s="31" t="s">
+      <c r="D800" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E800" s="14"/>
@@ -18722,7 +18722,7 @@
       <c r="C801" s="18">
         <v>1</v>
       </c>
-      <c r="D801" s="31" t="s">
+      <c r="D801" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E801" s="14"/>
@@ -18741,7 +18741,7 @@
       <c r="C802" s="18">
         <v>1</v>
       </c>
-      <c r="D802" s="31" t="s">
+      <c r="D802" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E802" s="14"/>
@@ -18760,7 +18760,7 @@
       <c r="C803" s="18">
         <v>1</v>
       </c>
-      <c r="D803" s="31" t="s">
+      <c r="D803" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E803" s="14"/>
@@ -18779,7 +18779,7 @@
       <c r="C804" s="18">
         <v>1</v>
       </c>
-      <c r="D804" s="31" t="s">
+      <c r="D804" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E804" s="14"/>
@@ -18798,7 +18798,7 @@
       <c r="C805" s="18">
         <v>1</v>
       </c>
-      <c r="D805" s="31" t="s">
+      <c r="D805" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E805" s="14"/>
@@ -18817,7 +18817,7 @@
       <c r="C806" s="18">
         <v>1</v>
       </c>
-      <c r="D806" s="31" t="s">
+      <c r="D806" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E806" s="14"/>
@@ -18836,7 +18836,7 @@
       <c r="C807" s="18">
         <v>1</v>
       </c>
-      <c r="D807" s="31" t="s">
+      <c r="D807" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E807" s="14"/>
@@ -18855,7 +18855,7 @@
       <c r="C808" s="18">
         <v>1</v>
       </c>
-      <c r="D808" s="31" t="s">
+      <c r="D808" s="32" t="s">
         <v>938</v>
       </c>
       <c r="E808" s="14"/>
@@ -18874,7 +18874,7 @@
       <c r="C809" s="18">
         <v>1</v>
       </c>
-      <c r="D809" s="31" t="s">
+      <c r="D809" s="32" t="s">
         <v>935</v>
       </c>
       <c r="E809" s="14"/>
@@ -18893,7 +18893,7 @@
       <c r="C810" s="18">
         <v>1</v>
       </c>
-      <c r="D810" s="31" t="s">
+      <c r="D810" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E810" s="14"/>
@@ -18912,7 +18912,7 @@
       <c r="C811" s="18">
         <v>1</v>
       </c>
-      <c r="D811" s="31" t="s">
+      <c r="D811" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E811" s="14"/>
@@ -18931,7 +18931,7 @@
       <c r="C812" s="18">
         <v>1</v>
       </c>
-      <c r="D812" s="31" t="s">
+      <c r="D812" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E812" s="14"/>
@@ -18950,7 +18950,7 @@
       <c r="C813" s="18">
         <v>1</v>
       </c>
-      <c r="D813" s="31" t="s">
+      <c r="D813" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E813" s="14"/>
@@ -18969,7 +18969,7 @@
       <c r="C814" s="18">
         <v>1</v>
       </c>
-      <c r="D814" s="31" t="s">
+      <c r="D814" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E814" s="14"/>
@@ -18988,7 +18988,7 @@
       <c r="C815" s="18">
         <v>1</v>
       </c>
-      <c r="D815" s="31" t="s">
+      <c r="D815" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E815" s="14"/>
@@ -19007,7 +19007,7 @@
       <c r="C816" s="18">
         <v>1</v>
       </c>
-      <c r="D816" s="31" t="s">
+      <c r="D816" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E816" s="14"/>
@@ -19026,7 +19026,7 @@
       <c r="C817" s="18">
         <v>1</v>
       </c>
-      <c r="D817" s="31" t="s">
+      <c r="D817" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E817" s="14"/>
@@ -19045,7 +19045,7 @@
       <c r="C818" s="18">
         <v>1</v>
       </c>
-      <c r="D818" s="31" t="s">
+      <c r="D818" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E818" s="14"/>
@@ -19064,7 +19064,7 @@
       <c r="C819" s="18">
         <v>1</v>
       </c>
-      <c r="D819" s="31" t="s">
+      <c r="D819" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E819" s="14"/>
@@ -19083,7 +19083,7 @@
       <c r="C820" s="18">
         <v>1</v>
       </c>
-      <c r="D820" s="31" t="s">
+      <c r="D820" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E820" s="14"/>
@@ -19102,7 +19102,7 @@
       <c r="C821" s="18">
         <v>1</v>
       </c>
-      <c r="D821" s="31" t="s">
+      <c r="D821" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E821" s="14"/>
@@ -19121,7 +19121,7 @@
       <c r="C822" s="18">
         <v>1</v>
       </c>
-      <c r="D822" s="31" t="s">
+      <c r="D822" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E822" s="14"/>
@@ -19140,7 +19140,7 @@
       <c r="C823" s="18">
         <v>1</v>
       </c>
-      <c r="D823" s="31" t="s">
+      <c r="D823" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E823" s="14"/>
@@ -19159,7 +19159,7 @@
       <c r="C824" s="18">
         <v>1</v>
       </c>
-      <c r="D824" s="31" t="s">
+      <c r="D824" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E824" s="14"/>
@@ -19178,7 +19178,7 @@
       <c r="C825" s="18">
         <v>1</v>
       </c>
-      <c r="D825" s="31" t="s">
+      <c r="D825" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E825" s="14"/>
@@ -19197,7 +19197,7 @@
       <c r="C826" s="18">
         <v>1</v>
       </c>
-      <c r="D826" s="31" t="s">
+      <c r="D826" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E826" s="14"/>
@@ -19216,7 +19216,7 @@
       <c r="C827" s="18">
         <v>1</v>
       </c>
-      <c r="D827" s="31" t="s">
+      <c r="D827" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E827" s="14"/>
@@ -19235,7 +19235,7 @@
       <c r="C828" s="18">
         <v>1</v>
       </c>
-      <c r="D828" s="31" t="s">
+      <c r="D828" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E828" s="14"/>
@@ -19254,7 +19254,7 @@
       <c r="C829" s="18">
         <v>1</v>
       </c>
-      <c r="D829" s="31" t="s">
+      <c r="D829" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E829" s="14"/>
@@ -19273,7 +19273,7 @@
       <c r="C830" s="18">
         <v>1</v>
       </c>
-      <c r="D830" s="31" t="s">
+      <c r="D830" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E830" s="14"/>
@@ -19292,7 +19292,7 @@
       <c r="C831" s="18">
         <v>1</v>
       </c>
-      <c r="D831" s="31" t="s">
+      <c r="D831" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E831" s="14"/>
@@ -19311,7 +19311,7 @@
       <c r="C832" s="18">
         <v>1</v>
       </c>
-      <c r="D832" s="31" t="s">
+      <c r="D832" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E832" s="14"/>
@@ -19330,7 +19330,7 @@
       <c r="C833" s="18">
         <v>1</v>
       </c>
-      <c r="D833" s="31" t="s">
+      <c r="D833" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E833" s="14"/>
@@ -19349,7 +19349,7 @@
       <c r="C834" s="18">
         <v>1</v>
       </c>
-      <c r="D834" s="31" t="s">
+      <c r="D834" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E834" s="14"/>
@@ -19368,7 +19368,7 @@
       <c r="C835" s="18">
         <v>1</v>
       </c>
-      <c r="D835" s="31" t="s">
+      <c r="D835" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E835" s="14"/>
@@ -19387,7 +19387,7 @@
       <c r="C836" s="18">
         <v>1</v>
       </c>
-      <c r="D836" s="31" t="s">
+      <c r="D836" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E836" s="14"/>
@@ -19406,7 +19406,7 @@
       <c r="C837" s="18">
         <v>1</v>
       </c>
-      <c r="D837" s="31" t="s">
+      <c r="D837" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E837" s="14"/>
@@ -19425,7 +19425,7 @@
       <c r="C838" s="18">
         <v>1</v>
       </c>
-      <c r="D838" s="31" t="s">
+      <c r="D838" s="32" t="s">
         <v>935</v>
       </c>
       <c r="E838" s="14"/>
@@ -19444,7 +19444,7 @@
       <c r="C839" s="18">
         <v>1</v>
       </c>
-      <c r="D839" s="31" t="s">
+      <c r="D839" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E839" s="14"/>
@@ -19463,7 +19463,7 @@
       <c r="C840" s="18">
         <v>1</v>
       </c>
-      <c r="D840" s="31" t="s">
+      <c r="D840" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E840" s="14"/>
@@ -19482,7 +19482,7 @@
       <c r="C841" s="18">
         <v>1</v>
       </c>
-      <c r="D841" s="31" t="s">
+      <c r="D841" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E841" s="14"/>
@@ -19501,7 +19501,7 @@
       <c r="C842" s="18">
         <v>1</v>
       </c>
-      <c r="D842" s="31" t="s">
+      <c r="D842" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E842" s="14"/>
@@ -19520,7 +19520,7 @@
       <c r="C843" s="18">
         <v>1</v>
       </c>
-      <c r="D843" s="31" t="s">
+      <c r="D843" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E843" s="14"/>
@@ -19539,7 +19539,7 @@
       <c r="C844" s="18">
         <v>1</v>
       </c>
-      <c r="D844" s="31" t="s">
+      <c r="D844" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E844" s="14"/>
@@ -19558,7 +19558,7 @@
       <c r="C845" s="18">
         <v>1</v>
       </c>
-      <c r="D845" s="31" t="s">
+      <c r="D845" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E845" s="14"/>
@@ -19577,7 +19577,7 @@
       <c r="C846" s="18">
         <v>1</v>
       </c>
-      <c r="D846" s="31" t="s">
+      <c r="D846" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E846" s="14"/>
@@ -19596,7 +19596,7 @@
       <c r="C847" s="18">
         <v>1</v>
       </c>
-      <c r="D847" s="31" t="s">
+      <c r="D847" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E847" s="14"/>
@@ -19615,7 +19615,7 @@
       <c r="C848" s="18">
         <v>1</v>
       </c>
-      <c r="D848" s="31" t="s">
+      <c r="D848" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E848" s="14"/>
@@ -19634,7 +19634,7 @@
       <c r="C849" s="18">
         <v>1</v>
       </c>
-      <c r="D849" s="31" t="s">
+      <c r="D849" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E849" s="14"/>
@@ -19653,7 +19653,7 @@
       <c r="C850" s="18">
         <v>1</v>
       </c>
-      <c r="D850" s="31" t="s">
+      <c r="D850" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E850" s="14"/>
@@ -19672,7 +19672,7 @@
       <c r="C851" s="18">
         <v>1</v>
       </c>
-      <c r="D851" s="31" t="s">
+      <c r="D851" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E851" s="14"/>
@@ -19691,7 +19691,7 @@
       <c r="C852" s="18">
         <v>1</v>
       </c>
-      <c r="D852" s="31" t="s">
+      <c r="D852" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E852" s="14"/>
@@ -19710,7 +19710,7 @@
       <c r="C853" s="18">
         <v>1</v>
       </c>
-      <c r="D853" s="31" t="s">
+      <c r="D853" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E853" s="14"/>
@@ -19729,7 +19729,7 @@
       <c r="C854" s="18">
         <v>1</v>
       </c>
-      <c r="D854" s="31" t="s">
+      <c r="D854" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E854" s="14"/>
@@ -19748,7 +19748,7 @@
       <c r="C855" s="18">
         <v>1</v>
       </c>
-      <c r="D855" s="31" t="s">
+      <c r="D855" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E855" s="14"/>
@@ -19767,7 +19767,7 @@
       <c r="C856" s="18">
         <v>1</v>
       </c>
-      <c r="D856" s="31" t="s">
+      <c r="D856" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E856" s="14"/>
@@ -19786,7 +19786,7 @@
       <c r="C857" s="18">
         <v>1</v>
       </c>
-      <c r="D857" s="31" t="s">
+      <c r="D857" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E857" s="14"/>
@@ -19805,7 +19805,7 @@
       <c r="C858" s="18">
         <v>1</v>
       </c>
-      <c r="D858" s="31" t="s">
+      <c r="D858" s="32" t="s">
         <v>936</v>
       </c>
       <c r="E858" s="14"/>
@@ -19824,7 +19824,7 @@
       <c r="C859" s="18">
         <v>1</v>
       </c>
-      <c r="D859" s="31" t="s">
+      <c r="D859" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E859" s="14"/>
@@ -19843,7 +19843,7 @@
       <c r="C860" s="18">
         <v>1</v>
       </c>
-      <c r="D860" s="31" t="s">
+      <c r="D860" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E860" s="14"/>
@@ -19862,7 +19862,7 @@
       <c r="C861" s="18">
         <v>1</v>
       </c>
-      <c r="D861" s="31" t="s">
+      <c r="D861" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E861" s="14"/>
@@ -19881,7 +19881,7 @@
       <c r="C862" s="18">
         <v>1</v>
       </c>
-      <c r="D862" s="31" t="s">
+      <c r="D862" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E862" s="14"/>
@@ -19900,7 +19900,7 @@
       <c r="C863" s="18">
         <v>1</v>
       </c>
-      <c r="D863" s="31" t="s">
+      <c r="D863" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E863" s="14"/>
@@ -19919,7 +19919,7 @@
       <c r="C864" s="18">
         <v>1</v>
       </c>
-      <c r="D864" s="31" t="s">
+      <c r="D864" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E864" s="14"/>
@@ -19938,7 +19938,7 @@
       <c r="C865" s="18">
         <v>1</v>
       </c>
-      <c r="D865" s="31" t="s">
+      <c r="D865" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E865" s="14"/>
@@ -19957,7 +19957,7 @@
       <c r="C866" s="18">
         <v>1</v>
       </c>
-      <c r="D866" s="31" t="s">
+      <c r="D866" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E866" s="14"/>
@@ -19976,7 +19976,7 @@
       <c r="C867" s="18">
         <v>1</v>
       </c>
-      <c r="D867" s="31" t="s">
+      <c r="D867" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E867" s="14"/>
@@ -19995,7 +19995,7 @@
       <c r="C868" s="18">
         <v>1</v>
       </c>
-      <c r="D868" s="31" t="s">
+      <c r="D868" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E868" s="14"/>
@@ -20014,7 +20014,7 @@
       <c r="C869" s="18">
         <v>1</v>
       </c>
-      <c r="D869" s="31" t="s">
+      <c r="D869" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E869" s="14"/>
@@ -20033,7 +20033,7 @@
       <c r="C870" s="18">
         <v>1</v>
       </c>
-      <c r="D870" s="31" t="s">
+      <c r="D870" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E870" s="14"/>
@@ -20052,7 +20052,7 @@
       <c r="C871" s="18">
         <v>1</v>
       </c>
-      <c r="D871" s="31" t="s">
+      <c r="D871" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E871" s="14"/>
@@ -20071,7 +20071,7 @@
       <c r="C872" s="18">
         <v>1</v>
       </c>
-      <c r="D872" s="31" t="s">
+      <c r="D872" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E872" s="14"/>
@@ -20090,7 +20090,7 @@
       <c r="C873" s="18">
         <v>1</v>
       </c>
-      <c r="D873" s="31" t="s">
+      <c r="D873" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E873" s="14"/>
@@ -20109,7 +20109,7 @@
       <c r="C874" s="18">
         <v>1</v>
       </c>
-      <c r="D874" s="31" t="s">
+      <c r="D874" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E874" s="14"/>
@@ -20128,7 +20128,7 @@
       <c r="C875" s="18">
         <v>1</v>
       </c>
-      <c r="D875" s="31" t="s">
+      <c r="D875" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E875" s="14"/>
@@ -20147,7 +20147,7 @@
       <c r="C876" s="18">
         <v>1</v>
       </c>
-      <c r="D876" s="31" t="s">
+      <c r="D876" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E876" s="14"/>
@@ -20166,7 +20166,7 @@
       <c r="C877" s="18">
         <v>1</v>
       </c>
-      <c r="D877" s="31" t="s">
+      <c r="D877" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E877" s="14"/>
@@ -20185,7 +20185,7 @@
       <c r="C878" s="18">
         <v>1</v>
       </c>
-      <c r="D878" s="31" t="s">
+      <c r="D878" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E878" s="14"/>
@@ -20204,7 +20204,7 @@
       <c r="C879" s="18">
         <v>1</v>
       </c>
-      <c r="D879" s="31" t="s">
+      <c r="D879" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E879" s="14"/>
@@ -20223,7 +20223,7 @@
       <c r="C880" s="18">
         <v>1</v>
       </c>
-      <c r="D880" s="31" t="s">
+      <c r="D880" s="32" t="s">
         <v>936</v>
       </c>
       <c r="E880" s="14"/>
@@ -20242,7 +20242,7 @@
       <c r="C881" s="18">
         <v>1</v>
       </c>
-      <c r="D881" s="31" t="s">
+      <c r="D881" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E881" s="14"/>
@@ -20261,7 +20261,7 @@
       <c r="C882" s="18">
         <v>1</v>
       </c>
-      <c r="D882" s="31" t="s">
+      <c r="D882" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E882" s="14"/>
@@ -20280,7 +20280,7 @@
       <c r="C883" s="18">
         <v>1</v>
       </c>
-      <c r="D883" s="31" t="s">
+      <c r="D883" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E883" s="14"/>
@@ -20299,7 +20299,7 @@
       <c r="C884" s="18">
         <v>1</v>
       </c>
-      <c r="D884" s="31" t="s">
+      <c r="D884" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E884" s="14"/>
@@ -20318,7 +20318,7 @@
       <c r="C885" s="18">
         <v>1</v>
       </c>
-      <c r="D885" s="31" t="s">
+      <c r="D885" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E885" s="14"/>
@@ -20337,7 +20337,7 @@
       <c r="C886" s="18">
         <v>1</v>
       </c>
-      <c r="D886" s="31" t="s">
+      <c r="D886" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E886" s="14"/>
@@ -20356,7 +20356,7 @@
       <c r="C887" s="18">
         <v>1</v>
       </c>
-      <c r="D887" s="31" t="s">
+      <c r="D887" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E887" s="14"/>
@@ -20375,7 +20375,7 @@
       <c r="C888" s="18">
         <v>1</v>
       </c>
-      <c r="D888" s="31" t="s">
+      <c r="D888" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E888" s="14"/>
@@ -20394,7 +20394,7 @@
       <c r="C889" s="18">
         <v>1</v>
       </c>
-      <c r="D889" s="31" t="s">
+      <c r="D889" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E889" s="14"/>
@@ -20413,7 +20413,7 @@
       <c r="C890" s="18">
         <v>1</v>
       </c>
-      <c r="D890" s="31" t="s">
+      <c r="D890" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E890" s="14"/>
@@ -20432,7 +20432,7 @@
       <c r="C891" s="18">
         <v>1</v>
       </c>
-      <c r="D891" s="31" t="s">
+      <c r="D891" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E891" s="14"/>
@@ -20451,7 +20451,7 @@
       <c r="C892" s="18">
         <v>1</v>
       </c>
-      <c r="D892" s="31" t="s">
+      <c r="D892" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E892" s="14"/>
@@ -20470,7 +20470,7 @@
       <c r="C893" s="18">
         <v>1</v>
       </c>
-      <c r="D893" s="31" t="s">
+      <c r="D893" s="32" t="s">
         <v>935</v>
       </c>
       <c r="E893" s="14"/>
@@ -20489,7 +20489,7 @@
       <c r="C894" s="18">
         <v>1</v>
       </c>
-      <c r="D894" s="31" t="s">
+      <c r="D894" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E894" s="14"/>
@@ -20508,7 +20508,7 @@
       <c r="C895" s="18">
         <v>1</v>
       </c>
-      <c r="D895" s="31" t="s">
+      <c r="D895" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E895" s="14"/>
@@ -20527,7 +20527,7 @@
       <c r="C896" s="18">
         <v>1</v>
       </c>
-      <c r="D896" s="31" t="s">
+      <c r="D896" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E896" s="14"/>
@@ -20546,7 +20546,7 @@
       <c r="C897" s="18">
         <v>1</v>
       </c>
-      <c r="D897" s="31" t="s">
+      <c r="D897" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E897" s="14"/>
@@ -20565,7 +20565,7 @@
       <c r="C898" s="18">
         <v>1</v>
       </c>
-      <c r="D898" s="31" t="s">
+      <c r="D898" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E898" s="14"/>
@@ -20584,7 +20584,7 @@
       <c r="C899" s="18">
         <v>1</v>
       </c>
-      <c r="D899" s="31" t="s">
+      <c r="D899" s="32" t="s">
         <v>936</v>
       </c>
       <c r="E899" s="14"/>
@@ -20603,7 +20603,7 @@
       <c r="C900" s="18">
         <v>1</v>
       </c>
-      <c r="D900" s="31" t="s">
+      <c r="D900" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E900" s="14"/>
@@ -20622,7 +20622,7 @@
       <c r="C901" s="18">
         <v>1</v>
       </c>
-      <c r="D901" s="31" t="s">
+      <c r="D901" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E901" s="14"/>
@@ -20641,7 +20641,7 @@
       <c r="C902" s="18">
         <v>1</v>
       </c>
-      <c r="D902" s="31" t="s">
+      <c r="D902" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E902" s="14"/>
@@ -20660,7 +20660,7 @@
       <c r="C903" s="18">
         <v>1</v>
       </c>
-      <c r="D903" s="31" t="s">
+      <c r="D903" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E903" s="14"/>
@@ -20679,7 +20679,7 @@
       <c r="C904" s="18">
         <v>1</v>
       </c>
-      <c r="D904" s="31" t="s">
+      <c r="D904" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E904" s="14"/>
@@ -20698,7 +20698,7 @@
       <c r="C905" s="18">
         <v>1</v>
       </c>
-      <c r="D905" s="31" t="s">
+      <c r="D905" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E905" s="14"/>
@@ -20717,7 +20717,7 @@
       <c r="C906" s="18">
         <v>1</v>
       </c>
-      <c r="D906" s="31" t="s">
+      <c r="D906" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E906" s="14"/>
@@ -20736,7 +20736,7 @@
       <c r="C907" s="18">
         <v>1</v>
       </c>
-      <c r="D907" s="31" t="s">
+      <c r="D907" s="32" t="s">
         <v>936</v>
       </c>
       <c r="E907" s="14"/>
@@ -20755,7 +20755,7 @@
       <c r="C908" s="18">
         <v>1</v>
       </c>
-      <c r="D908" s="31" t="s">
+      <c r="D908" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E908" s="14"/>
@@ -20774,7 +20774,7 @@
       <c r="C909" s="18">
         <v>1</v>
       </c>
-      <c r="D909" s="31" t="s">
+      <c r="D909" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E909" s="14"/>
@@ -20793,7 +20793,7 @@
       <c r="C910" s="18">
         <v>1</v>
       </c>
-      <c r="D910" s="31" t="s">
+      <c r="D910" s="32" t="s">
         <v>939</v>
       </c>
       <c r="E910" s="14"/>
@@ -20812,7 +20812,7 @@
       <c r="C911" s="18">
         <v>1</v>
       </c>
-      <c r="D911" s="31" t="s">
+      <c r="D911" s="32" t="s">
         <v>936</v>
       </c>
       <c r="E911" s="14"/>
@@ -20831,7 +20831,7 @@
       <c r="C912" s="18">
         <v>1</v>
       </c>
-      <c r="D912" s="31" t="s">
+      <c r="D912" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E912" s="14"/>
@@ -20850,7 +20850,7 @@
       <c r="C913" s="18">
         <v>1</v>
       </c>
-      <c r="D913" s="31" t="s">
+      <c r="D913" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E913" s="14"/>
@@ -20869,7 +20869,7 @@
       <c r="C914" s="18">
         <v>1</v>
       </c>
-      <c r="D914" s="31" t="s">
+      <c r="D914" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E914" s="14"/>
@@ -20888,7 +20888,7 @@
       <c r="C915" s="18">
         <v>1</v>
       </c>
-      <c r="D915" s="31" t="s">
+      <c r="D915" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E915" s="14"/>
@@ -20907,7 +20907,7 @@
       <c r="C916" s="18">
         <v>1</v>
       </c>
-      <c r="D916" s="31" t="s">
+      <c r="D916" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E916" s="14"/>
@@ -20926,7 +20926,7 @@
       <c r="C917" s="18">
         <v>1</v>
       </c>
-      <c r="D917" s="31" t="s">
+      <c r="D917" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E917" s="14"/>
@@ -20945,7 +20945,7 @@
       <c r="C918" s="18">
         <v>1</v>
       </c>
-      <c r="D918" s="31" t="s">
+      <c r="D918" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E918" s="14"/>
@@ -20964,7 +20964,7 @@
       <c r="C919" s="18">
         <v>1</v>
       </c>
-      <c r="D919" s="31" t="s">
+      <c r="D919" s="32" t="s">
         <v>936</v>
       </c>
       <c r="E919" s="14"/>
@@ -20983,7 +20983,7 @@
       <c r="C920" s="18">
         <v>1</v>
       </c>
-      <c r="D920" s="31" t="s">
+      <c r="D920" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E920" s="14"/>
@@ -21002,7 +21002,7 @@
       <c r="C921" s="18">
         <v>1</v>
       </c>
-      <c r="D921" s="31" t="s">
+      <c r="D921" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E921" s="14"/>
@@ -21021,7 +21021,7 @@
       <c r="C922" s="18">
         <v>1</v>
       </c>
-      <c r="D922" s="31" t="s">
+      <c r="D922" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E922" s="14"/>
@@ -21040,7 +21040,7 @@
       <c r="C923" s="18">
         <v>1</v>
       </c>
-      <c r="D923" s="31" t="s">
+      <c r="D923" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E923" s="14"/>
@@ -21059,7 +21059,7 @@
       <c r="C924" s="18">
         <v>1</v>
       </c>
-      <c r="D924" s="31" t="s">
+      <c r="D924" s="32" t="s">
         <v>933</v>
       </c>
       <c r="E924" s="14"/>

--- a/data/breast/breast.xlsx
+++ b/data/breast/breast.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2776" uniqueCount="940">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2777" uniqueCount="941">
   <si>
     <t>Patient Number*</t>
   </si>
@@ -2805,6 +2805,9 @@
   </si>
   <si>
     <t>Ethnicity</t>
+  </si>
+  <si>
+    <t>ww</t>
   </si>
   <si>
     <t>b</t>
@@ -3553,15 +3556,17 @@
       <c r="I2" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="235.5" customFormat="1" s="1">
-      <c r="A3" s="7"/>
+      <c r="A3" s="7" t="s">
+        <v>930</v>
+      </c>
       <c r="B3" s="26" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="10"/>
@@ -3580,7 +3585,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="14"/>
@@ -3618,7 +3623,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
@@ -3656,7 +3661,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
@@ -3675,7 +3680,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
@@ -3694,7 +3699,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
@@ -3713,7 +3718,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
@@ -3732,7 +3737,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
@@ -3751,7 +3756,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
@@ -3770,7 +3775,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
@@ -3789,7 +3794,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E15" s="14"/>
       <c r="F15" s="14"/>
@@ -3808,7 +3813,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="32" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="E16" s="14"/>
       <c r="F16" s="14"/>
@@ -3827,7 +3832,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E17" s="14"/>
       <c r="F17" s="14"/>
@@ -3846,7 +3851,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E18" s="14"/>
       <c r="F18" s="14"/>
@@ -3865,7 +3870,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="32" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="E19" s="14"/>
       <c r="F19" s="14"/>
@@ -3884,7 +3889,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E20" s="14"/>
       <c r="F20" s="14"/>
@@ -3903,7 +3908,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E21" s="14"/>
       <c r="F21" s="14"/>
@@ -3922,7 +3927,7 @@
         <v>1</v>
       </c>
       <c r="D22" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E22" s="14"/>
       <c r="F22" s="14"/>
@@ -3941,7 +3946,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E23" s="14"/>
       <c r="F23" s="14"/>
@@ -3960,7 +3965,7 @@
         <v>1</v>
       </c>
       <c r="D24" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E24" s="14"/>
       <c r="F24" s="14"/>
@@ -3979,7 +3984,7 @@
         <v>1</v>
       </c>
       <c r="D25" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E25" s="14"/>
       <c r="F25" s="14"/>
@@ -3998,7 +4003,7 @@
         <v>1</v>
       </c>
       <c r="D26" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E26" s="14"/>
       <c r="F26" s="14"/>
@@ -4017,7 +4022,7 @@
         <v>1</v>
       </c>
       <c r="D27" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E27" s="14"/>
       <c r="F27" s="14"/>
@@ -4036,7 +4041,7 @@
         <v>1</v>
       </c>
       <c r="D28" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E28" s="14"/>
       <c r="F28" s="14"/>
@@ -4055,7 +4060,7 @@
         <v>1</v>
       </c>
       <c r="D29" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
@@ -4074,7 +4079,7 @@
         <v>1</v>
       </c>
       <c r="D30" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E30" s="14"/>
       <c r="F30" s="14"/>
@@ -4093,7 +4098,7 @@
         <v>1</v>
       </c>
       <c r="D31" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E31" s="14"/>
       <c r="F31" s="14"/>
@@ -4112,7 +4117,7 @@
         <v>1</v>
       </c>
       <c r="D32" s="32" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="E32" s="14"/>
       <c r="F32" s="14"/>
@@ -4131,7 +4136,7 @@
         <v>1</v>
       </c>
       <c r="D33" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E33" s="14"/>
       <c r="F33" s="14"/>
@@ -4150,7 +4155,7 @@
         <v>1</v>
       </c>
       <c r="D34" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E34" s="14"/>
       <c r="F34" s="14"/>
@@ -4169,7 +4174,7 @@
         <v>1</v>
       </c>
       <c r="D35" s="32" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="E35" s="14"/>
       <c r="F35" s="14"/>
@@ -4188,7 +4193,7 @@
         <v>1</v>
       </c>
       <c r="D36" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E36" s="14"/>
       <c r="F36" s="14"/>
@@ -4207,7 +4212,7 @@
         <v>1</v>
       </c>
       <c r="D37" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E37" s="14"/>
       <c r="F37" s="14"/>
@@ -4226,7 +4231,7 @@
         <v>1</v>
       </c>
       <c r="D38" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E38" s="14"/>
       <c r="F38" s="14"/>
@@ -4245,7 +4250,7 @@
         <v>1</v>
       </c>
       <c r="D39" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E39" s="14"/>
       <c r="F39" s="14"/>
@@ -4264,7 +4269,7 @@
         <v>1</v>
       </c>
       <c r="D40" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E40" s="14"/>
       <c r="F40" s="14"/>
@@ -4283,7 +4288,7 @@
         <v>1</v>
       </c>
       <c r="D41" s="32" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="E41" s="14"/>
       <c r="F41" s="14"/>
@@ -4302,7 +4307,7 @@
         <v>1</v>
       </c>
       <c r="D42" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E42" s="14"/>
       <c r="F42" s="14"/>
@@ -4321,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="D43" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E43" s="14"/>
       <c r="F43" s="14"/>
@@ -4340,7 +4345,7 @@
         <v>1</v>
       </c>
       <c r="D44" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E44" s="14"/>
       <c r="F44" s="14"/>
@@ -4359,7 +4364,7 @@
         <v>1</v>
       </c>
       <c r="D45" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E45" s="14"/>
       <c r="F45" s="14"/>
@@ -4378,7 +4383,7 @@
         <v>1</v>
       </c>
       <c r="D46" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E46" s="14"/>
       <c r="F46" s="14"/>
@@ -4397,7 +4402,7 @@
         <v>1</v>
       </c>
       <c r="D47" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E47" s="14"/>
       <c r="F47" s="14"/>
@@ -4416,7 +4421,7 @@
         <v>1</v>
       </c>
       <c r="D48" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E48" s="14"/>
       <c r="F48" s="14"/>
@@ -4435,7 +4440,7 @@
         <v>1</v>
       </c>
       <c r="D49" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E49" s="14"/>
       <c r="F49" s="14"/>
@@ -4454,7 +4459,7 @@
         <v>1</v>
       </c>
       <c r="D50" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E50" s="14"/>
       <c r="F50" s="14"/>
@@ -4473,7 +4478,7 @@
         <v>1</v>
       </c>
       <c r="D51" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E51" s="14"/>
       <c r="F51" s="14"/>
@@ -4492,7 +4497,7 @@
         <v>1</v>
       </c>
       <c r="D52" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E52" s="14"/>
       <c r="F52" s="14"/>
@@ -4511,7 +4516,7 @@
         <v>1</v>
       </c>
       <c r="D53" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E53" s="14"/>
       <c r="F53" s="14"/>
@@ -4530,7 +4535,7 @@
         <v>1</v>
       </c>
       <c r="D54" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E54" s="14"/>
       <c r="F54" s="14"/>
@@ -4549,7 +4554,7 @@
         <v>1</v>
       </c>
       <c r="D55" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E55" s="14"/>
       <c r="F55" s="14"/>
@@ -4568,7 +4573,7 @@
         <v>1</v>
       </c>
       <c r="D56" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E56" s="14"/>
       <c r="F56" s="14"/>
@@ -4587,7 +4592,7 @@
         <v>1</v>
       </c>
       <c r="D57" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E57" s="14"/>
       <c r="F57" s="14"/>
@@ -4606,7 +4611,7 @@
         <v>1</v>
       </c>
       <c r="D58" s="32" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="E58" s="14"/>
       <c r="F58" s="14"/>
@@ -4625,7 +4630,7 @@
         <v>1</v>
       </c>
       <c r="D59" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E59" s="14"/>
       <c r="F59" s="14"/>
@@ -4644,7 +4649,7 @@
         <v>1</v>
       </c>
       <c r="D60" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E60" s="14"/>
       <c r="F60" s="14"/>
@@ -4663,7 +4668,7 @@
         <v>1</v>
       </c>
       <c r="D61" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E61" s="14"/>
       <c r="F61" s="14"/>
@@ -4682,7 +4687,7 @@
         <v>1</v>
       </c>
       <c r="D62" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E62" s="14"/>
       <c r="F62" s="14"/>
@@ -4701,7 +4706,7 @@
         <v>1</v>
       </c>
       <c r="D63" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E63" s="14"/>
       <c r="F63" s="14"/>
@@ -4720,7 +4725,7 @@
         <v>1</v>
       </c>
       <c r="D64" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E64" s="14"/>
       <c r="F64" s="14"/>
@@ -4739,7 +4744,7 @@
         <v>1</v>
       </c>
       <c r="D65" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E65" s="14"/>
       <c r="F65" s="14"/>
@@ -4758,7 +4763,7 @@
         <v>1</v>
       </c>
       <c r="D66" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E66" s="14"/>
       <c r="F66" s="14"/>
@@ -4777,7 +4782,7 @@
         <v>1</v>
       </c>
       <c r="D67" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E67" s="14"/>
       <c r="F67" s="14"/>
@@ -4796,7 +4801,7 @@
         <v>1</v>
       </c>
       <c r="D68" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E68" s="14"/>
       <c r="F68" s="14"/>
@@ -4815,7 +4820,7 @@
         <v>1</v>
       </c>
       <c r="D69" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E69" s="14"/>
       <c r="F69" s="14"/>
@@ -4834,7 +4839,7 @@
         <v>1</v>
       </c>
       <c r="D70" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E70" s="14"/>
       <c r="F70" s="14"/>
@@ -4853,7 +4858,7 @@
         <v>1</v>
       </c>
       <c r="D71" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E71" s="14"/>
       <c r="F71" s="14"/>
@@ -4872,7 +4877,7 @@
         <v>1</v>
       </c>
       <c r="D72" s="32" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="E72" s="14"/>
       <c r="F72" s="14"/>
@@ -4891,7 +4896,7 @@
         <v>1</v>
       </c>
       <c r="D73" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E73" s="14"/>
       <c r="F73" s="14"/>
@@ -4910,7 +4915,7 @@
         <v>1</v>
       </c>
       <c r="D74" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E74" s="14"/>
       <c r="F74" s="14"/>
@@ -4929,7 +4934,7 @@
         <v>1</v>
       </c>
       <c r="D75" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E75" s="14"/>
       <c r="F75" s="14"/>
@@ -4948,7 +4953,7 @@
         <v>1</v>
       </c>
       <c r="D76" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E76" s="14"/>
       <c r="F76" s="14"/>
@@ -4967,7 +4972,7 @@
         <v>1</v>
       </c>
       <c r="D77" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E77" s="14"/>
       <c r="F77" s="14"/>
@@ -4986,7 +4991,7 @@
         <v>1</v>
       </c>
       <c r="D78" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E78" s="14"/>
       <c r="F78" s="14"/>
@@ -5005,7 +5010,7 @@
         <v>1</v>
       </c>
       <c r="D79" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E79" s="14"/>
       <c r="F79" s="14"/>
@@ -5024,7 +5029,7 @@
         <v>1</v>
       </c>
       <c r="D80" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E80" s="14"/>
       <c r="F80" s="14"/>
@@ -5043,7 +5048,7 @@
         <v>1</v>
       </c>
       <c r="D81" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E81" s="14"/>
       <c r="F81" s="14"/>
@@ -5062,7 +5067,7 @@
         <v>1</v>
       </c>
       <c r="D82" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E82" s="14"/>
       <c r="F82" s="14"/>
@@ -5081,7 +5086,7 @@
         <v>1</v>
       </c>
       <c r="D83" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E83" s="14"/>
       <c r="F83" s="14"/>
@@ -5100,7 +5105,7 @@
         <v>1</v>
       </c>
       <c r="D84" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E84" s="14"/>
       <c r="F84" s="14"/>
@@ -5119,7 +5124,7 @@
         <v>1</v>
       </c>
       <c r="D85" s="32" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="E85" s="14"/>
       <c r="F85" s="14"/>
@@ -5138,7 +5143,7 @@
         <v>1</v>
       </c>
       <c r="D86" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E86" s="14"/>
       <c r="F86" s="14"/>
@@ -5157,7 +5162,7 @@
         <v>1</v>
       </c>
       <c r="D87" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E87" s="14"/>
       <c r="F87" s="14"/>
@@ -5176,7 +5181,7 @@
         <v>1</v>
       </c>
       <c r="D88" s="32" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="E88" s="14"/>
       <c r="F88" s="14"/>
@@ -5195,7 +5200,7 @@
         <v>1</v>
       </c>
       <c r="D89" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E89" s="14"/>
       <c r="F89" s="14"/>
@@ -5214,7 +5219,7 @@
         <v>1</v>
       </c>
       <c r="D90" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E90" s="14"/>
       <c r="F90" s="14"/>
@@ -5233,7 +5238,7 @@
         <v>1</v>
       </c>
       <c r="D91" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E91" s="14"/>
       <c r="F91" s="14"/>
@@ -5252,7 +5257,7 @@
         <v>1</v>
       </c>
       <c r="D92" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E92" s="14"/>
       <c r="F92" s="14"/>
@@ -5271,7 +5276,7 @@
         <v>1</v>
       </c>
       <c r="D93" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E93" s="14"/>
       <c r="F93" s="14"/>
@@ -5290,7 +5295,7 @@
         <v>1</v>
       </c>
       <c r="D94" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E94" s="14"/>
       <c r="F94" s="14"/>
@@ -5309,7 +5314,7 @@
         <v>1</v>
       </c>
       <c r="D95" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E95" s="14"/>
       <c r="F95" s="14"/>
@@ -5328,7 +5333,7 @@
         <v>1</v>
       </c>
       <c r="D96" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E96" s="14"/>
       <c r="F96" s="14"/>
@@ -5347,7 +5352,7 @@
         <v>1</v>
       </c>
       <c r="D97" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E97" s="14"/>
       <c r="F97" s="14"/>
@@ -5366,7 +5371,7 @@
         <v>1</v>
       </c>
       <c r="D98" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E98" s="14"/>
       <c r="F98" s="14"/>
@@ -5385,7 +5390,7 @@
         <v>1</v>
       </c>
       <c r="D99" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E99" s="14"/>
       <c r="F99" s="14"/>
@@ -5404,7 +5409,7 @@
         <v>1</v>
       </c>
       <c r="D100" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E100" s="14"/>
       <c r="F100" s="14"/>
@@ -5423,7 +5428,7 @@
         <v>1</v>
       </c>
       <c r="D101" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E101" s="14"/>
       <c r="F101" s="14"/>
@@ -5442,7 +5447,7 @@
         <v>1</v>
       </c>
       <c r="D102" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E102" s="14"/>
       <c r="F102" s="14"/>
@@ -5461,7 +5466,7 @@
         <v>1</v>
       </c>
       <c r="D103" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E103" s="14"/>
       <c r="F103" s="14"/>
@@ -5480,7 +5485,7 @@
         <v>1</v>
       </c>
       <c r="D104" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E104" s="14"/>
       <c r="F104" s="14"/>
@@ -5499,7 +5504,7 @@
         <v>1</v>
       </c>
       <c r="D105" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E105" s="14"/>
       <c r="F105" s="14"/>
@@ -5518,7 +5523,7 @@
         <v>1</v>
       </c>
       <c r="D106" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E106" s="14"/>
       <c r="F106" s="14"/>
@@ -5537,7 +5542,7 @@
         <v>1</v>
       </c>
       <c r="D107" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E107" s="14"/>
       <c r="F107" s="14"/>
@@ -5556,7 +5561,7 @@
         <v>1</v>
       </c>
       <c r="D108" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E108" s="14"/>
       <c r="F108" s="14"/>
@@ -5575,7 +5580,7 @@
         <v>1</v>
       </c>
       <c r="D109" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E109" s="14"/>
       <c r="F109" s="14"/>
@@ -5594,7 +5599,7 @@
         <v>1</v>
       </c>
       <c r="D110" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E110" s="14"/>
       <c r="F110" s="14"/>
@@ -5613,7 +5618,7 @@
         <v>1</v>
       </c>
       <c r="D111" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E111" s="14"/>
       <c r="F111" s="14"/>
@@ -5632,7 +5637,7 @@
         <v>1</v>
       </c>
       <c r="D112" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E112" s="14"/>
       <c r="F112" s="14"/>
@@ -5651,7 +5656,7 @@
         <v>1</v>
       </c>
       <c r="D113" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E113" s="14"/>
       <c r="F113" s="14"/>
@@ -5670,7 +5675,7 @@
         <v>1</v>
       </c>
       <c r="D114" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E114" s="14"/>
       <c r="F114" s="14"/>
@@ -5689,7 +5694,7 @@
         <v>1</v>
       </c>
       <c r="D115" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E115" s="14"/>
       <c r="F115" s="14"/>
@@ -5708,7 +5713,7 @@
         <v>1</v>
       </c>
       <c r="D116" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E116" s="14"/>
       <c r="F116" s="14"/>
@@ -5727,7 +5732,7 @@
         <v>1</v>
       </c>
       <c r="D117" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E117" s="14"/>
       <c r="F117" s="14"/>
@@ -5746,7 +5751,7 @@
         <v>1</v>
       </c>
       <c r="D118" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E118" s="14"/>
       <c r="F118" s="14"/>
@@ -5765,7 +5770,7 @@
         <v>1</v>
       </c>
       <c r="D119" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E119" s="14"/>
       <c r="F119" s="14"/>
@@ -5784,7 +5789,7 @@
         <v>1</v>
       </c>
       <c r="D120" s="32" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="E120" s="14"/>
       <c r="F120" s="14"/>
@@ -5803,7 +5808,7 @@
         <v>1</v>
       </c>
       <c r="D121" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E121" s="14"/>
       <c r="F121" s="14"/>
@@ -5822,7 +5827,7 @@
         <v>1</v>
       </c>
       <c r="D122" s="32" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="E122" s="14"/>
       <c r="F122" s="14"/>
@@ -5841,7 +5846,7 @@
         <v>1</v>
       </c>
       <c r="D123" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E123" s="14"/>
       <c r="F123" s="14"/>
@@ -5860,7 +5865,7 @@
         <v>1</v>
       </c>
       <c r="D124" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E124" s="14"/>
       <c r="F124" s="14"/>
@@ -5879,7 +5884,7 @@
         <v>1</v>
       </c>
       <c r="D125" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E125" s="14"/>
       <c r="F125" s="14"/>
@@ -5898,7 +5903,7 @@
         <v>1</v>
       </c>
       <c r="D126" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E126" s="14"/>
       <c r="F126" s="14"/>
@@ -5917,7 +5922,7 @@
         <v>1</v>
       </c>
       <c r="D127" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E127" s="14"/>
       <c r="F127" s="14"/>
@@ -5936,7 +5941,7 @@
         <v>1</v>
       </c>
       <c r="D128" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E128" s="14"/>
       <c r="F128" s="14"/>
@@ -5955,7 +5960,7 @@
         <v>1</v>
       </c>
       <c r="D129" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E129" s="14"/>
       <c r="F129" s="14"/>
@@ -5974,7 +5979,7 @@
         <v>1</v>
       </c>
       <c r="D130" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E130" s="14"/>
       <c r="F130" s="14"/>
@@ -5993,7 +5998,7 @@
         <v>1</v>
       </c>
       <c r="D131" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E131" s="14"/>
       <c r="F131" s="14"/>
@@ -6012,7 +6017,7 @@
         <v>1</v>
       </c>
       <c r="D132" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E132" s="14"/>
       <c r="F132" s="14"/>
@@ -6031,7 +6036,7 @@
         <v>1</v>
       </c>
       <c r="D133" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E133" s="14"/>
       <c r="F133" s="14"/>
@@ -6050,7 +6055,7 @@
         <v>1</v>
       </c>
       <c r="D134" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E134" s="14"/>
       <c r="F134" s="14"/>
@@ -6069,7 +6074,7 @@
         <v>1</v>
       </c>
       <c r="D135" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E135" s="14"/>
       <c r="F135" s="14"/>
@@ -6088,7 +6093,7 @@
         <v>1</v>
       </c>
       <c r="D136" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E136" s="14"/>
       <c r="F136" s="14"/>
@@ -6107,7 +6112,7 @@
         <v>1</v>
       </c>
       <c r="D137" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E137" s="14"/>
       <c r="F137" s="14"/>
@@ -6126,7 +6131,7 @@
         <v>1</v>
       </c>
       <c r="D138" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E138" s="14"/>
       <c r="F138" s="14"/>
@@ -6145,7 +6150,7 @@
         <v>1</v>
       </c>
       <c r="D139" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E139" s="14"/>
       <c r="F139" s="14"/>
@@ -6164,7 +6169,7 @@
         <v>1</v>
       </c>
       <c r="D140" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E140" s="14"/>
       <c r="F140" s="14"/>
@@ -6183,7 +6188,7 @@
         <v>1</v>
       </c>
       <c r="D141" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E141" s="14"/>
       <c r="F141" s="14"/>
@@ -6202,7 +6207,7 @@
         <v>1</v>
       </c>
       <c r="D142" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E142" s="14"/>
       <c r="F142" s="14"/>
@@ -6221,7 +6226,7 @@
         <v>1</v>
       </c>
       <c r="D143" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E143" s="14"/>
       <c r="F143" s="14"/>
@@ -6240,7 +6245,7 @@
         <v>1</v>
       </c>
       <c r="D144" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E144" s="14"/>
       <c r="F144" s="14"/>
@@ -6259,7 +6264,7 @@
         <v>1</v>
       </c>
       <c r="D145" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E145" s="14"/>
       <c r="F145" s="14"/>
@@ -6278,7 +6283,7 @@
         <v>1</v>
       </c>
       <c r="D146" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E146" s="14"/>
       <c r="F146" s="14"/>
@@ -6297,7 +6302,7 @@
         <v>1</v>
       </c>
       <c r="D147" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E147" s="14"/>
       <c r="F147" s="14"/>
@@ -6316,7 +6321,7 @@
         <v>1</v>
       </c>
       <c r="D148" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E148" s="14"/>
       <c r="F148" s="14"/>
@@ -6335,7 +6340,7 @@
         <v>1</v>
       </c>
       <c r="D149" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E149" s="14"/>
       <c r="F149" s="14"/>
@@ -6354,7 +6359,7 @@
         <v>1</v>
       </c>
       <c r="D150" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E150" s="14"/>
       <c r="F150" s="14"/>
@@ -6373,7 +6378,7 @@
         <v>1</v>
       </c>
       <c r="D151" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E151" s="14"/>
       <c r="F151" s="14"/>
@@ -6392,7 +6397,7 @@
         <v>1</v>
       </c>
       <c r="D152" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E152" s="14"/>
       <c r="F152" s="14"/>
@@ -6411,7 +6416,7 @@
         <v>1</v>
       </c>
       <c r="D153" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E153" s="14"/>
       <c r="F153" s="14"/>
@@ -6430,7 +6435,7 @@
         <v>1</v>
       </c>
       <c r="D154" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E154" s="14"/>
       <c r="F154" s="14"/>
@@ -6449,7 +6454,7 @@
         <v>1</v>
       </c>
       <c r="D155" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E155" s="14"/>
       <c r="F155" s="14"/>
@@ -6468,7 +6473,7 @@
         <v>1</v>
       </c>
       <c r="D156" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E156" s="14"/>
       <c r="F156" s="14"/>
@@ -6487,7 +6492,7 @@
         <v>1</v>
       </c>
       <c r="D157" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E157" s="14"/>
       <c r="F157" s="14"/>
@@ -6506,7 +6511,7 @@
         <v>1</v>
       </c>
       <c r="D158" s="32" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="E158" s="14"/>
       <c r="F158" s="14"/>
@@ -6525,7 +6530,7 @@
         <v>1</v>
       </c>
       <c r="D159" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E159" s="14"/>
       <c r="F159" s="14"/>
@@ -6544,7 +6549,7 @@
         <v>1</v>
       </c>
       <c r="D160" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E160" s="14"/>
       <c r="F160" s="14"/>
@@ -6563,7 +6568,7 @@
         <v>1</v>
       </c>
       <c r="D161" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E161" s="14"/>
       <c r="F161" s="14"/>
@@ -6582,7 +6587,7 @@
         <v>1</v>
       </c>
       <c r="D162" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E162" s="14"/>
       <c r="F162" s="14"/>
@@ -6601,7 +6606,7 @@
         <v>1</v>
       </c>
       <c r="D163" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E163" s="14"/>
       <c r="F163" s="14"/>
@@ -6620,7 +6625,7 @@
         <v>1</v>
       </c>
       <c r="D164" s="32" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="E164" s="14"/>
       <c r="F164" s="14"/>
@@ -6639,7 +6644,7 @@
         <v>1</v>
       </c>
       <c r="D165" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E165" s="14"/>
       <c r="F165" s="14"/>
@@ -6658,7 +6663,7 @@
         <v>1</v>
       </c>
       <c r="D166" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E166" s="14"/>
       <c r="F166" s="14"/>
@@ -6677,7 +6682,7 @@
         <v>1</v>
       </c>
       <c r="D167" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E167" s="14"/>
       <c r="F167" s="14"/>
@@ -6696,7 +6701,7 @@
         <v>1</v>
       </c>
       <c r="D168" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E168" s="14"/>
       <c r="F168" s="14"/>
@@ -6715,7 +6720,7 @@
         <v>1</v>
       </c>
       <c r="D169" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E169" s="14"/>
       <c r="F169" s="14"/>
@@ -6734,7 +6739,7 @@
         <v>1</v>
       </c>
       <c r="D170" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E170" s="14"/>
       <c r="F170" s="14"/>
@@ -6753,7 +6758,7 @@
         <v>1</v>
       </c>
       <c r="D171" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E171" s="14"/>
       <c r="F171" s="14"/>
@@ -6772,7 +6777,7 @@
         <v>1</v>
       </c>
       <c r="D172" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E172" s="14"/>
       <c r="F172" s="14"/>
@@ -6791,7 +6796,7 @@
         <v>1</v>
       </c>
       <c r="D173" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E173" s="14"/>
       <c r="F173" s="14"/>
@@ -6810,7 +6815,7 @@
         <v>1</v>
       </c>
       <c r="D174" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E174" s="14"/>
       <c r="F174" s="14"/>
@@ -6829,7 +6834,7 @@
         <v>1</v>
       </c>
       <c r="D175" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E175" s="14"/>
       <c r="F175" s="14"/>
@@ -6848,7 +6853,7 @@
         <v>1</v>
       </c>
       <c r="D176" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E176" s="14"/>
       <c r="F176" s="14"/>
@@ -6867,7 +6872,7 @@
         <v>1</v>
       </c>
       <c r="D177" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E177" s="14"/>
       <c r="F177" s="14"/>
@@ -6886,7 +6891,7 @@
         <v>1</v>
       </c>
       <c r="D178" s="32" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="E178" s="14"/>
       <c r="F178" s="14"/>
@@ -6905,7 +6910,7 @@
         <v>1</v>
       </c>
       <c r="D179" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E179" s="14"/>
       <c r="F179" s="14"/>
@@ -6924,7 +6929,7 @@
         <v>1</v>
       </c>
       <c r="D180" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E180" s="14"/>
       <c r="F180" s="14"/>
@@ -6943,7 +6948,7 @@
         <v>1</v>
       </c>
       <c r="D181" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E181" s="14"/>
       <c r="F181" s="14"/>
@@ -6962,7 +6967,7 @@
         <v>1</v>
       </c>
       <c r="D182" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E182" s="14"/>
       <c r="F182" s="14"/>
@@ -6981,7 +6986,7 @@
         <v>1</v>
       </c>
       <c r="D183" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E183" s="14"/>
       <c r="F183" s="14"/>
@@ -7000,7 +7005,7 @@
         <v>1</v>
       </c>
       <c r="D184" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E184" s="14"/>
       <c r="F184" s="14"/>
@@ -7019,7 +7024,7 @@
         <v>1</v>
       </c>
       <c r="D185" s="32" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="E185" s="14"/>
       <c r="F185" s="14"/>
@@ -7038,7 +7043,7 @@
         <v>1</v>
       </c>
       <c r="D186" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E186" s="14"/>
       <c r="F186" s="14"/>
@@ -7057,7 +7062,7 @@
         <v>1</v>
       </c>
       <c r="D187" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E187" s="14"/>
       <c r="F187" s="14"/>
@@ -7076,7 +7081,7 @@
         <v>1</v>
       </c>
       <c r="D188" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E188" s="14"/>
       <c r="F188" s="14"/>
@@ -7095,7 +7100,7 @@
         <v>1</v>
       </c>
       <c r="D189" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E189" s="14"/>
       <c r="F189" s="14"/>
@@ -7114,7 +7119,7 @@
         <v>1</v>
       </c>
       <c r="D190" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E190" s="14"/>
       <c r="F190" s="14"/>
@@ -7133,7 +7138,7 @@
         <v>1</v>
       </c>
       <c r="D191" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E191" s="14"/>
       <c r="F191" s="14"/>
@@ -7152,7 +7157,7 @@
         <v>1</v>
       </c>
       <c r="D192" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E192" s="14"/>
       <c r="F192" s="14"/>
@@ -7171,7 +7176,7 @@
         <v>1</v>
       </c>
       <c r="D193" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E193" s="14"/>
       <c r="F193" s="14"/>
@@ -7190,7 +7195,7 @@
         <v>1</v>
       </c>
       <c r="D194" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E194" s="14"/>
       <c r="F194" s="14"/>
@@ -7209,7 +7214,7 @@
         <v>1</v>
       </c>
       <c r="D195" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E195" s="14"/>
       <c r="F195" s="14"/>
@@ -7228,7 +7233,7 @@
         <v>1</v>
       </c>
       <c r="D196" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E196" s="14"/>
       <c r="F196" s="14"/>
@@ -7247,7 +7252,7 @@
         <v>1</v>
       </c>
       <c r="D197" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E197" s="14"/>
       <c r="F197" s="14"/>
@@ -7266,7 +7271,7 @@
         <v>1</v>
       </c>
       <c r="D198" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E198" s="14"/>
       <c r="F198" s="14"/>
@@ -7285,7 +7290,7 @@
         <v>1</v>
       </c>
       <c r="D199" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E199" s="14"/>
       <c r="F199" s="14"/>
@@ -7304,7 +7309,7 @@
         <v>1</v>
       </c>
       <c r="D200" s="32" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="E200" s="14"/>
       <c r="F200" s="14"/>
@@ -7323,7 +7328,7 @@
         <v>1</v>
       </c>
       <c r="D201" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E201" s="14"/>
       <c r="F201" s="14"/>
@@ -7342,7 +7347,7 @@
         <v>1</v>
       </c>
       <c r="D202" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E202" s="14"/>
       <c r="F202" s="14"/>
@@ -7361,7 +7366,7 @@
         <v>1</v>
       </c>
       <c r="D203" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E203" s="14"/>
       <c r="F203" s="14"/>
@@ -7380,7 +7385,7 @@
         <v>1</v>
       </c>
       <c r="D204" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E204" s="14"/>
       <c r="F204" s="14"/>
@@ -7399,7 +7404,7 @@
         <v>1</v>
       </c>
       <c r="D205" s="32" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="E205" s="14"/>
       <c r="F205" s="14"/>
@@ -7418,7 +7423,7 @@
         <v>1</v>
       </c>
       <c r="D206" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E206" s="14"/>
       <c r="F206" s="14"/>
@@ -7437,7 +7442,7 @@
         <v>1</v>
       </c>
       <c r="D207" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E207" s="14"/>
       <c r="F207" s="14"/>
@@ -7456,7 +7461,7 @@
         <v>1</v>
       </c>
       <c r="D208" s="32" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="E208" s="14"/>
       <c r="F208" s="14"/>
@@ -7475,7 +7480,7 @@
         <v>1</v>
       </c>
       <c r="D209" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E209" s="14"/>
       <c r="F209" s="14"/>
@@ -7494,7 +7499,7 @@
         <v>1</v>
       </c>
       <c r="D210" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E210" s="14"/>
       <c r="F210" s="14"/>
@@ -7513,7 +7518,7 @@
         <v>1</v>
       </c>
       <c r="D211" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E211" s="14"/>
       <c r="F211" s="14"/>
@@ -7532,7 +7537,7 @@
         <v>1</v>
       </c>
       <c r="D212" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E212" s="14"/>
       <c r="F212" s="14"/>
@@ -7551,7 +7556,7 @@
         <v>1</v>
       </c>
       <c r="D213" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E213" s="14"/>
       <c r="F213" s="14"/>
@@ -7570,7 +7575,7 @@
         <v>1</v>
       </c>
       <c r="D214" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E214" s="14"/>
       <c r="F214" s="14"/>
@@ -7589,7 +7594,7 @@
         <v>1</v>
       </c>
       <c r="D215" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E215" s="14"/>
       <c r="F215" s="14"/>
@@ -7608,7 +7613,7 @@
         <v>1</v>
       </c>
       <c r="D216" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E216" s="14"/>
       <c r="F216" s="14"/>
@@ -7627,7 +7632,7 @@
         <v>1</v>
       </c>
       <c r="D217" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E217" s="14"/>
       <c r="F217" s="14"/>
@@ -7646,7 +7651,7 @@
         <v>1</v>
       </c>
       <c r="D218" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E218" s="14"/>
       <c r="F218" s="14"/>
@@ -7665,7 +7670,7 @@
         <v>1</v>
       </c>
       <c r="D219" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E219" s="14"/>
       <c r="F219" s="14"/>
@@ -7684,7 +7689,7 @@
         <v>1</v>
       </c>
       <c r="D220" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E220" s="14"/>
       <c r="F220" s="14"/>
@@ -7703,7 +7708,7 @@
         <v>1</v>
       </c>
       <c r="D221" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E221" s="14"/>
       <c r="F221" s="14"/>
@@ -7722,7 +7727,7 @@
         <v>1</v>
       </c>
       <c r="D222" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E222" s="14"/>
       <c r="F222" s="14"/>
@@ -7741,7 +7746,7 @@
         <v>1</v>
       </c>
       <c r="D223" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E223" s="14"/>
       <c r="F223" s="14"/>
@@ -7760,7 +7765,7 @@
         <v>1</v>
       </c>
       <c r="D224" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E224" s="14"/>
       <c r="F224" s="14"/>
@@ -7779,7 +7784,7 @@
         <v>1</v>
       </c>
       <c r="D225" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E225" s="14"/>
       <c r="F225" s="14"/>
@@ -7798,7 +7803,7 @@
         <v>1</v>
       </c>
       <c r="D226" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E226" s="14"/>
       <c r="F226" s="14"/>
@@ -7817,7 +7822,7 @@
         <v>1</v>
       </c>
       <c r="D227" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E227" s="14"/>
       <c r="F227" s="14"/>
@@ -7836,7 +7841,7 @@
         <v>1</v>
       </c>
       <c r="D228" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E228" s="14"/>
       <c r="F228" s="14"/>
@@ -7855,7 +7860,7 @@
         <v>1</v>
       </c>
       <c r="D229" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E229" s="14"/>
       <c r="F229" s="14"/>
@@ -7874,7 +7879,7 @@
         <v>1</v>
       </c>
       <c r="D230" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E230" s="14"/>
       <c r="F230" s="14"/>
@@ -7893,7 +7898,7 @@
         <v>1</v>
       </c>
       <c r="D231" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E231" s="14"/>
       <c r="F231" s="14"/>
@@ -7912,7 +7917,7 @@
         <v>1</v>
       </c>
       <c r="D232" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E232" s="14"/>
       <c r="F232" s="14"/>
@@ -7931,7 +7936,7 @@
         <v>1</v>
       </c>
       <c r="D233" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E233" s="14"/>
       <c r="F233" s="14"/>
@@ -7950,7 +7955,7 @@
         <v>1</v>
       </c>
       <c r="D234" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E234" s="14"/>
       <c r="F234" s="14"/>
@@ -7969,7 +7974,7 @@
         <v>1</v>
       </c>
       <c r="D235" s="32" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="E235" s="14"/>
       <c r="F235" s="14"/>
@@ -7988,7 +7993,7 @@
         <v>1</v>
       </c>
       <c r="D236" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E236" s="14"/>
       <c r="F236" s="14"/>
@@ -8007,7 +8012,7 @@
         <v>1</v>
       </c>
       <c r="D237" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E237" s="14"/>
       <c r="F237" s="14"/>
@@ -8026,7 +8031,7 @@
         <v>1</v>
       </c>
       <c r="D238" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E238" s="14"/>
       <c r="F238" s="14"/>
@@ -8045,7 +8050,7 @@
         <v>1</v>
       </c>
       <c r="D239" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E239" s="14"/>
       <c r="F239" s="14"/>
@@ -8064,7 +8069,7 @@
         <v>1</v>
       </c>
       <c r="D240" s="32" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="E240" s="14"/>
       <c r="F240" s="14"/>
@@ -8083,7 +8088,7 @@
         <v>1</v>
       </c>
       <c r="D241" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E241" s="14"/>
       <c r="F241" s="14"/>
@@ -8102,7 +8107,7 @@
         <v>1</v>
       </c>
       <c r="D242" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E242" s="14"/>
       <c r="F242" s="14"/>
@@ -8121,7 +8126,7 @@
         <v>1</v>
       </c>
       <c r="D243" s="32" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="E243" s="14"/>
       <c r="F243" s="14"/>
@@ -8140,7 +8145,7 @@
         <v>1</v>
       </c>
       <c r="D244" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E244" s="14"/>
       <c r="F244" s="14"/>
@@ -8159,7 +8164,7 @@
         <v>1</v>
       </c>
       <c r="D245" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E245" s="14"/>
       <c r="F245" s="14"/>
@@ -8178,7 +8183,7 @@
         <v>1</v>
       </c>
       <c r="D246" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E246" s="14"/>
       <c r="F246" s="14"/>
@@ -8197,7 +8202,7 @@
         <v>1</v>
       </c>
       <c r="D247" s="32" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="E247" s="14"/>
       <c r="F247" s="14"/>
@@ -8216,7 +8221,7 @@
         <v>1</v>
       </c>
       <c r="D248" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E248" s="14"/>
       <c r="F248" s="14"/>
@@ -8235,7 +8240,7 @@
         <v>1</v>
       </c>
       <c r="D249" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E249" s="14"/>
       <c r="F249" s="14"/>
@@ -8254,7 +8259,7 @@
         <v>1</v>
       </c>
       <c r="D250" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E250" s="14"/>
       <c r="F250" s="14"/>
@@ -8273,7 +8278,7 @@
         <v>1</v>
       </c>
       <c r="D251" s="32" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="E251" s="14"/>
       <c r="F251" s="14"/>
@@ -8292,7 +8297,7 @@
         <v>1</v>
       </c>
       <c r="D252" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E252" s="14"/>
       <c r="F252" s="14"/>
@@ -8311,7 +8316,7 @@
         <v>1</v>
       </c>
       <c r="D253" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E253" s="14"/>
       <c r="F253" s="14"/>
@@ -8330,7 +8335,7 @@
         <v>1</v>
       </c>
       <c r="D254" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E254" s="14"/>
       <c r="F254" s="14"/>
@@ -8349,7 +8354,7 @@
         <v>1</v>
       </c>
       <c r="D255" s="32" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="E255" s="14"/>
       <c r="F255" s="14"/>
@@ -8368,7 +8373,7 @@
         <v>1</v>
       </c>
       <c r="D256" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E256" s="14"/>
       <c r="F256" s="14"/>
@@ -8387,7 +8392,7 @@
         <v>1</v>
       </c>
       <c r="D257" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E257" s="14"/>
       <c r="F257" s="14"/>
@@ -8406,7 +8411,7 @@
         <v>1</v>
       </c>
       <c r="D258" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E258" s="14"/>
       <c r="F258" s="14"/>
@@ -8425,7 +8430,7 @@
         <v>1</v>
       </c>
       <c r="D259" s="32" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="E259" s="14"/>
       <c r="F259" s="14"/>
@@ -8444,7 +8449,7 @@
         <v>1</v>
       </c>
       <c r="D260" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E260" s="14"/>
       <c r="F260" s="14"/>
@@ -8463,7 +8468,7 @@
         <v>1</v>
       </c>
       <c r="D261" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E261" s="14"/>
       <c r="F261" s="14"/>
@@ -8482,7 +8487,7 @@
         <v>1</v>
       </c>
       <c r="D262" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E262" s="14"/>
       <c r="F262" s="14"/>
@@ -8501,7 +8506,7 @@
         <v>1</v>
       </c>
       <c r="D263" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E263" s="14"/>
       <c r="F263" s="14"/>
@@ -8520,7 +8525,7 @@
         <v>1</v>
       </c>
       <c r="D264" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E264" s="14"/>
       <c r="F264" s="14"/>
@@ -8539,7 +8544,7 @@
         <v>1</v>
       </c>
       <c r="D265" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E265" s="14"/>
       <c r="F265" s="14"/>
@@ -8558,7 +8563,7 @@
         <v>1</v>
       </c>
       <c r="D266" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E266" s="14"/>
       <c r="F266" s="14"/>
@@ -8577,7 +8582,7 @@
         <v>1</v>
       </c>
       <c r="D267" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E267" s="14"/>
       <c r="F267" s="14"/>
@@ -8596,7 +8601,7 @@
         <v>1</v>
       </c>
       <c r="D268" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E268" s="14"/>
       <c r="F268" s="14"/>
@@ -8615,7 +8620,7 @@
         <v>1</v>
       </c>
       <c r="D269" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E269" s="14"/>
       <c r="F269" s="14"/>
@@ -8634,7 +8639,7 @@
         <v>1</v>
       </c>
       <c r="D270" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E270" s="14"/>
       <c r="F270" s="14"/>
@@ -8653,7 +8658,7 @@
         <v>1</v>
       </c>
       <c r="D271" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E271" s="14"/>
       <c r="F271" s="14"/>
@@ -8672,7 +8677,7 @@
         <v>1</v>
       </c>
       <c r="D272" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E272" s="14"/>
       <c r="F272" s="14"/>
@@ -8691,7 +8696,7 @@
         <v>1</v>
       </c>
       <c r="D273" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E273" s="14"/>
       <c r="F273" s="14"/>
@@ -8710,7 +8715,7 @@
         <v>1</v>
       </c>
       <c r="D274" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E274" s="14"/>
       <c r="F274" s="14"/>
@@ -8729,7 +8734,7 @@
         <v>1</v>
       </c>
       <c r="D275" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E275" s="14"/>
       <c r="F275" s="14"/>
@@ -8748,7 +8753,7 @@
         <v>1</v>
       </c>
       <c r="D276" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E276" s="14"/>
       <c r="F276" s="14"/>
@@ -8767,7 +8772,7 @@
         <v>1</v>
       </c>
       <c r="D277" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E277" s="14"/>
       <c r="F277" s="14"/>
@@ -8786,7 +8791,7 @@
         <v>1</v>
       </c>
       <c r="D278" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E278" s="14"/>
       <c r="F278" s="14"/>
@@ -8805,7 +8810,7 @@
         <v>1</v>
       </c>
       <c r="D279" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E279" s="14"/>
       <c r="F279" s="14"/>
@@ -8824,7 +8829,7 @@
         <v>1</v>
       </c>
       <c r="D280" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E280" s="14"/>
       <c r="F280" s="14"/>
@@ -8843,7 +8848,7 @@
         <v>1</v>
       </c>
       <c r="D281" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E281" s="14"/>
       <c r="F281" s="14"/>
@@ -8862,7 +8867,7 @@
         <v>1</v>
       </c>
       <c r="D282" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E282" s="14"/>
       <c r="F282" s="14"/>
@@ -8881,7 +8886,7 @@
         <v>1</v>
       </c>
       <c r="D283" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E283" s="14"/>
       <c r="F283" s="14"/>
@@ -8900,7 +8905,7 @@
         <v>1</v>
       </c>
       <c r="D284" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E284" s="14"/>
       <c r="F284" s="14"/>
@@ -8919,7 +8924,7 @@
         <v>1</v>
       </c>
       <c r="D285" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E285" s="14"/>
       <c r="F285" s="14"/>
@@ -8938,7 +8943,7 @@
         <v>1</v>
       </c>
       <c r="D286" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E286" s="14"/>
       <c r="F286" s="14"/>
@@ -8957,7 +8962,7 @@
         <v>1</v>
       </c>
       <c r="D287" s="32" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="E287" s="14"/>
       <c r="F287" s="14"/>
@@ -8976,7 +8981,7 @@
         <v>1</v>
       </c>
       <c r="D288" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E288" s="14"/>
       <c r="F288" s="14"/>
@@ -8995,7 +9000,7 @@
         <v>1</v>
       </c>
       <c r="D289" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E289" s="14"/>
       <c r="F289" s="14"/>
@@ -9014,7 +9019,7 @@
         <v>1</v>
       </c>
       <c r="D290" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E290" s="14"/>
       <c r="F290" s="14"/>
@@ -9033,7 +9038,7 @@
         <v>1</v>
       </c>
       <c r="D291" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E291" s="14"/>
       <c r="F291" s="14"/>
@@ -9052,7 +9057,7 @@
         <v>1</v>
       </c>
       <c r="D292" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E292" s="14"/>
       <c r="F292" s="14"/>
@@ -9071,7 +9076,7 @@
         <v>1</v>
       </c>
       <c r="D293" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E293" s="14"/>
       <c r="F293" s="14"/>
@@ -9090,7 +9095,7 @@
         <v>1</v>
       </c>
       <c r="D294" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E294" s="14"/>
       <c r="F294" s="14"/>
@@ -9109,7 +9114,7 @@
         <v>1</v>
       </c>
       <c r="D295" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E295" s="14"/>
       <c r="F295" s="14"/>
@@ -9128,7 +9133,7 @@
         <v>1</v>
       </c>
       <c r="D296" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E296" s="14"/>
       <c r="F296" s="14"/>
@@ -9147,7 +9152,7 @@
         <v>1</v>
       </c>
       <c r="D297" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E297" s="14"/>
       <c r="F297" s="14"/>
@@ -9166,7 +9171,7 @@
         <v>1</v>
       </c>
       <c r="D298" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E298" s="14"/>
       <c r="F298" s="14"/>
@@ -9185,7 +9190,7 @@
         <v>1</v>
       </c>
       <c r="D299" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E299" s="14"/>
       <c r="F299" s="14"/>
@@ -9204,7 +9209,7 @@
         <v>1</v>
       </c>
       <c r="D300" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E300" s="14"/>
       <c r="F300" s="14"/>
@@ -9223,7 +9228,7 @@
         <v>1</v>
       </c>
       <c r="D301" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E301" s="14"/>
       <c r="F301" s="14"/>
@@ -9242,7 +9247,7 @@
         <v>1</v>
       </c>
       <c r="D302" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E302" s="14"/>
       <c r="F302" s="14"/>
@@ -9261,7 +9266,7 @@
         <v>1</v>
       </c>
       <c r="D303" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E303" s="14"/>
       <c r="F303" s="14"/>
@@ -9280,7 +9285,7 @@
         <v>1</v>
       </c>
       <c r="D304" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E304" s="14"/>
       <c r="F304" s="14"/>
@@ -9299,7 +9304,7 @@
         <v>1</v>
       </c>
       <c r="D305" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E305" s="14"/>
       <c r="F305" s="14"/>
@@ -9318,7 +9323,7 @@
         <v>1</v>
       </c>
       <c r="D306" s="32" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="E306" s="14"/>
       <c r="F306" s="14"/>
@@ -9337,7 +9342,7 @@
         <v>1</v>
       </c>
       <c r="D307" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E307" s="14"/>
       <c r="F307" s="14"/>
@@ -9356,7 +9361,7 @@
         <v>1</v>
       </c>
       <c r="D308" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E308" s="14"/>
       <c r="F308" s="14"/>
@@ -9375,7 +9380,7 @@
         <v>1</v>
       </c>
       <c r="D309" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E309" s="14"/>
       <c r="F309" s="14"/>
@@ -9394,7 +9399,7 @@
         <v>1</v>
       </c>
       <c r="D310" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E310" s="14"/>
       <c r="F310" s="14"/>
@@ -9413,7 +9418,7 @@
         <v>1</v>
       </c>
       <c r="D311" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E311" s="14"/>
       <c r="F311" s="14"/>
@@ -9432,7 +9437,7 @@
         <v>1</v>
       </c>
       <c r="D312" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E312" s="14"/>
       <c r="F312" s="14"/>
@@ -9451,7 +9456,7 @@
         <v>1</v>
       </c>
       <c r="D313" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E313" s="14"/>
       <c r="F313" s="14"/>
@@ -9470,7 +9475,7 @@
         <v>1</v>
       </c>
       <c r="D314" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E314" s="14"/>
       <c r="F314" s="14"/>
@@ -9489,7 +9494,7 @@
         <v>1</v>
       </c>
       <c r="D315" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E315" s="14"/>
       <c r="F315" s="14"/>
@@ -9508,7 +9513,7 @@
         <v>1</v>
       </c>
       <c r="D316" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E316" s="14"/>
       <c r="F316" s="14"/>
@@ -9527,7 +9532,7 @@
         <v>1</v>
       </c>
       <c r="D317" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E317" s="14"/>
       <c r="F317" s="14"/>
@@ -9546,7 +9551,7 @@
         <v>1</v>
       </c>
       <c r="D318" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E318" s="14"/>
       <c r="F318" s="14"/>
@@ -9565,7 +9570,7 @@
         <v>1</v>
       </c>
       <c r="D319" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E319" s="14"/>
       <c r="F319" s="14"/>
@@ -9584,7 +9589,7 @@
         <v>1</v>
       </c>
       <c r="D320" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E320" s="14"/>
       <c r="F320" s="14"/>
@@ -9603,7 +9608,7 @@
         <v>1</v>
       </c>
       <c r="D321" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E321" s="14"/>
       <c r="F321" s="14"/>
@@ -9622,7 +9627,7 @@
         <v>1</v>
       </c>
       <c r="D322" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E322" s="14"/>
       <c r="F322" s="14"/>
@@ -9641,7 +9646,7 @@
         <v>1</v>
       </c>
       <c r="D323" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E323" s="14"/>
       <c r="F323" s="14"/>
@@ -9660,7 +9665,7 @@
         <v>1</v>
       </c>
       <c r="D324" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E324" s="14"/>
       <c r="F324" s="14"/>
@@ -9679,7 +9684,7 @@
         <v>1</v>
       </c>
       <c r="D325" s="32" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="E325" s="14"/>
       <c r="F325" s="14"/>
@@ -9698,7 +9703,7 @@
         <v>1</v>
       </c>
       <c r="D326" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E326" s="14"/>
       <c r="F326" s="14"/>
@@ -9717,7 +9722,7 @@
         <v>1</v>
       </c>
       <c r="D327" s="32" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="E327" s="14"/>
       <c r="F327" s="14"/>
@@ -9736,7 +9741,7 @@
         <v>1</v>
       </c>
       <c r="D328" s="32" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="E328" s="14"/>
       <c r="F328" s="14"/>
@@ -9755,7 +9760,7 @@
         <v>1</v>
       </c>
       <c r="D329" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E329" s="14"/>
       <c r="F329" s="14"/>
@@ -9774,7 +9779,7 @@
         <v>1</v>
       </c>
       <c r="D330" s="32" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="E330" s="14"/>
       <c r="F330" s="14"/>
@@ -9793,7 +9798,7 @@
         <v>1</v>
       </c>
       <c r="D331" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E331" s="14"/>
       <c r="F331" s="14"/>
@@ -9812,7 +9817,7 @@
         <v>1</v>
       </c>
       <c r="D332" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E332" s="14"/>
       <c r="F332" s="14"/>
@@ -9831,7 +9836,7 @@
         <v>1</v>
       </c>
       <c r="D333" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E333" s="14"/>
       <c r="F333" s="14"/>
@@ -9850,7 +9855,7 @@
         <v>1</v>
       </c>
       <c r="D334" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E334" s="14"/>
       <c r="F334" s="14"/>
@@ -9869,7 +9874,7 @@
         <v>1</v>
       </c>
       <c r="D335" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E335" s="14"/>
       <c r="F335" s="14"/>
@@ -9888,7 +9893,7 @@
         <v>1</v>
       </c>
       <c r="D336" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E336" s="14"/>
       <c r="F336" s="14"/>
@@ -9907,7 +9912,7 @@
         <v>1</v>
       </c>
       <c r="D337" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E337" s="14"/>
       <c r="F337" s="14"/>
@@ -9926,7 +9931,7 @@
         <v>1</v>
       </c>
       <c r="D338" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E338" s="14"/>
       <c r="F338" s="14"/>
@@ -9945,7 +9950,7 @@
         <v>1</v>
       </c>
       <c r="D339" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E339" s="14"/>
       <c r="F339" s="14"/>
@@ -9964,7 +9969,7 @@
         <v>1</v>
       </c>
       <c r="D340" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E340" s="14"/>
       <c r="F340" s="14"/>
@@ -9983,7 +9988,7 @@
         <v>1</v>
       </c>
       <c r="D341" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E341" s="14"/>
       <c r="F341" s="14"/>
@@ -10002,7 +10007,7 @@
         <v>1</v>
       </c>
       <c r="D342" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E342" s="14"/>
       <c r="F342" s="14"/>
@@ -10021,7 +10026,7 @@
         <v>1</v>
       </c>
       <c r="D343" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E343" s="14"/>
       <c r="F343" s="14"/>
@@ -10040,7 +10045,7 @@
         <v>1</v>
       </c>
       <c r="D344" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E344" s="14"/>
       <c r="F344" s="14"/>
@@ -10059,7 +10064,7 @@
         <v>1</v>
       </c>
       <c r="D345" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E345" s="14"/>
       <c r="F345" s="14"/>
@@ -10078,7 +10083,7 @@
         <v>1</v>
       </c>
       <c r="D346" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E346" s="14"/>
       <c r="F346" s="14"/>
@@ -10097,7 +10102,7 @@
         <v>1</v>
       </c>
       <c r="D347" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E347" s="14"/>
       <c r="F347" s="14"/>
@@ -10116,7 +10121,7 @@
         <v>1</v>
       </c>
       <c r="D348" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E348" s="14"/>
       <c r="F348" s="14"/>
@@ -10135,7 +10140,7 @@
         <v>1</v>
       </c>
       <c r="D349" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E349" s="14"/>
       <c r="F349" s="14"/>
@@ -10154,7 +10159,7 @@
         <v>1</v>
       </c>
       <c r="D350" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E350" s="14"/>
       <c r="F350" s="14"/>
@@ -10173,7 +10178,7 @@
         <v>1</v>
       </c>
       <c r="D351" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E351" s="14"/>
       <c r="F351" s="14"/>
@@ -10192,7 +10197,7 @@
         <v>1</v>
       </c>
       <c r="D352" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E352" s="14"/>
       <c r="F352" s="14"/>
@@ -10211,7 +10216,7 @@
         <v>1</v>
       </c>
       <c r="D353" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E353" s="14"/>
       <c r="F353" s="14"/>
@@ -10230,7 +10235,7 @@
         <v>1</v>
       </c>
       <c r="D354" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E354" s="14"/>
       <c r="F354" s="14"/>
@@ -10249,7 +10254,7 @@
         <v>1</v>
       </c>
       <c r="D355" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E355" s="14"/>
       <c r="F355" s="14"/>
@@ -10268,7 +10273,7 @@
         <v>1</v>
       </c>
       <c r="D356" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E356" s="14"/>
       <c r="F356" s="14"/>
@@ -10287,7 +10292,7 @@
         <v>1</v>
       </c>
       <c r="D357" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E357" s="14"/>
       <c r="F357" s="14"/>
@@ -10306,7 +10311,7 @@
         <v>1</v>
       </c>
       <c r="D358" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E358" s="14"/>
       <c r="F358" s="14"/>
@@ -10325,7 +10330,7 @@
         <v>1</v>
       </c>
       <c r="D359" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E359" s="14"/>
       <c r="F359" s="14"/>
@@ -10344,7 +10349,7 @@
         <v>1</v>
       </c>
       <c r="D360" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E360" s="14"/>
       <c r="F360" s="14"/>
@@ -10363,7 +10368,7 @@
         <v>1</v>
       </c>
       <c r="D361" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E361" s="14"/>
       <c r="F361" s="14"/>
@@ -10382,7 +10387,7 @@
         <v>1</v>
       </c>
       <c r="D362" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E362" s="14"/>
       <c r="F362" s="14"/>
@@ -10401,7 +10406,7 @@
         <v>1</v>
       </c>
       <c r="D363" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E363" s="14"/>
       <c r="F363" s="14"/>
@@ -10420,7 +10425,7 @@
         <v>1</v>
       </c>
       <c r="D364" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E364" s="14"/>
       <c r="F364" s="14"/>
@@ -10439,7 +10444,7 @@
         <v>1</v>
       </c>
       <c r="D365" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E365" s="14"/>
       <c r="F365" s="14"/>
@@ -10458,7 +10463,7 @@
         <v>1</v>
       </c>
       <c r="D366" s="32" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="E366" s="14"/>
       <c r="F366" s="14"/>
@@ -10477,7 +10482,7 @@
         <v>1</v>
       </c>
       <c r="D367" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E367" s="14"/>
       <c r="F367" s="14"/>
@@ -10496,7 +10501,7 @@
         <v>1</v>
       </c>
       <c r="D368" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E368" s="14"/>
       <c r="F368" s="14"/>
@@ -10515,7 +10520,7 @@
         <v>1</v>
       </c>
       <c r="D369" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E369" s="14"/>
       <c r="F369" s="14"/>
@@ -10534,7 +10539,7 @@
         <v>1</v>
       </c>
       <c r="D370" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E370" s="14"/>
       <c r="F370" s="14"/>
@@ -10553,7 +10558,7 @@
         <v>1</v>
       </c>
       <c r="D371" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E371" s="14"/>
       <c r="F371" s="14"/>
@@ -10572,7 +10577,7 @@
         <v>1</v>
       </c>
       <c r="D372" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E372" s="14"/>
       <c r="F372" s="14"/>
@@ -10591,7 +10596,7 @@
         <v>1</v>
       </c>
       <c r="D373" s="32" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="E373" s="14"/>
       <c r="F373" s="14"/>
@@ -10610,7 +10615,7 @@
         <v>1</v>
       </c>
       <c r="D374" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E374" s="14"/>
       <c r="F374" s="14"/>
@@ -10629,7 +10634,7 @@
         <v>1</v>
       </c>
       <c r="D375" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E375" s="14"/>
       <c r="F375" s="14"/>
@@ -10648,7 +10653,7 @@
         <v>1</v>
       </c>
       <c r="D376" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E376" s="14"/>
       <c r="F376" s="14"/>
@@ -10667,7 +10672,7 @@
         <v>1</v>
       </c>
       <c r="D377" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E377" s="14"/>
       <c r="F377" s="14"/>
@@ -10686,7 +10691,7 @@
         <v>1</v>
       </c>
       <c r="D378" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E378" s="14"/>
       <c r="F378" s="14"/>
@@ -10705,7 +10710,7 @@
         <v>1</v>
       </c>
       <c r="D379" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E379" s="14"/>
       <c r="F379" s="14"/>
@@ -10724,7 +10729,7 @@
         <v>1</v>
       </c>
       <c r="D380" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E380" s="14"/>
       <c r="F380" s="14"/>
@@ -10743,7 +10748,7 @@
         <v>1</v>
       </c>
       <c r="D381" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E381" s="14"/>
       <c r="F381" s="14"/>
@@ -10762,7 +10767,7 @@
         <v>1</v>
       </c>
       <c r="D382" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E382" s="14"/>
       <c r="F382" s="14"/>
@@ -10781,7 +10786,7 @@
         <v>1</v>
       </c>
       <c r="D383" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E383" s="14"/>
       <c r="F383" s="14"/>
@@ -10800,7 +10805,7 @@
         <v>1</v>
       </c>
       <c r="D384" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E384" s="14"/>
       <c r="F384" s="14"/>
@@ -10819,7 +10824,7 @@
         <v>1</v>
       </c>
       <c r="D385" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E385" s="14"/>
       <c r="F385" s="14"/>
@@ -10838,7 +10843,7 @@
         <v>1</v>
       </c>
       <c r="D386" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E386" s="14"/>
       <c r="F386" s="14"/>
@@ -10857,7 +10862,7 @@
         <v>1</v>
       </c>
       <c r="D387" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E387" s="14"/>
       <c r="F387" s="14"/>
@@ -10876,7 +10881,7 @@
         <v>1</v>
       </c>
       <c r="D388" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E388" s="14"/>
       <c r="F388" s="14"/>
@@ -10895,7 +10900,7 @@
         <v>1</v>
       </c>
       <c r="D389" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E389" s="14"/>
       <c r="F389" s="14"/>
@@ -10914,7 +10919,7 @@
         <v>1</v>
       </c>
       <c r="D390" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E390" s="14"/>
       <c r="F390" s="14"/>
@@ -10933,7 +10938,7 @@
         <v>1</v>
       </c>
       <c r="D391" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E391" s="14"/>
       <c r="F391" s="14"/>
@@ -10952,7 +10957,7 @@
         <v>1</v>
       </c>
       <c r="D392" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E392" s="14"/>
       <c r="F392" s="14"/>
@@ -10971,7 +10976,7 @@
         <v>1</v>
       </c>
       <c r="D393" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E393" s="14"/>
       <c r="F393" s="14"/>
@@ -10990,7 +10995,7 @@
         <v>1</v>
       </c>
       <c r="D394" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E394" s="14"/>
       <c r="F394" s="14"/>
@@ -11009,7 +11014,7 @@
         <v>1</v>
       </c>
       <c r="D395" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E395" s="14"/>
       <c r="F395" s="14"/>
@@ -11028,7 +11033,7 @@
         <v>1</v>
       </c>
       <c r="D396" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E396" s="14"/>
       <c r="F396" s="14"/>
@@ -11047,7 +11052,7 @@
         <v>1</v>
       </c>
       <c r="D397" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E397" s="14"/>
       <c r="F397" s="14"/>
@@ -11066,7 +11071,7 @@
         <v>1</v>
       </c>
       <c r="D398" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E398" s="14"/>
       <c r="F398" s="14"/>
@@ -11085,7 +11090,7 @@
         <v>1</v>
       </c>
       <c r="D399" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E399" s="14"/>
       <c r="F399" s="14"/>
@@ -11104,7 +11109,7 @@
         <v>1</v>
       </c>
       <c r="D400" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E400" s="14"/>
       <c r="F400" s="14"/>
@@ -11123,7 +11128,7 @@
         <v>1</v>
       </c>
       <c r="D401" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E401" s="14"/>
       <c r="F401" s="14"/>
@@ -11142,7 +11147,7 @@
         <v>1</v>
       </c>
       <c r="D402" s="32" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="E402" s="14"/>
       <c r="F402" s="14"/>
@@ -11161,7 +11166,7 @@
         <v>1</v>
       </c>
       <c r="D403" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E403" s="14"/>
       <c r="F403" s="14"/>
@@ -11180,7 +11185,7 @@
         <v>1</v>
       </c>
       <c r="D404" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E404" s="14"/>
       <c r="F404" s="14"/>
@@ -11199,7 +11204,7 @@
         <v>1</v>
       </c>
       <c r="D405" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E405" s="14"/>
       <c r="F405" s="14"/>
@@ -11218,7 +11223,7 @@
         <v>1</v>
       </c>
       <c r="D406" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E406" s="14"/>
       <c r="F406" s="14"/>
@@ -11237,7 +11242,7 @@
         <v>1</v>
       </c>
       <c r="D407" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E407" s="14"/>
       <c r="F407" s="14"/>
@@ -11256,7 +11261,7 @@
         <v>1</v>
       </c>
       <c r="D408" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E408" s="14"/>
       <c r="F408" s="14"/>
@@ -11275,7 +11280,7 @@
         <v>1</v>
       </c>
       <c r="D409" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E409" s="14"/>
       <c r="F409" s="14"/>
@@ -11294,7 +11299,7 @@
         <v>1</v>
       </c>
       <c r="D410" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E410" s="14"/>
       <c r="F410" s="14"/>
@@ -11313,7 +11318,7 @@
         <v>1</v>
       </c>
       <c r="D411" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E411" s="14"/>
       <c r="F411" s="14"/>
@@ -11332,7 +11337,7 @@
         <v>1</v>
       </c>
       <c r="D412" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E412" s="14"/>
       <c r="F412" s="14"/>
@@ -11351,7 +11356,7 @@
         <v>1</v>
       </c>
       <c r="D413" s="32" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="E413" s="14"/>
       <c r="F413" s="14"/>
@@ -11370,7 +11375,7 @@
         <v>1</v>
       </c>
       <c r="D414" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E414" s="14"/>
       <c r="F414" s="14"/>
@@ -11389,7 +11394,7 @@
         <v>1</v>
       </c>
       <c r="D415" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E415" s="14"/>
       <c r="F415" s="14"/>
@@ -11408,7 +11413,7 @@
         <v>1</v>
       </c>
       <c r="D416" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E416" s="14"/>
       <c r="F416" s="14"/>
@@ -11427,7 +11432,7 @@
         <v>1</v>
       </c>
       <c r="D417" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E417" s="14"/>
       <c r="F417" s="14"/>
@@ -11446,7 +11451,7 @@
         <v>1</v>
       </c>
       <c r="D418" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E418" s="14"/>
       <c r="F418" s="14"/>
@@ -11465,7 +11470,7 @@
         <v>1</v>
       </c>
       <c r="D419" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E419" s="14"/>
       <c r="F419" s="14"/>
@@ -11484,7 +11489,7 @@
         <v>1</v>
       </c>
       <c r="D420" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E420" s="14"/>
       <c r="F420" s="14"/>
@@ -11503,7 +11508,7 @@
         <v>1</v>
       </c>
       <c r="D421" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E421" s="14"/>
       <c r="F421" s="14"/>
@@ -11522,7 +11527,7 @@
         <v>1</v>
       </c>
       <c r="D422" s="32" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="E422" s="14"/>
       <c r="F422" s="14"/>
@@ -11541,7 +11546,7 @@
         <v>1</v>
       </c>
       <c r="D423" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E423" s="14"/>
       <c r="F423" s="14"/>
@@ -11560,7 +11565,7 @@
         <v>1</v>
       </c>
       <c r="D424" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E424" s="14"/>
       <c r="F424" s="14"/>
@@ -11579,7 +11584,7 @@
         <v>1</v>
       </c>
       <c r="D425" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E425" s="14"/>
       <c r="F425" s="14"/>
@@ -11598,7 +11603,7 @@
         <v>1</v>
       </c>
       <c r="D426" s="32" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="E426" s="14"/>
       <c r="F426" s="14"/>
@@ -11617,7 +11622,7 @@
         <v>1</v>
       </c>
       <c r="D427" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E427" s="14"/>
       <c r="F427" s="14"/>
@@ -11636,7 +11641,7 @@
         <v>1</v>
       </c>
       <c r="D428" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E428" s="14"/>
       <c r="F428" s="14"/>
@@ -11655,7 +11660,7 @@
         <v>1</v>
       </c>
       <c r="D429" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E429" s="14"/>
       <c r="F429" s="14"/>
@@ -11674,7 +11679,7 @@
         <v>1</v>
       </c>
       <c r="D430" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E430" s="14"/>
       <c r="F430" s="14"/>
@@ -11693,7 +11698,7 @@
         <v>1</v>
       </c>
       <c r="D431" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E431" s="14"/>
       <c r="F431" s="14"/>
@@ -11712,7 +11717,7 @@
         <v>1</v>
       </c>
       <c r="D432" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E432" s="14"/>
       <c r="F432" s="14"/>
@@ -11731,7 +11736,7 @@
         <v>1</v>
       </c>
       <c r="D433" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E433" s="14"/>
       <c r="F433" s="14"/>
@@ -11750,7 +11755,7 @@
         <v>1</v>
       </c>
       <c r="D434" s="32" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="E434" s="14"/>
       <c r="F434" s="14"/>
@@ -11769,7 +11774,7 @@
         <v>1</v>
       </c>
       <c r="D435" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E435" s="14"/>
       <c r="F435" s="14"/>
@@ -11788,7 +11793,7 @@
         <v>1</v>
       </c>
       <c r="D436" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E436" s="14"/>
       <c r="F436" s="14"/>
@@ -11807,7 +11812,7 @@
         <v>1</v>
       </c>
       <c r="D437" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E437" s="14"/>
       <c r="F437" s="14"/>
@@ -11826,7 +11831,7 @@
         <v>1</v>
       </c>
       <c r="D438" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E438" s="14"/>
       <c r="F438" s="14"/>
@@ -11845,7 +11850,7 @@
         <v>1</v>
       </c>
       <c r="D439" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E439" s="14"/>
       <c r="F439" s="14"/>
@@ -11864,7 +11869,7 @@
         <v>1</v>
       </c>
       <c r="D440" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E440" s="14"/>
       <c r="F440" s="14"/>
@@ -11883,7 +11888,7 @@
         <v>1</v>
       </c>
       <c r="D441" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E441" s="14"/>
       <c r="F441" s="14"/>
@@ -11902,7 +11907,7 @@
         <v>1</v>
       </c>
       <c r="D442" s="32" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="E442" s="14"/>
       <c r="F442" s="14"/>
@@ -11921,7 +11926,7 @@
         <v>1</v>
       </c>
       <c r="D443" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E443" s="14"/>
       <c r="F443" s="14"/>
@@ -11940,7 +11945,7 @@
         <v>1</v>
       </c>
       <c r="D444" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E444" s="14"/>
       <c r="F444" s="14"/>
@@ -11959,7 +11964,7 @@
         <v>1</v>
       </c>
       <c r="D445" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E445" s="14"/>
       <c r="F445" s="14"/>
@@ -11978,7 +11983,7 @@
         <v>1</v>
       </c>
       <c r="D446" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E446" s="14"/>
       <c r="F446" s="14"/>
@@ -11997,7 +12002,7 @@
         <v>1</v>
       </c>
       <c r="D447" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E447" s="14"/>
       <c r="F447" s="14"/>
@@ -12016,7 +12021,7 @@
         <v>1</v>
       </c>
       <c r="D448" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E448" s="14"/>
       <c r="F448" s="14"/>
@@ -12035,7 +12040,7 @@
         <v>1</v>
       </c>
       <c r="D449" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E449" s="14"/>
       <c r="F449" s="14"/>
@@ -12054,7 +12059,7 @@
         <v>1</v>
       </c>
       <c r="D450" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E450" s="14"/>
       <c r="F450" s="14"/>
@@ -12073,7 +12078,7 @@
         <v>1</v>
       </c>
       <c r="D451" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E451" s="14"/>
       <c r="F451" s="14"/>
@@ -12092,7 +12097,7 @@
         <v>1</v>
       </c>
       <c r="D452" s="32" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="E452" s="14"/>
       <c r="F452" s="14"/>
@@ -12111,7 +12116,7 @@
         <v>1</v>
       </c>
       <c r="D453" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E453" s="14"/>
       <c r="F453" s="14"/>
@@ -12130,7 +12135,7 @@
         <v>1</v>
       </c>
       <c r="D454" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E454" s="14"/>
       <c r="F454" s="14"/>
@@ -12149,7 +12154,7 @@
         <v>1</v>
       </c>
       <c r="D455" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E455" s="14"/>
       <c r="F455" s="14"/>
@@ -12168,7 +12173,7 @@
         <v>1</v>
       </c>
       <c r="D456" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E456" s="14"/>
       <c r="F456" s="14"/>
@@ -12187,7 +12192,7 @@
         <v>1</v>
       </c>
       <c r="D457" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E457" s="14"/>
       <c r="F457" s="14"/>
@@ -12206,7 +12211,7 @@
         <v>1</v>
       </c>
       <c r="D458" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E458" s="14"/>
       <c r="F458" s="14"/>
@@ -12225,7 +12230,7 @@
         <v>1</v>
       </c>
       <c r="D459" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E459" s="14"/>
       <c r="F459" s="14"/>
@@ -12244,7 +12249,7 @@
         <v>1</v>
       </c>
       <c r="D460" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E460" s="14"/>
       <c r="F460" s="14"/>
@@ -12263,7 +12268,7 @@
         <v>1</v>
       </c>
       <c r="D461" s="32" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="E461" s="14"/>
       <c r="F461" s="14"/>
@@ -12282,7 +12287,7 @@
         <v>1</v>
       </c>
       <c r="D462" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E462" s="14"/>
       <c r="F462" s="14"/>
@@ -12301,7 +12306,7 @@
         <v>1</v>
       </c>
       <c r="D463" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E463" s="14"/>
       <c r="F463" s="14"/>
@@ -12320,7 +12325,7 @@
         <v>1</v>
       </c>
       <c r="D464" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E464" s="14"/>
       <c r="F464" s="14"/>
@@ -12339,7 +12344,7 @@
         <v>1</v>
       </c>
       <c r="D465" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E465" s="14"/>
       <c r="F465" s="14"/>
@@ -12358,7 +12363,7 @@
         <v>1</v>
       </c>
       <c r="D466" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E466" s="14"/>
       <c r="F466" s="14"/>
@@ -12377,7 +12382,7 @@
         <v>1</v>
       </c>
       <c r="D467" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E467" s="14"/>
       <c r="F467" s="14"/>
@@ -12396,7 +12401,7 @@
         <v>1</v>
       </c>
       <c r="D468" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E468" s="14"/>
       <c r="F468" s="14"/>
@@ -12415,7 +12420,7 @@
         <v>1</v>
       </c>
       <c r="D469" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E469" s="14"/>
       <c r="F469" s="14"/>
@@ -12434,7 +12439,7 @@
         <v>1</v>
       </c>
       <c r="D470" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E470" s="14"/>
       <c r="F470" s="14"/>
@@ -12453,7 +12458,7 @@
         <v>1</v>
       </c>
       <c r="D471" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E471" s="14"/>
       <c r="F471" s="14"/>
@@ -12472,7 +12477,7 @@
         <v>1</v>
       </c>
       <c r="D472" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E472" s="14"/>
       <c r="F472" s="14"/>
@@ -12491,7 +12496,7 @@
         <v>1</v>
       </c>
       <c r="D473" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E473" s="14"/>
       <c r="F473" s="14"/>
@@ -12510,7 +12515,7 @@
         <v>1</v>
       </c>
       <c r="D474" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E474" s="14"/>
       <c r="F474" s="14"/>
@@ -12529,7 +12534,7 @@
         <v>1</v>
       </c>
       <c r="D475" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E475" s="14"/>
       <c r="F475" s="14"/>
@@ -12548,7 +12553,7 @@
         <v>1</v>
       </c>
       <c r="D476" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E476" s="14"/>
       <c r="F476" s="14"/>
@@ -12567,7 +12572,7 @@
         <v>1</v>
       </c>
       <c r="D477" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E477" s="14"/>
       <c r="F477" s="14"/>
@@ -12586,7 +12591,7 @@
         <v>1</v>
       </c>
       <c r="D478" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E478" s="14"/>
       <c r="F478" s="14"/>
@@ -12605,7 +12610,7 @@
         <v>1</v>
       </c>
       <c r="D479" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E479" s="14"/>
       <c r="F479" s="14"/>
@@ -12624,7 +12629,7 @@
         <v>1</v>
       </c>
       <c r="D480" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E480" s="14"/>
       <c r="F480" s="14"/>
@@ -12643,7 +12648,7 @@
         <v>1</v>
       </c>
       <c r="D481" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E481" s="14"/>
       <c r="F481" s="14"/>
@@ -12662,7 +12667,7 @@
         <v>1</v>
       </c>
       <c r="D482" s="32" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="E482" s="14"/>
       <c r="F482" s="14"/>
@@ -12681,7 +12686,7 @@
         <v>1</v>
       </c>
       <c r="D483" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E483" s="14"/>
       <c r="F483" s="14"/>
@@ -12700,7 +12705,7 @@
         <v>1</v>
       </c>
       <c r="D484" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E484" s="14"/>
       <c r="F484" s="14"/>
@@ -12719,7 +12724,7 @@
         <v>1</v>
       </c>
       <c r="D485" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E485" s="14"/>
       <c r="F485" s="14"/>
@@ -12738,7 +12743,7 @@
         <v>1</v>
       </c>
       <c r="D486" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E486" s="14"/>
       <c r="F486" s="14"/>
@@ -12757,7 +12762,7 @@
         <v>1</v>
       </c>
       <c r="D487" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E487" s="14"/>
       <c r="F487" s="14"/>
@@ -12776,7 +12781,7 @@
         <v>1</v>
       </c>
       <c r="D488" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E488" s="14"/>
       <c r="F488" s="14"/>
@@ -12795,7 +12800,7 @@
         <v>1</v>
       </c>
       <c r="D489" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E489" s="14"/>
       <c r="F489" s="14"/>
@@ -12814,7 +12819,7 @@
         <v>1</v>
       </c>
       <c r="D490" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E490" s="14"/>
       <c r="F490" s="14"/>
@@ -12833,7 +12838,7 @@
         <v>1</v>
       </c>
       <c r="D491" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E491" s="14"/>
       <c r="F491" s="14"/>
@@ -12852,7 +12857,7 @@
         <v>1</v>
       </c>
       <c r="D492" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E492" s="14"/>
       <c r="F492" s="14"/>
@@ -12871,7 +12876,7 @@
         <v>1</v>
       </c>
       <c r="D493" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E493" s="14"/>
       <c r="F493" s="14"/>
@@ -12890,7 +12895,7 @@
         <v>1</v>
       </c>
       <c r="D494" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E494" s="14"/>
       <c r="F494" s="14"/>
@@ -12909,7 +12914,7 @@
         <v>1</v>
       </c>
       <c r="D495" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E495" s="14"/>
       <c r="F495" s="14"/>
@@ -12928,7 +12933,7 @@
         <v>1</v>
       </c>
       <c r="D496" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E496" s="14"/>
       <c r="F496" s="14"/>
@@ -12947,7 +12952,7 @@
         <v>1</v>
       </c>
       <c r="D497" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E497" s="14"/>
       <c r="F497" s="14"/>
@@ -12966,7 +12971,7 @@
         <v>1</v>
       </c>
       <c r="D498" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E498" s="14"/>
       <c r="F498" s="14"/>
@@ -12985,7 +12990,7 @@
         <v>1</v>
       </c>
       <c r="D499" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E499" s="14"/>
       <c r="F499" s="14"/>
@@ -13004,7 +13009,7 @@
         <v>1</v>
       </c>
       <c r="D500" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E500" s="14"/>
       <c r="F500" s="14"/>
@@ -13023,7 +13028,7 @@
         <v>1</v>
       </c>
       <c r="D501" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E501" s="14"/>
       <c r="F501" s="14"/>
@@ -13042,7 +13047,7 @@
         <v>1</v>
       </c>
       <c r="D502" s="32" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="E502" s="14"/>
       <c r="F502" s="14"/>
@@ -13061,7 +13066,7 @@
         <v>1</v>
       </c>
       <c r="D503" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E503" s="14"/>
       <c r="F503" s="14"/>
@@ -13080,7 +13085,7 @@
         <v>1</v>
       </c>
       <c r="D504" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E504" s="14"/>
       <c r="F504" s="14"/>
@@ -13099,7 +13104,7 @@
         <v>1</v>
       </c>
       <c r="D505" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E505" s="14"/>
       <c r="F505" s="14"/>
@@ -13118,7 +13123,7 @@
         <v>1</v>
       </c>
       <c r="D506" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E506" s="14"/>
       <c r="F506" s="14"/>
@@ -13137,7 +13142,7 @@
         <v>1</v>
       </c>
       <c r="D507" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E507" s="14"/>
       <c r="F507" s="14"/>
@@ -13156,7 +13161,7 @@
         <v>1</v>
       </c>
       <c r="D508" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E508" s="14"/>
       <c r="F508" s="14"/>
@@ -13175,7 +13180,7 @@
         <v>1</v>
       </c>
       <c r="D509" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E509" s="14"/>
       <c r="F509" s="14"/>
@@ -13194,7 +13199,7 @@
         <v>1</v>
       </c>
       <c r="D510" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E510" s="14"/>
       <c r="F510" s="14"/>
@@ -13213,7 +13218,7 @@
         <v>1</v>
       </c>
       <c r="D511" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E511" s="14"/>
       <c r="F511" s="14"/>
@@ -13232,7 +13237,7 @@
         <v>1</v>
       </c>
       <c r="D512" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E512" s="14"/>
       <c r="F512" s="14"/>
@@ -13251,7 +13256,7 @@
         <v>1</v>
       </c>
       <c r="D513" s="32" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="E513" s="14"/>
       <c r="F513" s="14"/>
@@ -13270,7 +13275,7 @@
         <v>1</v>
       </c>
       <c r="D514" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E514" s="14"/>
       <c r="F514" s="14"/>
@@ -13289,7 +13294,7 @@
         <v>1</v>
       </c>
       <c r="D515" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E515" s="14"/>
       <c r="F515" s="14"/>
@@ -13308,7 +13313,7 @@
         <v>1</v>
       </c>
       <c r="D516" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E516" s="14"/>
       <c r="F516" s="14"/>
@@ -13327,7 +13332,7 @@
         <v>1</v>
       </c>
       <c r="D517" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E517" s="14"/>
       <c r="F517" s="14"/>
@@ -13346,7 +13351,7 @@
         <v>1</v>
       </c>
       <c r="D518" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E518" s="14"/>
       <c r="F518" s="14"/>
@@ -13365,7 +13370,7 @@
         <v>1</v>
       </c>
       <c r="D519" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E519" s="14"/>
       <c r="F519" s="14"/>
@@ -13384,7 +13389,7 @@
         <v>1</v>
       </c>
       <c r="D520" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E520" s="14"/>
       <c r="F520" s="14"/>
@@ -13403,7 +13408,7 @@
         <v>1</v>
       </c>
       <c r="D521" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E521" s="14"/>
       <c r="F521" s="14"/>
@@ -13422,7 +13427,7 @@
         <v>1</v>
       </c>
       <c r="D522" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E522" s="14"/>
       <c r="F522" s="14"/>
@@ -13441,7 +13446,7 @@
         <v>1</v>
       </c>
       <c r="D523" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E523" s="14"/>
       <c r="F523" s="14"/>
@@ -13460,7 +13465,7 @@
         <v>1</v>
       </c>
       <c r="D524" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E524" s="14"/>
       <c r="F524" s="14"/>
@@ -13479,7 +13484,7 @@
         <v>1</v>
       </c>
       <c r="D525" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E525" s="14"/>
       <c r="F525" s="14"/>
@@ -13498,7 +13503,7 @@
         <v>1</v>
       </c>
       <c r="D526" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E526" s="14"/>
       <c r="F526" s="14"/>
@@ -13517,7 +13522,7 @@
         <v>1</v>
       </c>
       <c r="D527" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E527" s="14"/>
       <c r="F527" s="14"/>
@@ -13536,7 +13541,7 @@
         <v>1</v>
       </c>
       <c r="D528" s="32" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="E528" s="14"/>
       <c r="F528" s="14"/>
@@ -13555,7 +13560,7 @@
         <v>1</v>
       </c>
       <c r="D529" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E529" s="14"/>
       <c r="F529" s="14"/>
@@ -13574,7 +13579,7 @@
         <v>1</v>
       </c>
       <c r="D530" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E530" s="14"/>
       <c r="F530" s="14"/>
@@ -13593,7 +13598,7 @@
         <v>1</v>
       </c>
       <c r="D531" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E531" s="14"/>
       <c r="F531" s="14"/>
@@ -13612,7 +13617,7 @@
         <v>1</v>
       </c>
       <c r="D532" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E532" s="14"/>
       <c r="F532" s="14"/>
@@ -13631,7 +13636,7 @@
         <v>1</v>
       </c>
       <c r="D533" s="32" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="E533" s="14"/>
       <c r="F533" s="14"/>
@@ -13650,7 +13655,7 @@
         <v>1</v>
       </c>
       <c r="D534" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E534" s="14"/>
       <c r="F534" s="14"/>
@@ -13669,7 +13674,7 @@
         <v>1</v>
       </c>
       <c r="D535" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E535" s="14"/>
       <c r="F535" s="14"/>
@@ -13688,7 +13693,7 @@
         <v>1</v>
       </c>
       <c r="D536" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E536" s="14"/>
       <c r="F536" s="14"/>
@@ -13707,7 +13712,7 @@
         <v>1</v>
       </c>
       <c r="D537" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E537" s="14"/>
       <c r="F537" s="14"/>
@@ -13726,7 +13731,7 @@
         <v>1</v>
       </c>
       <c r="D538" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E538" s="14"/>
       <c r="F538" s="14"/>
@@ -13745,7 +13750,7 @@
         <v>1</v>
       </c>
       <c r="D539" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E539" s="14"/>
       <c r="F539" s="14"/>
@@ -13764,7 +13769,7 @@
         <v>1</v>
       </c>
       <c r="D540" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E540" s="14"/>
       <c r="F540" s="14"/>
@@ -13783,7 +13788,7 @@
         <v>1</v>
       </c>
       <c r="D541" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E541" s="14"/>
       <c r="F541" s="14"/>
@@ -13802,7 +13807,7 @@
         <v>1</v>
       </c>
       <c r="D542" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E542" s="14"/>
       <c r="F542" s="14"/>
@@ -13821,7 +13826,7 @@
         <v>1</v>
       </c>
       <c r="D543" s="32" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="E543" s="14"/>
       <c r="F543" s="14"/>
@@ -13840,7 +13845,7 @@
         <v>1</v>
       </c>
       <c r="D544" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E544" s="14"/>
       <c r="F544" s="14"/>
@@ -13859,7 +13864,7 @@
         <v>1</v>
       </c>
       <c r="D545" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E545" s="14"/>
       <c r="F545" s="14"/>
@@ -13878,7 +13883,7 @@
         <v>1</v>
       </c>
       <c r="D546" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E546" s="14"/>
       <c r="F546" s="14"/>
@@ -13897,7 +13902,7 @@
         <v>1</v>
       </c>
       <c r="D547" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E547" s="14"/>
       <c r="F547" s="14"/>
@@ -13916,7 +13921,7 @@
         <v>1</v>
       </c>
       <c r="D548" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E548" s="14"/>
       <c r="F548" s="14"/>
@@ -13935,7 +13940,7 @@
         <v>1</v>
       </c>
       <c r="D549" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E549" s="14"/>
       <c r="F549" s="14"/>
@@ -13954,7 +13959,7 @@
         <v>1</v>
       </c>
       <c r="D550" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E550" s="14"/>
       <c r="F550" s="14"/>
@@ -13973,7 +13978,7 @@
         <v>1</v>
       </c>
       <c r="D551" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E551" s="14"/>
       <c r="F551" s="14"/>
@@ -13992,7 +13997,7 @@
         <v>1</v>
       </c>
       <c r="D552" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E552" s="14"/>
       <c r="F552" s="14"/>
@@ -14011,7 +14016,7 @@
         <v>1</v>
       </c>
       <c r="D553" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E553" s="14"/>
       <c r="F553" s="14"/>
@@ -14030,7 +14035,7 @@
         <v>1</v>
       </c>
       <c r="D554" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E554" s="14"/>
       <c r="F554" s="14"/>
@@ -14049,7 +14054,7 @@
         <v>1</v>
       </c>
       <c r="D555" s="32" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="E555" s="14"/>
       <c r="F555" s="14"/>
@@ -14068,7 +14073,7 @@
         <v>1</v>
       </c>
       <c r="D556" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E556" s="14"/>
       <c r="F556" s="14"/>
@@ -14087,7 +14092,7 @@
         <v>1</v>
       </c>
       <c r="D557" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E557" s="14"/>
       <c r="F557" s="14"/>
@@ -14106,7 +14111,7 @@
         <v>1</v>
       </c>
       <c r="D558" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E558" s="14"/>
       <c r="F558" s="14"/>
@@ -14125,7 +14130,7 @@
         <v>1</v>
       </c>
       <c r="D559" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E559" s="14"/>
       <c r="F559" s="14"/>
@@ -14144,7 +14149,7 @@
         <v>1</v>
       </c>
       <c r="D560" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E560" s="14"/>
       <c r="F560" s="14"/>
@@ -14163,7 +14168,7 @@
         <v>1</v>
       </c>
       <c r="D561" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E561" s="14"/>
       <c r="F561" s="14"/>
@@ -14182,7 +14187,7 @@
         <v>1</v>
       </c>
       <c r="D562" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E562" s="14"/>
       <c r="F562" s="14"/>
@@ -14201,7 +14206,7 @@
         <v>1</v>
       </c>
       <c r="D563" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E563" s="14"/>
       <c r="F563" s="14"/>
@@ -14220,7 +14225,7 @@
         <v>1</v>
       </c>
       <c r="D564" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E564" s="14"/>
       <c r="F564" s="14"/>
@@ -14239,7 +14244,7 @@
         <v>1</v>
       </c>
       <c r="D565" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E565" s="14"/>
       <c r="F565" s="14"/>
@@ -14258,7 +14263,7 @@
         <v>1</v>
       </c>
       <c r="D566" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E566" s="14"/>
       <c r="F566" s="14"/>
@@ -14277,7 +14282,7 @@
         <v>1</v>
       </c>
       <c r="D567" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E567" s="14"/>
       <c r="F567" s="14"/>
@@ -14296,7 +14301,7 @@
         <v>1</v>
       </c>
       <c r="D568" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E568" s="14"/>
       <c r="F568" s="14"/>
@@ -14315,7 +14320,7 @@
         <v>1</v>
       </c>
       <c r="D569" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E569" s="14"/>
       <c r="F569" s="14"/>
@@ -14334,7 +14339,7 @@
         <v>1</v>
       </c>
       <c r="D570" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E570" s="14"/>
       <c r="F570" s="14"/>
@@ -14353,7 +14358,7 @@
         <v>1</v>
       </c>
       <c r="D571" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E571" s="14"/>
       <c r="F571" s="14"/>
@@ -14372,7 +14377,7 @@
         <v>1</v>
       </c>
       <c r="D572" s="32" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="E572" s="14"/>
       <c r="F572" s="14"/>
@@ -14391,7 +14396,7 @@
         <v>1</v>
       </c>
       <c r="D573" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E573" s="14"/>
       <c r="F573" s="14"/>
@@ -14410,7 +14415,7 @@
         <v>1</v>
       </c>
       <c r="D574" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E574" s="14"/>
       <c r="F574" s="14"/>
@@ -14429,7 +14434,7 @@
         <v>1</v>
       </c>
       <c r="D575" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E575" s="14"/>
       <c r="F575" s="14"/>
@@ -14448,7 +14453,7 @@
         <v>1</v>
       </c>
       <c r="D576" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E576" s="14"/>
       <c r="F576" s="14"/>
@@ -14467,7 +14472,7 @@
         <v>1</v>
       </c>
       <c r="D577" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E577" s="14"/>
       <c r="F577" s="14"/>
@@ -14486,7 +14491,7 @@
         <v>1</v>
       </c>
       <c r="D578" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E578" s="14"/>
       <c r="F578" s="14"/>
@@ -14505,7 +14510,7 @@
         <v>1</v>
       </c>
       <c r="D579" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E579" s="14"/>
       <c r="F579" s="14"/>
@@ -14524,7 +14529,7 @@
         <v>1</v>
       </c>
       <c r="D580" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E580" s="14"/>
       <c r="F580" s="14"/>
@@ -14543,7 +14548,7 @@
         <v>1</v>
       </c>
       <c r="D581" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E581" s="14"/>
       <c r="F581" s="14"/>
@@ -14562,7 +14567,7 @@
         <v>1</v>
       </c>
       <c r="D582" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E582" s="14"/>
       <c r="F582" s="14"/>
@@ -14581,7 +14586,7 @@
         <v>1</v>
       </c>
       <c r="D583" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E583" s="14"/>
       <c r="F583" s="14"/>
@@ -14600,7 +14605,7 @@
         <v>1</v>
       </c>
       <c r="D584" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E584" s="14"/>
       <c r="F584" s="14"/>
@@ -14619,7 +14624,7 @@
         <v>1</v>
       </c>
       <c r="D585" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E585" s="14"/>
       <c r="F585" s="14"/>
@@ -14638,7 +14643,7 @@
         <v>1</v>
       </c>
       <c r="D586" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E586" s="14"/>
       <c r="F586" s="14"/>
@@ -14657,7 +14662,7 @@
         <v>1</v>
       </c>
       <c r="D587" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E587" s="14"/>
       <c r="F587" s="14"/>
@@ -14676,7 +14681,7 @@
         <v>1</v>
       </c>
       <c r="D588" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E588" s="14"/>
       <c r="F588" s="14"/>
@@ -14695,7 +14700,7 @@
         <v>1</v>
       </c>
       <c r="D589" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E589" s="14"/>
       <c r="F589" s="14"/>
@@ -14714,7 +14719,7 @@
         <v>1</v>
       </c>
       <c r="D590" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E590" s="14"/>
       <c r="F590" s="14"/>
@@ -14733,7 +14738,7 @@
         <v>1</v>
       </c>
       <c r="D591" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E591" s="14"/>
       <c r="F591" s="14"/>
@@ -14752,7 +14757,7 @@
         <v>1</v>
       </c>
       <c r="D592" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E592" s="14"/>
       <c r="F592" s="14"/>
@@ -14771,7 +14776,7 @@
         <v>1</v>
       </c>
       <c r="D593" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E593" s="14"/>
       <c r="F593" s="14"/>
@@ -14790,7 +14795,7 @@
         <v>1</v>
       </c>
       <c r="D594" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E594" s="14"/>
       <c r="F594" s="14"/>
@@ -14809,7 +14814,7 @@
         <v>1</v>
       </c>
       <c r="D595" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E595" s="14"/>
       <c r="F595" s="14"/>
@@ -14828,7 +14833,7 @@
         <v>1</v>
       </c>
       <c r="D596" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E596" s="14"/>
       <c r="F596" s="14"/>
@@ -14847,7 +14852,7 @@
         <v>1</v>
       </c>
       <c r="D597" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E597" s="14"/>
       <c r="F597" s="14"/>
@@ -14866,7 +14871,7 @@
         <v>1</v>
       </c>
       <c r="D598" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E598" s="14"/>
       <c r="F598" s="14"/>
@@ -14885,7 +14890,7 @@
         <v>1</v>
       </c>
       <c r="D599" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E599" s="14"/>
       <c r="F599" s="14"/>
@@ -14904,7 +14909,7 @@
         <v>1</v>
       </c>
       <c r="D600" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E600" s="14"/>
       <c r="F600" s="14"/>
@@ -14923,7 +14928,7 @@
         <v>1</v>
       </c>
       <c r="D601" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E601" s="14"/>
       <c r="F601" s="14"/>
@@ -14942,7 +14947,7 @@
         <v>1</v>
       </c>
       <c r="D602" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E602" s="14"/>
       <c r="F602" s="14"/>
@@ -14961,7 +14966,7 @@
         <v>1</v>
       </c>
       <c r="D603" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E603" s="14"/>
       <c r="F603" s="14"/>
@@ -14980,7 +14985,7 @@
         <v>1</v>
       </c>
       <c r="D604" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E604" s="14"/>
       <c r="F604" s="14"/>
@@ -14999,7 +15004,7 @@
         <v>1</v>
       </c>
       <c r="D605" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E605" s="14"/>
       <c r="F605" s="14"/>
@@ -15018,7 +15023,7 @@
         <v>1</v>
       </c>
       <c r="D606" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E606" s="14"/>
       <c r="F606" s="14"/>
@@ -15037,7 +15042,7 @@
         <v>1</v>
       </c>
       <c r="D607" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E607" s="14"/>
       <c r="F607" s="14"/>
@@ -15056,7 +15061,7 @@
         <v>1</v>
       </c>
       <c r="D608" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E608" s="14"/>
       <c r="F608" s="14"/>
@@ -15075,7 +15080,7 @@
         <v>1</v>
       </c>
       <c r="D609" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E609" s="14"/>
       <c r="F609" s="14"/>
@@ -15094,7 +15099,7 @@
         <v>1</v>
       </c>
       <c r="D610" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E610" s="14"/>
       <c r="F610" s="14"/>
@@ -15113,7 +15118,7 @@
         <v>1</v>
       </c>
       <c r="D611" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E611" s="14"/>
       <c r="F611" s="14"/>
@@ -15132,7 +15137,7 @@
         <v>1</v>
       </c>
       <c r="D612" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E612" s="14"/>
       <c r="F612" s="14"/>
@@ -15151,7 +15156,7 @@
         <v>1</v>
       </c>
       <c r="D613" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E613" s="14"/>
       <c r="F613" s="14"/>
@@ -15170,7 +15175,7 @@
         <v>1</v>
       </c>
       <c r="D614" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E614" s="14"/>
       <c r="F614" s="14"/>
@@ -15189,7 +15194,7 @@
         <v>1</v>
       </c>
       <c r="D615" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E615" s="14"/>
       <c r="F615" s="14"/>
@@ -15208,7 +15213,7 @@
         <v>1</v>
       </c>
       <c r="D616" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E616" s="14"/>
       <c r="F616" s="14"/>
@@ -15227,7 +15232,7 @@
         <v>1</v>
       </c>
       <c r="D617" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E617" s="14"/>
       <c r="F617" s="14"/>
@@ -15246,7 +15251,7 @@
         <v>1</v>
       </c>
       <c r="D618" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E618" s="14"/>
       <c r="F618" s="14"/>
@@ -15265,7 +15270,7 @@
         <v>1</v>
       </c>
       <c r="D619" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E619" s="14"/>
       <c r="F619" s="14"/>
@@ -15284,7 +15289,7 @@
         <v>1</v>
       </c>
       <c r="D620" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E620" s="14"/>
       <c r="F620" s="14"/>
@@ -15303,7 +15308,7 @@
         <v>1</v>
       </c>
       <c r="D621" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E621" s="14"/>
       <c r="F621" s="14"/>
@@ -15322,7 +15327,7 @@
         <v>1</v>
       </c>
       <c r="D622" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E622" s="14"/>
       <c r="F622" s="14"/>
@@ -15341,7 +15346,7 @@
         <v>1</v>
       </c>
       <c r="D623" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E623" s="14"/>
       <c r="F623" s="14"/>
@@ -15360,7 +15365,7 @@
         <v>1</v>
       </c>
       <c r="D624" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E624" s="14"/>
       <c r="F624" s="14"/>
@@ -15379,7 +15384,7 @@
         <v>1</v>
       </c>
       <c r="D625" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E625" s="14"/>
       <c r="F625" s="14"/>
@@ -15398,7 +15403,7 @@
         <v>1</v>
       </c>
       <c r="D626" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E626" s="14"/>
       <c r="F626" s="14"/>
@@ -15417,7 +15422,7 @@
         <v>1</v>
       </c>
       <c r="D627" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E627" s="14"/>
       <c r="F627" s="14"/>
@@ -15436,7 +15441,7 @@
         <v>1</v>
       </c>
       <c r="D628" s="32" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="E628" s="14"/>
       <c r="F628" s="14"/>
@@ -15455,7 +15460,7 @@
         <v>1</v>
       </c>
       <c r="D629" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E629" s="14"/>
       <c r="F629" s="14"/>
@@ -15474,7 +15479,7 @@
         <v>1</v>
       </c>
       <c r="D630" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E630" s="14"/>
       <c r="F630" s="14"/>
@@ -15493,7 +15498,7 @@
         <v>1</v>
       </c>
       <c r="D631" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E631" s="14"/>
       <c r="F631" s="14"/>
@@ -15512,7 +15517,7 @@
         <v>1</v>
       </c>
       <c r="D632" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E632" s="14"/>
       <c r="F632" s="14"/>
@@ -15531,7 +15536,7 @@
         <v>1</v>
       </c>
       <c r="D633" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E633" s="14"/>
       <c r="F633" s="14"/>
@@ -15550,7 +15555,7 @@
         <v>1</v>
       </c>
       <c r="D634" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E634" s="14"/>
       <c r="F634" s="14"/>
@@ -15569,7 +15574,7 @@
         <v>1</v>
       </c>
       <c r="D635" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E635" s="14"/>
       <c r="F635" s="14"/>
@@ -15588,7 +15593,7 @@
         <v>1</v>
       </c>
       <c r="D636" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E636" s="14"/>
       <c r="F636" s="14"/>
@@ -15607,7 +15612,7 @@
         <v>1</v>
       </c>
       <c r="D637" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E637" s="14"/>
       <c r="F637" s="14"/>
@@ -15626,7 +15631,7 @@
         <v>1</v>
       </c>
       <c r="D638" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E638" s="14"/>
       <c r="F638" s="14"/>
@@ -15645,7 +15650,7 @@
         <v>1</v>
       </c>
       <c r="D639" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E639" s="14"/>
       <c r="F639" s="14"/>
@@ -15664,7 +15669,7 @@
         <v>1</v>
       </c>
       <c r="D640" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E640" s="14"/>
       <c r="F640" s="14"/>
@@ -15683,7 +15688,7 @@
         <v>1</v>
       </c>
       <c r="D641" s="32" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="E641" s="14"/>
       <c r="F641" s="14"/>
@@ -15702,7 +15707,7 @@
         <v>1</v>
       </c>
       <c r="D642" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E642" s="14"/>
       <c r="F642" s="14"/>
@@ -15721,7 +15726,7 @@
         <v>1</v>
       </c>
       <c r="D643" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E643" s="14"/>
       <c r="F643" s="14"/>
@@ -15740,7 +15745,7 @@
         <v>1</v>
       </c>
       <c r="D644" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E644" s="14"/>
       <c r="F644" s="14"/>
@@ -15759,7 +15764,7 @@
         <v>1</v>
       </c>
       <c r="D645" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E645" s="14"/>
       <c r="F645" s="14"/>
@@ -15778,7 +15783,7 @@
         <v>1</v>
       </c>
       <c r="D646" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E646" s="14"/>
       <c r="F646" s="14"/>
@@ -15797,7 +15802,7 @@
         <v>1</v>
       </c>
       <c r="D647" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E647" s="14"/>
       <c r="F647" s="14"/>
@@ -15816,7 +15821,7 @@
         <v>1</v>
       </c>
       <c r="D648" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E648" s="14"/>
       <c r="F648" s="14"/>
@@ -15835,7 +15840,7 @@
         <v>1</v>
       </c>
       <c r="D649" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E649" s="14"/>
       <c r="F649" s="14"/>
@@ -15854,7 +15859,7 @@
         <v>1</v>
       </c>
       <c r="D650" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E650" s="14"/>
       <c r="F650" s="14"/>
@@ -15873,7 +15878,7 @@
         <v>1</v>
       </c>
       <c r="D651" s="32" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="E651" s="14"/>
       <c r="F651" s="14"/>
@@ -15892,7 +15897,7 @@
         <v>1</v>
       </c>
       <c r="D652" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E652" s="14"/>
       <c r="F652" s="14"/>
@@ -15911,7 +15916,7 @@
         <v>1</v>
       </c>
       <c r="D653" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E653" s="14"/>
       <c r="F653" s="14"/>
@@ -15930,7 +15935,7 @@
         <v>1</v>
       </c>
       <c r="D654" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E654" s="14"/>
       <c r="F654" s="14"/>
@@ -15949,7 +15954,7 @@
         <v>1</v>
       </c>
       <c r="D655" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E655" s="14"/>
       <c r="F655" s="14"/>
@@ -15968,7 +15973,7 @@
         <v>1</v>
       </c>
       <c r="D656" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E656" s="14"/>
       <c r="F656" s="14"/>
@@ -15987,7 +15992,7 @@
         <v>1</v>
       </c>
       <c r="D657" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E657" s="14"/>
       <c r="F657" s="14"/>
@@ -16006,7 +16011,7 @@
         <v>1</v>
       </c>
       <c r="D658" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E658" s="14"/>
       <c r="F658" s="14"/>
@@ -16025,7 +16030,7 @@
         <v>1</v>
       </c>
       <c r="D659" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E659" s="14"/>
       <c r="F659" s="14"/>
@@ -16044,7 +16049,7 @@
         <v>1</v>
       </c>
       <c r="D660" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E660" s="14"/>
       <c r="F660" s="14"/>
@@ -16063,7 +16068,7 @@
         <v>1</v>
       </c>
       <c r="D661" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E661" s="14"/>
       <c r="F661" s="14"/>
@@ -16082,7 +16087,7 @@
         <v>1</v>
       </c>
       <c r="D662" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E662" s="14"/>
       <c r="F662" s="14"/>
@@ -16101,7 +16106,7 @@
         <v>1</v>
       </c>
       <c r="D663" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E663" s="14"/>
       <c r="F663" s="14"/>
@@ -16120,7 +16125,7 @@
         <v>1</v>
       </c>
       <c r="D664" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E664" s="14"/>
       <c r="F664" s="14"/>
@@ -16139,7 +16144,7 @@
         <v>1</v>
       </c>
       <c r="D665" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E665" s="14"/>
       <c r="F665" s="14"/>
@@ -16158,7 +16163,7 @@
         <v>1</v>
       </c>
       <c r="D666" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E666" s="14"/>
       <c r="F666" s="14"/>
@@ -16177,7 +16182,7 @@
         <v>1</v>
       </c>
       <c r="D667" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E667" s="14"/>
       <c r="F667" s="14"/>
@@ -16196,7 +16201,7 @@
         <v>1</v>
       </c>
       <c r="D668" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E668" s="14"/>
       <c r="F668" s="14"/>
@@ -16215,7 +16220,7 @@
         <v>1</v>
       </c>
       <c r="D669" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E669" s="14"/>
       <c r="F669" s="14"/>
@@ -16234,7 +16239,7 @@
         <v>1</v>
       </c>
       <c r="D670" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E670" s="14"/>
       <c r="F670" s="14"/>
@@ -16253,7 +16258,7 @@
         <v>1</v>
       </c>
       <c r="D671" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E671" s="14"/>
       <c r="F671" s="14"/>
@@ -16272,7 +16277,7 @@
         <v>1</v>
       </c>
       <c r="D672" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E672" s="14"/>
       <c r="F672" s="14"/>
@@ -16291,7 +16296,7 @@
         <v>1</v>
       </c>
       <c r="D673" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E673" s="14"/>
       <c r="F673" s="14"/>
@@ -16310,7 +16315,7 @@
         <v>1</v>
       </c>
       <c r="D674" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E674" s="14"/>
       <c r="F674" s="14"/>
@@ -16329,7 +16334,7 @@
         <v>1</v>
       </c>
       <c r="D675" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E675" s="14"/>
       <c r="F675" s="14"/>
@@ -16348,7 +16353,7 @@
         <v>1</v>
       </c>
       <c r="D676" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E676" s="14"/>
       <c r="F676" s="14"/>
@@ -16367,7 +16372,7 @@
         <v>1</v>
       </c>
       <c r="D677" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E677" s="14"/>
       <c r="F677" s="14"/>
@@ -16386,7 +16391,7 @@
         <v>1</v>
       </c>
       <c r="D678" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E678" s="14"/>
       <c r="F678" s="14"/>
@@ -16405,7 +16410,7 @@
         <v>1</v>
       </c>
       <c r="D679" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E679" s="14"/>
       <c r="F679" s="14"/>
@@ -16424,7 +16429,7 @@
         <v>1</v>
       </c>
       <c r="D680" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E680" s="14"/>
       <c r="F680" s="14"/>
@@ -16443,7 +16448,7 @@
         <v>1</v>
       </c>
       <c r="D681" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E681" s="14"/>
       <c r="F681" s="14"/>
@@ -16462,7 +16467,7 @@
         <v>1</v>
       </c>
       <c r="D682" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E682" s="14"/>
       <c r="F682" s="14"/>
@@ -16481,7 +16486,7 @@
         <v>1</v>
       </c>
       <c r="D683" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E683" s="14"/>
       <c r="F683" s="14"/>
@@ -16500,7 +16505,7 @@
         <v>1</v>
       </c>
       <c r="D684" s="32" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="E684" s="14"/>
       <c r="F684" s="14"/>
@@ -16519,7 +16524,7 @@
         <v>1</v>
       </c>
       <c r="D685" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E685" s="14"/>
       <c r="F685" s="14"/>
@@ -16538,7 +16543,7 @@
         <v>1</v>
       </c>
       <c r="D686" s="32" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="E686" s="14"/>
       <c r="F686" s="14"/>
@@ -16557,7 +16562,7 @@
         <v>1</v>
       </c>
       <c r="D687" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E687" s="14"/>
       <c r="F687" s="14"/>
@@ -16576,7 +16581,7 @@
         <v>1</v>
       </c>
       <c r="D688" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E688" s="14"/>
       <c r="F688" s="14"/>
@@ -16595,7 +16600,7 @@
         <v>1</v>
       </c>
       <c r="D689" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E689" s="14"/>
       <c r="F689" s="14"/>
@@ -16614,7 +16619,7 @@
         <v>1</v>
       </c>
       <c r="D690" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E690" s="14"/>
       <c r="F690" s="14"/>
@@ -16633,7 +16638,7 @@
         <v>1</v>
       </c>
       <c r="D691" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E691" s="14"/>
       <c r="F691" s="14"/>
@@ -16652,7 +16657,7 @@
         <v>1</v>
       </c>
       <c r="D692" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E692" s="14"/>
       <c r="F692" s="14"/>
@@ -16671,7 +16676,7 @@
         <v>1</v>
       </c>
       <c r="D693" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E693" s="14"/>
       <c r="F693" s="14"/>
@@ -16690,7 +16695,7 @@
         <v>1</v>
       </c>
       <c r="D694" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E694" s="14"/>
       <c r="F694" s="14"/>
@@ -16709,7 +16714,7 @@
         <v>1</v>
       </c>
       <c r="D695" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E695" s="14"/>
       <c r="F695" s="14"/>
@@ -16728,7 +16733,7 @@
         <v>1</v>
       </c>
       <c r="D696" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E696" s="14"/>
       <c r="F696" s="14"/>
@@ -16747,7 +16752,7 @@
         <v>1</v>
       </c>
       <c r="D697" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E697" s="14"/>
       <c r="F697" s="14"/>
@@ -16766,7 +16771,7 @@
         <v>1</v>
       </c>
       <c r="D698" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E698" s="14"/>
       <c r="F698" s="14"/>
@@ -16785,7 +16790,7 @@
         <v>1</v>
       </c>
       <c r="D699" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E699" s="14"/>
       <c r="F699" s="14"/>
@@ -16804,7 +16809,7 @@
         <v>1</v>
       </c>
       <c r="D700" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E700" s="14"/>
       <c r="F700" s="14"/>
@@ -16823,7 +16828,7 @@
         <v>1</v>
       </c>
       <c r="D701" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E701" s="14"/>
       <c r="F701" s="14"/>
@@ -16842,7 +16847,7 @@
         <v>1</v>
       </c>
       <c r="D702" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E702" s="14"/>
       <c r="F702" s="14"/>
@@ -16861,7 +16866,7 @@
         <v>1</v>
       </c>
       <c r="D703" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E703" s="14"/>
       <c r="F703" s="14"/>
@@ -16880,7 +16885,7 @@
         <v>1</v>
       </c>
       <c r="D704" s="32" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="E704" s="14"/>
       <c r="F704" s="14"/>
@@ -16899,7 +16904,7 @@
         <v>1</v>
       </c>
       <c r="D705" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E705" s="14"/>
       <c r="F705" s="14"/>
@@ -16918,7 +16923,7 @@
         <v>1</v>
       </c>
       <c r="D706" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E706" s="14"/>
       <c r="F706" s="14"/>
@@ -16937,7 +16942,7 @@
         <v>1</v>
       </c>
       <c r="D707" s="32" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="E707" s="14"/>
       <c r="F707" s="14"/>
@@ -16956,7 +16961,7 @@
         <v>1</v>
       </c>
       <c r="D708" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E708" s="14"/>
       <c r="F708" s="14"/>
@@ -16975,7 +16980,7 @@
         <v>1</v>
       </c>
       <c r="D709" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E709" s="14"/>
       <c r="F709" s="14"/>
@@ -16994,7 +16999,7 @@
         <v>1</v>
       </c>
       <c r="D710" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E710" s="14"/>
       <c r="F710" s="14"/>
@@ -17013,7 +17018,7 @@
         <v>1</v>
       </c>
       <c r="D711" s="32" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="E711" s="14"/>
       <c r="F711" s="14"/>
@@ -17032,7 +17037,7 @@
         <v>1</v>
       </c>
       <c r="D712" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E712" s="14"/>
       <c r="F712" s="14"/>
@@ -17051,7 +17056,7 @@
         <v>1</v>
       </c>
       <c r="D713" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E713" s="14"/>
       <c r="F713" s="14"/>
@@ -17070,7 +17075,7 @@
         <v>1</v>
       </c>
       <c r="D714" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E714" s="14"/>
       <c r="F714" s="14"/>
@@ -17089,7 +17094,7 @@
         <v>1</v>
       </c>
       <c r="D715" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E715" s="14"/>
       <c r="F715" s="14"/>
@@ -17108,7 +17113,7 @@
         <v>1</v>
       </c>
       <c r="D716" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E716" s="14"/>
       <c r="F716" s="14"/>
@@ -17127,7 +17132,7 @@
         <v>1</v>
       </c>
       <c r="D717" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E717" s="14"/>
       <c r="F717" s="14"/>
@@ -17146,7 +17151,7 @@
         <v>1</v>
       </c>
       <c r="D718" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E718" s="14"/>
       <c r="F718" s="14"/>
@@ -17165,7 +17170,7 @@
         <v>1</v>
       </c>
       <c r="D719" s="32" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="E719" s="14"/>
       <c r="F719" s="14"/>
@@ -17184,7 +17189,7 @@
         <v>1</v>
       </c>
       <c r="D720" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E720" s="14"/>
       <c r="F720" s="14"/>
@@ -17203,7 +17208,7 @@
         <v>1</v>
       </c>
       <c r="D721" s="32" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="E721" s="14"/>
       <c r="F721" s="14"/>
@@ -17222,7 +17227,7 @@
         <v>1</v>
       </c>
       <c r="D722" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E722" s="14"/>
       <c r="F722" s="14"/>
@@ -17241,7 +17246,7 @@
         <v>1</v>
       </c>
       <c r="D723" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E723" s="14"/>
       <c r="F723" s="14"/>
@@ -17260,7 +17265,7 @@
         <v>1</v>
       </c>
       <c r="D724" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E724" s="14"/>
       <c r="F724" s="14"/>
@@ -17279,7 +17284,7 @@
         <v>1</v>
       </c>
       <c r="D725" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E725" s="14"/>
       <c r="F725" s="14"/>
@@ -17298,7 +17303,7 @@
         <v>1</v>
       </c>
       <c r="D726" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E726" s="14"/>
       <c r="F726" s="14"/>
@@ -17317,7 +17322,7 @@
         <v>1</v>
       </c>
       <c r="D727" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E727" s="14"/>
       <c r="F727" s="14"/>
@@ -17336,7 +17341,7 @@
         <v>1</v>
       </c>
       <c r="D728" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E728" s="14"/>
       <c r="F728" s="14"/>
@@ -17355,7 +17360,7 @@
         <v>1</v>
       </c>
       <c r="D729" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E729" s="14"/>
       <c r="F729" s="14"/>
@@ -17374,7 +17379,7 @@
         <v>1</v>
       </c>
       <c r="D730" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E730" s="14"/>
       <c r="F730" s="14"/>
@@ -17393,7 +17398,7 @@
         <v>1</v>
       </c>
       <c r="D731" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E731" s="14"/>
       <c r="F731" s="14"/>
@@ -17412,7 +17417,7 @@
         <v>1</v>
       </c>
       <c r="D732" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E732" s="14"/>
       <c r="F732" s="14"/>
@@ -17431,7 +17436,7 @@
         <v>1</v>
       </c>
       <c r="D733" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E733" s="14"/>
       <c r="F733" s="14"/>
@@ -17450,7 +17455,7 @@
         <v>1</v>
       </c>
       <c r="D734" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E734" s="14"/>
       <c r="F734" s="14"/>
@@ -17469,7 +17474,7 @@
         <v>1</v>
       </c>
       <c r="D735" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E735" s="14"/>
       <c r="F735" s="14"/>
@@ -17488,7 +17493,7 @@
         <v>1</v>
       </c>
       <c r="D736" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E736" s="14"/>
       <c r="F736" s="14"/>
@@ -17507,7 +17512,7 @@
         <v>1</v>
       </c>
       <c r="D737" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E737" s="14"/>
       <c r="F737" s="14"/>
@@ -17526,7 +17531,7 @@
         <v>1</v>
       </c>
       <c r="D738" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E738" s="14"/>
       <c r="F738" s="14"/>
@@ -17545,7 +17550,7 @@
         <v>1</v>
       </c>
       <c r="D739" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E739" s="14"/>
       <c r="F739" s="14"/>
@@ -17564,7 +17569,7 @@
         <v>1</v>
       </c>
       <c r="D740" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E740" s="14"/>
       <c r="F740" s="14"/>
@@ -17583,7 +17588,7 @@
         <v>1</v>
       </c>
       <c r="D741" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E741" s="14"/>
       <c r="F741" s="14"/>
@@ -17602,7 +17607,7 @@
         <v>1</v>
       </c>
       <c r="D742" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E742" s="14"/>
       <c r="F742" s="14"/>
@@ -17621,7 +17626,7 @@
         <v>1</v>
       </c>
       <c r="D743" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E743" s="14"/>
       <c r="F743" s="14"/>
@@ -17640,7 +17645,7 @@
         <v>1</v>
       </c>
       <c r="D744" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E744" s="14"/>
       <c r="F744" s="14"/>
@@ -17659,7 +17664,7 @@
         <v>1</v>
       </c>
       <c r="D745" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E745" s="14"/>
       <c r="F745" s="14"/>
@@ -17678,7 +17683,7 @@
         <v>1</v>
       </c>
       <c r="D746" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E746" s="14"/>
       <c r="F746" s="14"/>
@@ -17697,7 +17702,7 @@
         <v>1</v>
       </c>
       <c r="D747" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E747" s="14"/>
       <c r="F747" s="14"/>
@@ -17716,7 +17721,7 @@
         <v>1</v>
       </c>
       <c r="D748" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E748" s="14"/>
       <c r="F748" s="14"/>
@@ -17735,7 +17740,7 @@
         <v>1</v>
       </c>
       <c r="D749" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E749" s="14"/>
       <c r="F749" s="14"/>
@@ -17754,7 +17759,7 @@
         <v>1</v>
       </c>
       <c r="D750" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E750" s="14"/>
       <c r="F750" s="14"/>
@@ -17773,7 +17778,7 @@
         <v>1</v>
       </c>
       <c r="D751" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E751" s="14"/>
       <c r="F751" s="14"/>
@@ -17792,7 +17797,7 @@
         <v>1</v>
       </c>
       <c r="D752" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E752" s="14"/>
       <c r="F752" s="14"/>
@@ -17811,7 +17816,7 @@
         <v>1</v>
       </c>
       <c r="D753" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E753" s="14"/>
       <c r="F753" s="14"/>
@@ -17830,7 +17835,7 @@
         <v>1</v>
       </c>
       <c r="D754" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E754" s="14"/>
       <c r="F754" s="14"/>
@@ -17849,7 +17854,7 @@
         <v>1</v>
       </c>
       <c r="D755" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E755" s="14"/>
       <c r="F755" s="14"/>
@@ -17868,7 +17873,7 @@
         <v>1</v>
       </c>
       <c r="D756" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E756" s="14"/>
       <c r="F756" s="14"/>
@@ -17887,7 +17892,7 @@
         <v>1</v>
       </c>
       <c r="D757" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E757" s="14"/>
       <c r="F757" s="14"/>
@@ -17906,7 +17911,7 @@
         <v>1</v>
       </c>
       <c r="D758" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E758" s="14"/>
       <c r="F758" s="14"/>
@@ -17925,7 +17930,7 @@
         <v>1</v>
       </c>
       <c r="D759" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E759" s="14"/>
       <c r="F759" s="14"/>
@@ -17944,7 +17949,7 @@
         <v>1</v>
       </c>
       <c r="D760" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E760" s="14"/>
       <c r="F760" s="14"/>
@@ -17963,7 +17968,7 @@
         <v>1</v>
       </c>
       <c r="D761" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E761" s="14"/>
       <c r="F761" s="14"/>
@@ -17982,7 +17987,7 @@
         <v>1</v>
       </c>
       <c r="D762" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E762" s="14"/>
       <c r="F762" s="14"/>
@@ -18001,7 +18006,7 @@
         <v>1</v>
       </c>
       <c r="D763" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E763" s="14"/>
       <c r="F763" s="14"/>
@@ -18020,7 +18025,7 @@
         <v>1</v>
       </c>
       <c r="D764" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E764" s="14"/>
       <c r="F764" s="14"/>
@@ -18039,7 +18044,7 @@
         <v>1</v>
       </c>
       <c r="D765" s="32" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="E765" s="14"/>
       <c r="F765" s="14"/>
@@ -18058,7 +18063,7 @@
         <v>1</v>
       </c>
       <c r="D766" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E766" s="14"/>
       <c r="F766" s="14"/>
@@ -18077,7 +18082,7 @@
         <v>1</v>
       </c>
       <c r="D767" s="32" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="E767" s="14"/>
       <c r="F767" s="14"/>
@@ -18096,7 +18101,7 @@
         <v>1</v>
       </c>
       <c r="D768" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E768" s="14"/>
       <c r="F768" s="14"/>
@@ -18115,7 +18120,7 @@
         <v>1</v>
       </c>
       <c r="D769" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E769" s="14"/>
       <c r="F769" s="14"/>
@@ -18134,7 +18139,7 @@
         <v>1</v>
       </c>
       <c r="D770" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E770" s="14"/>
       <c r="F770" s="14"/>
@@ -18153,7 +18158,7 @@
         <v>1</v>
       </c>
       <c r="D771" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E771" s="14"/>
       <c r="F771" s="14"/>
@@ -18172,7 +18177,7 @@
         <v>1</v>
       </c>
       <c r="D772" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E772" s="14"/>
       <c r="F772" s="14"/>
@@ -18191,7 +18196,7 @@
         <v>1</v>
       </c>
       <c r="D773" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E773" s="14"/>
       <c r="F773" s="14"/>
@@ -18210,7 +18215,7 @@
         <v>1</v>
       </c>
       <c r="D774" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E774" s="14"/>
       <c r="F774" s="14"/>
@@ -18229,7 +18234,7 @@
         <v>1</v>
       </c>
       <c r="D775" s="32" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="E775" s="14"/>
       <c r="F775" s="14"/>
@@ -18248,7 +18253,7 @@
         <v>1</v>
       </c>
       <c r="D776" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E776" s="14"/>
       <c r="F776" s="14"/>
@@ -18267,7 +18272,7 @@
         <v>1</v>
       </c>
       <c r="D777" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E777" s="14"/>
       <c r="F777" s="14"/>
@@ -18286,7 +18291,7 @@
         <v>1</v>
       </c>
       <c r="D778" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E778" s="14"/>
       <c r="F778" s="14"/>
@@ -18305,7 +18310,7 @@
         <v>1</v>
       </c>
       <c r="D779" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E779" s="14"/>
       <c r="F779" s="14"/>
@@ -18324,7 +18329,7 @@
         <v>1</v>
       </c>
       <c r="D780" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E780" s="14"/>
       <c r="F780" s="14"/>
@@ -18343,7 +18348,7 @@
         <v>1</v>
       </c>
       <c r="D781" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E781" s="14"/>
       <c r="F781" s="14"/>
@@ -18362,7 +18367,7 @@
         <v>1</v>
       </c>
       <c r="D782" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E782" s="14"/>
       <c r="F782" s="14"/>
@@ -18381,7 +18386,7 @@
         <v>1</v>
       </c>
       <c r="D783" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E783" s="14"/>
       <c r="F783" s="14"/>
@@ -18400,7 +18405,7 @@
         <v>1</v>
       </c>
       <c r="D784" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E784" s="14"/>
       <c r="F784" s="14"/>
@@ -18419,7 +18424,7 @@
         <v>1</v>
       </c>
       <c r="D785" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E785" s="14"/>
       <c r="F785" s="14"/>
@@ -18438,7 +18443,7 @@
         <v>1</v>
       </c>
       <c r="D786" s="32" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="E786" s="14"/>
       <c r="F786" s="14"/>
@@ -18457,7 +18462,7 @@
         <v>1</v>
       </c>
       <c r="D787" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E787" s="14"/>
       <c r="F787" s="14"/>
@@ -18476,7 +18481,7 @@
         <v>1</v>
       </c>
       <c r="D788" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E788" s="14"/>
       <c r="F788" s="14"/>
@@ -18495,7 +18500,7 @@
         <v>1</v>
       </c>
       <c r="D789" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E789" s="14"/>
       <c r="F789" s="14"/>
@@ -18514,7 +18519,7 @@
         <v>1</v>
       </c>
       <c r="D790" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E790" s="14"/>
       <c r="F790" s="14"/>
@@ -18533,7 +18538,7 @@
         <v>1</v>
       </c>
       <c r="D791" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E791" s="14"/>
       <c r="F791" s="14"/>
@@ -18552,7 +18557,7 @@
         <v>1</v>
       </c>
       <c r="D792" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E792" s="14"/>
       <c r="F792" s="14"/>
@@ -18571,7 +18576,7 @@
         <v>1</v>
       </c>
       <c r="D793" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E793" s="14"/>
       <c r="F793" s="14"/>
@@ -18590,7 +18595,7 @@
         <v>1</v>
       </c>
       <c r="D794" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E794" s="14"/>
       <c r="F794" s="14"/>
@@ -18609,7 +18614,7 @@
         <v>1</v>
       </c>
       <c r="D795" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E795" s="14"/>
       <c r="F795" s="14"/>
@@ -18628,7 +18633,7 @@
         <v>1</v>
       </c>
       <c r="D796" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E796" s="14"/>
       <c r="F796" s="14"/>
@@ -18647,7 +18652,7 @@
         <v>1</v>
       </c>
       <c r="D797" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E797" s="14"/>
       <c r="F797" s="14"/>
@@ -18666,7 +18671,7 @@
         <v>1</v>
       </c>
       <c r="D798" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E798" s="14"/>
       <c r="F798" s="14"/>
@@ -18685,7 +18690,7 @@
         <v>1</v>
       </c>
       <c r="D799" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E799" s="14"/>
       <c r="F799" s="14"/>
@@ -18704,7 +18709,7 @@
         <v>1</v>
       </c>
       <c r="D800" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E800" s="14"/>
       <c r="F800" s="14"/>
@@ -18723,7 +18728,7 @@
         <v>1</v>
       </c>
       <c r="D801" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E801" s="14"/>
       <c r="F801" s="14"/>
@@ -18742,7 +18747,7 @@
         <v>1</v>
       </c>
       <c r="D802" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E802" s="14"/>
       <c r="F802" s="14"/>
@@ -18761,7 +18766,7 @@
         <v>1</v>
       </c>
       <c r="D803" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E803" s="14"/>
       <c r="F803" s="14"/>
@@ -18780,7 +18785,7 @@
         <v>1</v>
       </c>
       <c r="D804" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E804" s="14"/>
       <c r="F804" s="14"/>
@@ -18799,7 +18804,7 @@
         <v>1</v>
       </c>
       <c r="D805" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E805" s="14"/>
       <c r="F805" s="14"/>
@@ -18818,7 +18823,7 @@
         <v>1</v>
       </c>
       <c r="D806" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E806" s="14"/>
       <c r="F806" s="14"/>
@@ -18837,7 +18842,7 @@
         <v>1</v>
       </c>
       <c r="D807" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E807" s="14"/>
       <c r="F807" s="14"/>
@@ -18856,7 +18861,7 @@
         <v>1</v>
       </c>
       <c r="D808" s="32" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="E808" s="14"/>
       <c r="F808" s="14"/>
@@ -18875,7 +18880,7 @@
         <v>1</v>
       </c>
       <c r="D809" s="32" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="E809" s="14"/>
       <c r="F809" s="14"/>
@@ -18894,7 +18899,7 @@
         <v>1</v>
       </c>
       <c r="D810" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E810" s="14"/>
       <c r="F810" s="14"/>
@@ -18913,7 +18918,7 @@
         <v>1</v>
       </c>
       <c r="D811" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E811" s="14"/>
       <c r="F811" s="14"/>
@@ -18932,7 +18937,7 @@
         <v>1</v>
       </c>
       <c r="D812" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E812" s="14"/>
       <c r="F812" s="14"/>
@@ -18951,7 +18956,7 @@
         <v>1</v>
       </c>
       <c r="D813" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E813" s="14"/>
       <c r="F813" s="14"/>
@@ -18970,7 +18975,7 @@
         <v>1</v>
       </c>
       <c r="D814" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E814" s="14"/>
       <c r="F814" s="14"/>
@@ -18989,7 +18994,7 @@
         <v>1</v>
       </c>
       <c r="D815" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E815" s="14"/>
       <c r="F815" s="14"/>
@@ -19008,7 +19013,7 @@
         <v>1</v>
       </c>
       <c r="D816" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E816" s="14"/>
       <c r="F816" s="14"/>
@@ -19027,7 +19032,7 @@
         <v>1</v>
       </c>
       <c r="D817" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E817" s="14"/>
       <c r="F817" s="14"/>
@@ -19046,7 +19051,7 @@
         <v>1</v>
       </c>
       <c r="D818" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E818" s="14"/>
       <c r="F818" s="14"/>
@@ -19065,7 +19070,7 @@
         <v>1</v>
       </c>
       <c r="D819" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E819" s="14"/>
       <c r="F819" s="14"/>
@@ -19084,7 +19089,7 @@
         <v>1</v>
       </c>
       <c r="D820" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E820" s="14"/>
       <c r="F820" s="14"/>
@@ -19103,7 +19108,7 @@
         <v>1</v>
       </c>
       <c r="D821" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E821" s="14"/>
       <c r="F821" s="14"/>
@@ -19122,7 +19127,7 @@
         <v>1</v>
       </c>
       <c r="D822" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E822" s="14"/>
       <c r="F822" s="14"/>
@@ -19141,7 +19146,7 @@
         <v>1</v>
       </c>
       <c r="D823" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E823" s="14"/>
       <c r="F823" s="14"/>
@@ -19160,7 +19165,7 @@
         <v>1</v>
       </c>
       <c r="D824" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E824" s="14"/>
       <c r="F824" s="14"/>
@@ -19179,7 +19184,7 @@
         <v>1</v>
       </c>
       <c r="D825" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E825" s="14"/>
       <c r="F825" s="14"/>
@@ -19198,7 +19203,7 @@
         <v>1</v>
       </c>
       <c r="D826" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E826" s="14"/>
       <c r="F826" s="14"/>
@@ -19217,7 +19222,7 @@
         <v>1</v>
       </c>
       <c r="D827" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E827" s="14"/>
       <c r="F827" s="14"/>
@@ -19236,7 +19241,7 @@
         <v>1</v>
       </c>
       <c r="D828" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E828" s="14"/>
       <c r="F828" s="14"/>
@@ -19255,7 +19260,7 @@
         <v>1</v>
       </c>
       <c r="D829" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E829" s="14"/>
       <c r="F829" s="14"/>
@@ -19274,7 +19279,7 @@
         <v>1</v>
       </c>
       <c r="D830" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E830" s="14"/>
       <c r="F830" s="14"/>
@@ -19293,7 +19298,7 @@
         <v>1</v>
       </c>
       <c r="D831" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E831" s="14"/>
       <c r="F831" s="14"/>
@@ -19312,7 +19317,7 @@
         <v>1</v>
       </c>
       <c r="D832" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E832" s="14"/>
       <c r="F832" s="14"/>
@@ -19331,7 +19336,7 @@
         <v>1</v>
       </c>
       <c r="D833" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E833" s="14"/>
       <c r="F833" s="14"/>
@@ -19350,7 +19355,7 @@
         <v>1</v>
       </c>
       <c r="D834" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E834" s="14"/>
       <c r="F834" s="14"/>
@@ -19369,7 +19374,7 @@
         <v>1</v>
       </c>
       <c r="D835" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E835" s="14"/>
       <c r="F835" s="14"/>
@@ -19388,7 +19393,7 @@
         <v>1</v>
       </c>
       <c r="D836" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E836" s="14"/>
       <c r="F836" s="14"/>
@@ -19407,7 +19412,7 @@
         <v>1</v>
       </c>
       <c r="D837" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E837" s="14"/>
       <c r="F837" s="14"/>
@@ -19426,7 +19431,7 @@
         <v>1</v>
       </c>
       <c r="D838" s="32" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="E838" s="14"/>
       <c r="F838" s="14"/>
@@ -19445,7 +19450,7 @@
         <v>1</v>
       </c>
       <c r="D839" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E839" s="14"/>
       <c r="F839" s="14"/>
@@ -19464,7 +19469,7 @@
         <v>1</v>
       </c>
       <c r="D840" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E840" s="14"/>
       <c r="F840" s="14"/>
@@ -19483,7 +19488,7 @@
         <v>1</v>
       </c>
       <c r="D841" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E841" s="14"/>
       <c r="F841" s="14"/>
@@ -19502,7 +19507,7 @@
         <v>1</v>
       </c>
       <c r="D842" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E842" s="14"/>
       <c r="F842" s="14"/>
@@ -19521,7 +19526,7 @@
         <v>1</v>
       </c>
       <c r="D843" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E843" s="14"/>
       <c r="F843" s="14"/>
@@ -19540,7 +19545,7 @@
         <v>1</v>
       </c>
       <c r="D844" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E844" s="14"/>
       <c r="F844" s="14"/>
@@ -19559,7 +19564,7 @@
         <v>1</v>
       </c>
       <c r="D845" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E845" s="14"/>
       <c r="F845" s="14"/>
@@ -19578,7 +19583,7 @@
         <v>1</v>
       </c>
       <c r="D846" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E846" s="14"/>
       <c r="F846" s="14"/>
@@ -19597,7 +19602,7 @@
         <v>1</v>
       </c>
       <c r="D847" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E847" s="14"/>
       <c r="F847" s="14"/>
@@ -19616,7 +19621,7 @@
         <v>1</v>
       </c>
       <c r="D848" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E848" s="14"/>
       <c r="F848" s="14"/>
@@ -19635,7 +19640,7 @@
         <v>1</v>
       </c>
       <c r="D849" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E849" s="14"/>
       <c r="F849" s="14"/>
@@ -19654,7 +19659,7 @@
         <v>1</v>
       </c>
       <c r="D850" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E850" s="14"/>
       <c r="F850" s="14"/>
@@ -19673,7 +19678,7 @@
         <v>1</v>
       </c>
       <c r="D851" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E851" s="14"/>
       <c r="F851" s="14"/>
@@ -19692,7 +19697,7 @@
         <v>1</v>
       </c>
       <c r="D852" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E852" s="14"/>
       <c r="F852" s="14"/>
@@ -19711,7 +19716,7 @@
         <v>1</v>
       </c>
       <c r="D853" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E853" s="14"/>
       <c r="F853" s="14"/>
@@ -19730,7 +19735,7 @@
         <v>1</v>
       </c>
       <c r="D854" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E854" s="14"/>
       <c r="F854" s="14"/>
@@ -19749,7 +19754,7 @@
         <v>1</v>
       </c>
       <c r="D855" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E855" s="14"/>
       <c r="F855" s="14"/>
@@ -19768,7 +19773,7 @@
         <v>1</v>
       </c>
       <c r="D856" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E856" s="14"/>
       <c r="F856" s="14"/>
@@ -19787,7 +19792,7 @@
         <v>1</v>
       </c>
       <c r="D857" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E857" s="14"/>
       <c r="F857" s="14"/>
@@ -19806,7 +19811,7 @@
         <v>1</v>
       </c>
       <c r="D858" s="32" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="E858" s="14"/>
       <c r="F858" s="14"/>
@@ -19825,7 +19830,7 @@
         <v>1</v>
       </c>
       <c r="D859" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E859" s="14"/>
       <c r="F859" s="14"/>
@@ -19844,7 +19849,7 @@
         <v>1</v>
       </c>
       <c r="D860" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E860" s="14"/>
       <c r="F860" s="14"/>
@@ -19863,7 +19868,7 @@
         <v>1</v>
       </c>
       <c r="D861" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E861" s="14"/>
       <c r="F861" s="14"/>
@@ -19882,7 +19887,7 @@
         <v>1</v>
       </c>
       <c r="D862" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E862" s="14"/>
       <c r="F862" s="14"/>
@@ -19901,7 +19906,7 @@
         <v>1</v>
       </c>
       <c r="D863" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E863" s="14"/>
       <c r="F863" s="14"/>
@@ -19920,7 +19925,7 @@
         <v>1</v>
       </c>
       <c r="D864" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E864" s="14"/>
       <c r="F864" s="14"/>
@@ -19939,7 +19944,7 @@
         <v>1</v>
       </c>
       <c r="D865" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E865" s="14"/>
       <c r="F865" s="14"/>
@@ -19958,7 +19963,7 @@
         <v>1</v>
       </c>
       <c r="D866" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E866" s="14"/>
       <c r="F866" s="14"/>
@@ -19977,7 +19982,7 @@
         <v>1</v>
       </c>
       <c r="D867" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E867" s="14"/>
       <c r="F867" s="14"/>
@@ -19996,7 +20001,7 @@
         <v>1</v>
       </c>
       <c r="D868" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E868" s="14"/>
       <c r="F868" s="14"/>
@@ -20015,7 +20020,7 @@
         <v>1</v>
       </c>
       <c r="D869" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E869" s="14"/>
       <c r="F869" s="14"/>
@@ -20034,7 +20039,7 @@
         <v>1</v>
       </c>
       <c r="D870" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E870" s="14"/>
       <c r="F870" s="14"/>
@@ -20053,7 +20058,7 @@
         <v>1</v>
       </c>
       <c r="D871" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E871" s="14"/>
       <c r="F871" s="14"/>
@@ -20072,7 +20077,7 @@
         <v>1</v>
       </c>
       <c r="D872" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E872" s="14"/>
       <c r="F872" s="14"/>
@@ -20091,7 +20096,7 @@
         <v>1</v>
       </c>
       <c r="D873" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E873" s="14"/>
       <c r="F873" s="14"/>
@@ -20110,7 +20115,7 @@
         <v>1</v>
       </c>
       <c r="D874" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E874" s="14"/>
       <c r="F874" s="14"/>
@@ -20129,7 +20134,7 @@
         <v>1</v>
       </c>
       <c r="D875" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E875" s="14"/>
       <c r="F875" s="14"/>
@@ -20148,7 +20153,7 @@
         <v>1</v>
       </c>
       <c r="D876" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E876" s="14"/>
       <c r="F876" s="14"/>
@@ -20167,7 +20172,7 @@
         <v>1</v>
       </c>
       <c r="D877" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E877" s="14"/>
       <c r="F877" s="14"/>
@@ -20186,7 +20191,7 @@
         <v>1</v>
       </c>
       <c r="D878" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E878" s="14"/>
       <c r="F878" s="14"/>
@@ -20205,7 +20210,7 @@
         <v>1</v>
       </c>
       <c r="D879" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E879" s="14"/>
       <c r="F879" s="14"/>
@@ -20224,7 +20229,7 @@
         <v>1</v>
       </c>
       <c r="D880" s="32" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="E880" s="14"/>
       <c r="F880" s="14"/>
@@ -20243,7 +20248,7 @@
         <v>1</v>
       </c>
       <c r="D881" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E881" s="14"/>
       <c r="F881" s="14"/>
@@ -20262,7 +20267,7 @@
         <v>1</v>
       </c>
       <c r="D882" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E882" s="14"/>
       <c r="F882" s="14"/>
@@ -20281,7 +20286,7 @@
         <v>1</v>
       </c>
       <c r="D883" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E883" s="14"/>
       <c r="F883" s="14"/>
@@ -20300,7 +20305,7 @@
         <v>1</v>
       </c>
       <c r="D884" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E884" s="14"/>
       <c r="F884" s="14"/>
@@ -20319,7 +20324,7 @@
         <v>1</v>
       </c>
       <c r="D885" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E885" s="14"/>
       <c r="F885" s="14"/>
@@ -20338,7 +20343,7 @@
         <v>1</v>
       </c>
       <c r="D886" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E886" s="14"/>
       <c r="F886" s="14"/>
@@ -20357,7 +20362,7 @@
         <v>1</v>
       </c>
       <c r="D887" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E887" s="14"/>
       <c r="F887" s="14"/>
@@ -20376,7 +20381,7 @@
         <v>1</v>
       </c>
       <c r="D888" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E888" s="14"/>
       <c r="F888" s="14"/>
@@ -20395,7 +20400,7 @@
         <v>1</v>
       </c>
       <c r="D889" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E889" s="14"/>
       <c r="F889" s="14"/>
@@ -20414,7 +20419,7 @@
         <v>1</v>
       </c>
       <c r="D890" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E890" s="14"/>
       <c r="F890" s="14"/>
@@ -20433,7 +20438,7 @@
         <v>1</v>
       </c>
       <c r="D891" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E891" s="14"/>
       <c r="F891" s="14"/>
@@ -20452,7 +20457,7 @@
         <v>1</v>
       </c>
       <c r="D892" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E892" s="14"/>
       <c r="F892" s="14"/>
@@ -20471,7 +20476,7 @@
         <v>1</v>
       </c>
       <c r="D893" s="32" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="E893" s="14"/>
       <c r="F893" s="14"/>
@@ -20490,7 +20495,7 @@
         <v>1</v>
       </c>
       <c r="D894" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E894" s="14"/>
       <c r="F894" s="14"/>
@@ -20509,7 +20514,7 @@
         <v>1</v>
       </c>
       <c r="D895" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E895" s="14"/>
       <c r="F895" s="14"/>
@@ -20528,7 +20533,7 @@
         <v>1</v>
       </c>
       <c r="D896" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E896" s="14"/>
       <c r="F896" s="14"/>
@@ -20547,7 +20552,7 @@
         <v>1</v>
       </c>
       <c r="D897" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E897" s="14"/>
       <c r="F897" s="14"/>
@@ -20566,7 +20571,7 @@
         <v>1</v>
       </c>
       <c r="D898" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E898" s="14"/>
       <c r="F898" s="14"/>
@@ -20585,7 +20590,7 @@
         <v>1</v>
       </c>
       <c r="D899" s="32" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="E899" s="14"/>
       <c r="F899" s="14"/>
@@ -20604,7 +20609,7 @@
         <v>1</v>
       </c>
       <c r="D900" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E900" s="14"/>
       <c r="F900" s="14"/>
@@ -20623,7 +20628,7 @@
         <v>1</v>
       </c>
       <c r="D901" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E901" s="14"/>
       <c r="F901" s="14"/>
@@ -20642,7 +20647,7 @@
         <v>1</v>
       </c>
       <c r="D902" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E902" s="14"/>
       <c r="F902" s="14"/>
@@ -20661,7 +20666,7 @@
         <v>1</v>
       </c>
       <c r="D903" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E903" s="14"/>
       <c r="F903" s="14"/>
@@ -20680,7 +20685,7 @@
         <v>1</v>
       </c>
       <c r="D904" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E904" s="14"/>
       <c r="F904" s="14"/>
@@ -20699,7 +20704,7 @@
         <v>1</v>
       </c>
       <c r="D905" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E905" s="14"/>
       <c r="F905" s="14"/>
@@ -20718,7 +20723,7 @@
         <v>1</v>
       </c>
       <c r="D906" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E906" s="14"/>
       <c r="F906" s="14"/>
@@ -20737,7 +20742,7 @@
         <v>1</v>
       </c>
       <c r="D907" s="32" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="E907" s="14"/>
       <c r="F907" s="14"/>
@@ -20756,7 +20761,7 @@
         <v>1</v>
       </c>
       <c r="D908" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E908" s="14"/>
       <c r="F908" s="14"/>
@@ -20775,7 +20780,7 @@
         <v>1</v>
       </c>
       <c r="D909" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E909" s="14"/>
       <c r="F909" s="14"/>
@@ -20794,7 +20799,7 @@
         <v>1</v>
       </c>
       <c r="D910" s="32" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="E910" s="14"/>
       <c r="F910" s="14"/>
@@ -20813,7 +20818,7 @@
         <v>1</v>
       </c>
       <c r="D911" s="32" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="E911" s="14"/>
       <c r="F911" s="14"/>
@@ -20832,7 +20837,7 @@
         <v>1</v>
       </c>
       <c r="D912" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E912" s="14"/>
       <c r="F912" s="14"/>
@@ -20851,7 +20856,7 @@
         <v>1</v>
       </c>
       <c r="D913" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E913" s="14"/>
       <c r="F913" s="14"/>
@@ -20870,7 +20875,7 @@
         <v>1</v>
       </c>
       <c r="D914" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E914" s="14"/>
       <c r="F914" s="14"/>
@@ -20889,7 +20894,7 @@
         <v>1</v>
       </c>
       <c r="D915" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E915" s="14"/>
       <c r="F915" s="14"/>
@@ -20908,7 +20913,7 @@
         <v>1</v>
       </c>
       <c r="D916" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E916" s="14"/>
       <c r="F916" s="14"/>
@@ -20927,7 +20932,7 @@
         <v>1</v>
       </c>
       <c r="D917" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E917" s="14"/>
       <c r="F917" s="14"/>
@@ -20946,7 +20951,7 @@
         <v>1</v>
       </c>
       <c r="D918" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E918" s="14"/>
       <c r="F918" s="14"/>
@@ -20965,7 +20970,7 @@
         <v>1</v>
       </c>
       <c r="D919" s="32" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="E919" s="14"/>
       <c r="F919" s="14"/>
@@ -20984,7 +20989,7 @@
         <v>1</v>
       </c>
       <c r="D920" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E920" s="14"/>
       <c r="F920" s="14"/>
@@ -21003,7 +21008,7 @@
         <v>1</v>
       </c>
       <c r="D921" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E921" s="14"/>
       <c r="F921" s="14"/>
@@ -21022,7 +21027,7 @@
         <v>1</v>
       </c>
       <c r="D922" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E922" s="14"/>
       <c r="F922" s="14"/>
@@ -21041,7 +21046,7 @@
         <v>1</v>
       </c>
       <c r="D923" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E923" s="14"/>
       <c r="F923" s="14"/>
@@ -21060,7 +21065,7 @@
         <v>1</v>
       </c>
       <c r="D924" s="32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E924" s="14"/>
       <c r="F924" s="14"/>
@@ -21079,7 +21084,7 @@
         <v>1</v>
       </c>
       <c r="D925" s="34" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E925" s="21"/>
       <c r="F925" s="21"/>
